--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$313</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="711">
   <si>
     <t>Req ID</t>
   </si>
@@ -851,9 +851,6 @@
     <t>MS-COPYS_R182</t>
   </si>
   <si>
-    <t>MS-COPYS_R183</t>
-  </si>
-  <si>
     <t>MS-COPYS_R184</t>
   </si>
   <si>
@@ -1001,9 +998,6 @@
     <t>MS-COPYS_R239</t>
   </si>
   <si>
-    <t>MS-COPYS_R240</t>
-  </si>
-  <si>
     <t>MS-COPYS_R241</t>
   </si>
   <si>
@@ -1103,9 +1097,6 @@
     <t>MS-COPYS_R273</t>
   </si>
   <si>
-    <t>MS-COPYS_R274</t>
-  </si>
-  <si>
     <t>MS-COPYS_R275</t>
   </si>
   <si>
@@ -1154,9 +1145,6 @@
     <t>MS-COPYS_R295</t>
   </si>
   <si>
-    <t>MS-COPYS_R296</t>
-  </si>
-  <si>
     <t>MS-COPYS_R297</t>
   </si>
   <si>
@@ -1409,16 +1397,6 @@
     <t>[In SOAP Fault Message] The following schema specifies the structure of the detail element in the SOAP fault response that is used by this protocol:</t>
   </si>
   <si>
-    <t>[In SOAP Fault Message] The following schema specifies the structure of the detail element in the SOAP fault response that is used by this protocol: &lt;s:schema xmlns:s="http://www.w3.org/2001/XMLSchema" targetNamespace=" http://schemas.microsoft.com/sharepoint/soap"&gt;
-     &lt;s:complexType name="SOAPFaultDetails"&gt;
-        &lt;s:sequence&gt;
-           &lt;s:element name="errorstring" type="s:string"/&gt;
-           &lt;s:element name="errorcode" type="s:string" minOccurs="0"/&gt;
-        &lt;/s:sequence&gt;
-     &lt;/s:complexType&gt;
-  &lt;/s:schema&gt;</t>
-  </si>
-  <si>
     <t>[In SOAP Fault Message] errorstring: A description of the error.</t>
   </si>
   <si>
@@ -1429,17 +1407,6 @@
   </si>
   <si>
     <t>[In SOAP Exception Message] The following schema specifies the structure of the detail element in the SOAP exception response that is used by this protocol:</t>
-  </si>
-  <si>
-    <t>[In SOAP Exception Message]The following schema specifies the structure of the detail element in the SOAP exception response that is used by this protocol: &lt;s:schema xmlns:s="http://www.w3.org/2001/XMLSchema" targetNamespace=" http://schemas.microsoft.com/sharepoint/soap"&gt;
-     &lt;s:complexType name="SOAPFaultDetails"&gt;
-        &lt;s:sequence&gt;
-           &lt;s:element name="errorstring" type="s:string"/&gt;
-           &lt;s:element name="faultcode" type="s:string" /&gt;
-           &lt;s:element name="faultstring" type="s:string" /&gt;
-        &lt;/s:sequence&gt;
-     &lt;/s:complexType&gt;
-  &lt;/s:schema&gt;</t>
   </si>
   <si>
     <t>[In SOAP Exception Message] errorstring: A description of the error.</t>
@@ -1512,9 +1479,6 @@
     <t>[In CopyResult] ErrorMessage: The user-readable message that explains the failure specified by the ErrorCode attribute.</t>
   </si>
   <si>
-    <t>[In CopyResult] [ErrorMessage] If the value of ErrorCode is "Success," the attribute MUST NOT be present.</t>
-  </si>
-  <si>
     <t>[In CopyResult] [ErrorMessage] [For CopyIntoItems operation] If the value of ErrorCode is "Success," the attribute MUST NOT be present.</t>
   </si>
   <si>
@@ -1544,9 +1508,6 @@
     &lt;s:element minOccurs="0" maxOccurs="unbounded" name="CopyResult" nillable="true" type="tns:CopyResult" /&gt;
   &lt;/s:sequence&gt;
 &lt;/s:complexType&gt;</t>
-  </si>
-  <si>
-    <t>[In CopyResultCollection] CopyResult: Specifies the status of the copy operation for a single destination location, as defined in section 2.2.4.2.</t>
   </si>
   <si>
     <t>[In FieldInformation] The FieldInformation complex type contains the value, type, and identity information for a specific metadata field for a file.</t>
@@ -1743,12 +1704,6 @@
 &lt;/s:simpleType&gt;</t>
   </si>
   <si>
-    <t>[In FieldType] This protocol supports the following field types[Invalid, Integer, Text, Note, DateTime, Counter, Choice, Lookup, Boolean, Number, Currency, URL, Computed, Threading, Guid, MultiChoice, GridChoice, Calculated, File, Attachments, User, Recurrence, CrossProjectLink, ModStat, AllDayEvent, Error] as a subset of the fields specified in [MS-WSSTS] section 2.3. .[In [MS-WSSTS] section 2.3: The Field Types: AllDayEvent,Attachments,Boolean,Calculated,Choice,Computed,ContentTypeId,Counter,CrossProjectLink,Currency,DateTime,Error,File,GridChoice,Guid,Integer,Invalid,Lookup,MaxItems,ModStat,MultiChoice,Note,Number,PageSeparator,Recurrence,Text,Threading,ThreadIndex,User,URL,WorkflowEventType,WorkflowStatus. ]</t>
-  </si>
-  <si>
-    <t>[In FieldType] Other field types [ContentTypeId, Geolocation, MaxItems, PageSeparator, ThreadIndex, WorkflowEventType, WorkflowStatus, LookupMulti, UserMulti] specified in [MS-WSSTS] section 2.3, except the ContentTypeId field type, MUST map to the error field types defined by this protocol</t>
-  </si>
-  <si>
     <t>[In FieldType] Field Type WorkflowEventType MUST map to error field type in this protocol.</t>
   </si>
   <si>
@@ -1900,9 +1855,6 @@
     <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the source location points to a different server or uses a different HTTP or HTTPS protocol, the protocol server MUST report a SOAP exception.</t>
   </si>
   <si>
-    <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the source location does not point to an existing file on the protocol server, the protocol server MUST report a failure by omitting the Fields and Stream elements in the GetItemResponse element (section 3.1.4.1.2.2).</t>
-  </si>
-  <si>
     <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the URL parameter is an invalid URI format string, the protocol server SHOULD return a SOAP fault.</t>
   </si>
   <si>
@@ -1923,10 +1875,6 @@
   </si>
   <si>
     <t>[In GetItemSoapOut] The GetItemSoapOut message is the response WSDL message for a GetItem WSDL operation.</t>
-  </si>
-  <si>
-    <t>[In GetItemSoapOut] The SOAP action value of the message is defined as:
-http://schemas.microsoft.com/sharepoint/soap/GetItem</t>
   </si>
   <si>
     <t>[In GetItemSoapOut] The SOAP body contains a GetItemResponse element (section 3.1.4.1.2.2).</t>
@@ -2048,9 +1996,6 @@
     <t>[In CopyIntoItems] If the field is not empty, the Value attribute MUST be present and contain a non-empty Unicode string that represents the value of the field.</t>
   </si>
   <si>
-    <t>[In CopyIntoItems] If the type is "DateTime", the value MUST be in the format of "yyyy-mm-dd" or "yyyy-mm-dd hh:mm:ss", or in the UTC format.</t>
-  </si>
-  <si>
     <t>[In CopyIntoItems] The protocol server MUST attempt to copy the file to all destination locations that are specified in the request.</t>
   </si>
   <si>
@@ -2066,9 +2011,6 @@
     <t>[In CopyIntoItems] The file that is created or updated as a result of the operation MUST have the same content as specified in the Stream element of the CopyIntoItemsSoapIn message.</t>
   </si>
   <si>
-    <t>[In CopyIntoItems] If the file cannot be created at the given destination location,  the protocol server MUST report a failure for this destination location by setting the ErrorCode attribute of the corresponding CopyResult element to "Unknown" and provide a string value that describes the error in the ErrorMessage attribute.</t>
-  </si>
-  <si>
     <t>[In CopyIntoItems] If the content of the file cannot be set to the value specified in the Stream element based on permission settings, the protocol server MUST report a failure for this destination location by setting the ErrorCode attribute of the corresponding CopyResult element to "Unknown" and provide a string value that describes the error in the ErrorMessage attribute.</t>
   </si>
   <si>
@@ -2076,9 +2018,6 @@
   </si>
   <si>
     <t>[In CopyIntoItems] The field for the source location MUST be set to the value of SourceUrl element.</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItems] Failure to set or update some or all of the fields MUST NOT be treated as a failure to copy the file and MUST be reported as success for the given destination location.&lt;3&gt;</t>
   </si>
   <si>
     <t>[In CopyIntoItems] For the CopyIntoItemsLocal method, see section 3.1.4.3.</t>
@@ -2095,10 +2034,6 @@
   </si>
   <si>
     <t>[In CopyIntoItemsSoapOut] The CopyIntoItemsSoapOut message is the response WSDL message for a CopyIntoItems WSDL operation (section 3.1.4.2).</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItemsSoapOut] The SOAP action value of the message is defined as:
-http://schemas.microsoft.com/sharepoint/soap/CopyIntoItems</t>
   </si>
   <si>
     <t>[In CopyIntoItemsSoapOut] The SOAP body contains a CopyIntoItemsResponse element (section 3.1.4.2.2.2).</t>
@@ -2207,21 +2142,6 @@
     <t>[In CopyIntoItemsLocal] The protocol client prepares the request with the source location and the collection of destination locations to copy the file to.</t>
   </si>
   <si>
-    <t>[In CopyIntoItemsLocal] If the source [or destination] location does not point to an existing folder [or the protocol client does not have permission to access the source file], the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for all of the destination locations.</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItems] If the [source or] destination location does not point to an existing folder [or the protocol client does not have permission to access the source file], the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for all of the destination locations.</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItems] If [the source or destination location does not point to an existing folder or] the protocol client does not have permission to access the source file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for all of the destination locations.</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for all of the destination locations.</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for all of the destination locations.</t>
-  </si>
-  <si>
     <t>[In CopyIntoItemsLocal] The protocol server retrieves the content and metadata for the file in the source location.</t>
   </si>
   <si>
@@ -2231,13 +2151,7 @@
     <t>[In CopyIntoItemsLocal] The protocol server MUST perform the copy operation for the file and construct a response.</t>
   </si>
   <si>
-    <t>[In CopyIntoItemsLocal] If the source location and the destination location refer to different protocol servers, [or if the destination location points to a non-existing folder,] the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "DestinationInvalid".</t>
-  </si>
-  <si>
     <t>[In CopyIntoItemsLocal] [If the source location and the destination location refer to different protocol servers, or ]if the destination location points to a non-existing folder, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "DestinationInvalid".</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItemsLocal] Unless otherwise specified, the method behavior for the source IRI, content, fields, and destination locations for the CopyItemsIntoLocal operation is the same as the CopyIntoItems operation, as specified in section 3.1.4.2.&lt;4&gt;</t>
   </si>
   <si>
     <t>[In CopyIntoItemsLocal] The protocol server MUST report the status of the operation inside the Results collection for each destination location that is passed</t>
@@ -2269,10 +2183,6 @@
   </si>
   <si>
     <t>[In CopyIntoItemsLocalSoapOut] The CopyIntoItemsLocalSoapOut message is the response WSDL message for a CopyIntoItemsLocal WSDL operation (section 3.1.4.3).</t>
-  </si>
-  <si>
-    <t>[In CopyIntoItemsLocalSoapOut] The SOAP action value of the message is defined as:
-http://schemas.microsoft.com/sharepoint/soap/CopyIntoItemsLocal</t>
   </si>
   <si>
     <t>[In CopyIntoItemsLocalSoapOut] The SOAP body contains a CopyIntoItemsLocalResponse element (section 3.1.4.3.2.2).</t>
@@ -2346,12 +2256,6 @@
     <t>[In CopyErrorCode] [For CopyIntoItemsLocal operation] Implementation does return an ErrorCode of "Unknown" when a destination location  is a malformed IRI on Windows SharePoint Services 3.0 and SharePoint Foundation 2010.</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] [For CopyIntoItems operation] Implementation [the value of field with internal name _CopySource ] does equal to the value of source location.(SharePoint Foundation 2010 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [For CopyIntoItemsLocation operation] Implementation [the value of field with internal name _CopySource ] does equal to the value of source location.(SharePoint Foundation 2010 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does ContentTypeId field type map to the Text field type.( Microsoft SharePoint Foundation 2013 follow this behavior)</t>
   </si>
   <si>
@@ -2361,12 +2265,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does ContentTypeId field type map to Text field type.(SharePoint Foundation 2010 SP2 follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] CopyIntoItems operation does not copy the EncodedAbsUrl field.(Windows SharePoint Services 3.0 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] CopyIntoItemsLocal operation does not copy the EncodedAbsUrl field.(Windows SharePoint Services 3.0 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does return a SOAP fault if the URL parameter is an invalid URI format string. (Microsoft SharePoint Foundation 2010 and Microsoft SharePoint Foundation 2013 follow this behavior.)</t>
   </si>
   <si>
@@ -2488,12 +2386,156 @@
   </si>
   <si>
     <t>Open Specification Date:</t>
+  </si>
+  <si>
+    <t>[In SOAP Fault Message] The following schema specifies the structure of the detail element in the SOAP fault response that is used by this protocol: &lt;s:schema xmlns:s="http://www.w3.org/2001/XMLSchema" targetNamespace=" http://schemas.microsoft.com/sharepoint/soap/"&gt;
+     &lt;s:complexType name="SOAPFaultDetails"&gt;
+        &lt;s:sequence&gt;
+           &lt;s:element name="errorstring" type="s:string"/&gt;
+           &lt;s:element name="errorcode" type="s:string" minOccurs="0"/&gt;
+        &lt;/s:sequence&gt;
+     &lt;/s:complexType&gt;
+  &lt;/s:schema&gt;</t>
+  </si>
+  <si>
+    <t>[In SOAP Exception Message]The following schema specifies the structure of the detail element in the SOAP exception response that is used by this protocol: &lt;s:schema xmlns:s="http://www.w3.org/2001/XMLSchema" targetNamespace=" http://schemas.microsoft.com/sharepoint/soap/"&gt;
+     &lt;s:complexType name="SOAPExceptionDetails"&gt;
+        &lt;s:sequence&gt;
+           &lt;s:element name="errorstring" type="s:string"/&gt;
+           &lt;s:element name="faultcode" type="s:string" /&gt;
+           &lt;s:element name="faultstring" type="s:string" /&gt;
+        &lt;/s:sequence&gt;
+     &lt;/s:complexType&gt;
+  &lt;/s:schema&gt;</t>
+  </si>
+  <si>
+    <t>[In CopyResult] [ErrorMessage] If the value of ErrorCode is "Success", the attribute MUST NOT be present.</t>
+  </si>
+  <si>
+    <t>[In CopyResultCollection] CopyResult: Specifies the copy status for each destination location, as defined in section 2.2.4.2.</t>
+  </si>
+  <si>
+    <t>[In FieldType] This protocol supports the following field types[Invalid, Integer, Text, Note, DateTime, Counter, Choice, Lookup, Boolean, Number, Currency, URL, Computed, Threading, Guid, MultiChoice, GridChoice, Calculated, File, Attachments, User, Recurrence, CrossProjectLink, ModStat, AllDayEvent, Error] as a subset of the fields specified in [MS-WSSTS] section 2.3.</t>
+  </si>
+  <si>
+    <t>[In FieldType] Other field types [ContentTypeId, Geolocation, MaxItems, PageSeparator, ThreadIndex, WorkflowEventType, WorkflowStatus, LookupMulti, UserMulti] specified in [MS-WSSTS] section 2.3, except the ContentTypeId, LookupMulti and UserMulti field types, MUST map to the error field type defined by this protocol.</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R1231</t>
+  </si>
+  <si>
+    <t>[In FieldType] The LookupMulti field type SHOULD map to the Lookup field type.</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R1232</t>
+  </si>
+  <si>
+    <t>[In FieldType] The UserMulti field type SHOULD map to the User field type.</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R1231:i,MS-COPYS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R12311</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R1232:i,MS-COPYS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does map the LookupMulti field type to the Lookup field type. (Windows SharePoint Services 3.0 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-COPYS_R12311.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does map the UserMulti field type to the User field type.type. (Windows SharePoint Services 3.0 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R12312</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-COPYS_R12312.</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R1233</t>
+  </si>
+  <si>
+    <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the source location URL is in an invalid format, the protocol server MUST report a SOAP exception.&lt;3&gt;</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R12331</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R1233:i</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R12332</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return a SOAP exception if the source location URL is in an invalid format. (&lt;3&gt; Section 3.1.4.1:  Windows SharePoint Services 3.0 does not return a SOAP exception.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exceptionif the source location URL is in an invalid format. (Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-COPYS_R12331, MS-COPYS_R12332.</t>
+  </si>
+  <si>
+    <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the source location does not point to an existing file on the protocol server, the protocol server MUST omit the Fields and Stream elements in the GetItemResponse element (section 3.1.4.1.2.2).</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItems] If the type is "DateTime", the value MUST be a UTC value.</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItems] Failure to set or update some or all of the fields MUST NOT be treated as a failure to copy the file and MUST be reported as success for the given destination location.&lt;4&gt;</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItems] If the source location does not point to an existing file, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyIntoItems] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] If the source location and the destination location refer to different protocol servers, [or if the destination location points to a non-existing folder,] the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "DestinationInvalid".&lt;5&gt;</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R278:i</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R2781</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return empty results if the source location and the destination location refer to different protocol servers. (&lt;5&gt; Section 3.1.4.3:  The server returns empty results when the source location and the destination location refer to different protocol servers.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-COPYS_R2781.</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] Unless otherwise specified, the method behavior for the source IRI, content, fields, and destination locations for the CopyItemsIntoLocal operation is the same as the CopyIntoItems operation, as specified in section 3.1.4.2.&lt;6&gt;</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [For CopyIntoItems operation] Implementation [the value of field with internal name _CopySource ] does equal to the value of source location.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [For CopyIntoItemsLocation operation] Implementation [the value of field with internal name _CopySource ] does equal to the value of source location.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] CopyIntoItems operation does not copy the EncodedAbsUrl field.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] CopyIntoItemsLocal operation does not copy the EncodedAbsUrl field.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItems] If the file cannot be created at the given destination location, the protocol server MUST report a failure for this destination location by setting the ErrorCode attribute of the corresponding CopyResult element to "Unknown" and provide a string value that describes the error in the ErrorMessage attribute.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -2759,21 +2801,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2798,11 +2825,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -3142,36 +3184,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
@@ -3344,8 +3356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I309" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I309"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I313" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I313"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -3467,6 +3479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3502,6 +3531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3679,28 +3725,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -3710,7 +3756,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3724,138 +3770,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="29">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="F3" s="12">
-        <v>41481</v>
+        <v>42566</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3868,12 +3914,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3886,12 +3932,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3904,12 +3950,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3922,60 +3968,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4014,10 +4060,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4039,10 +4085,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4058,18 +4104,18 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="30">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="23" customFormat="1">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -4091,10 +4137,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4116,10 +4162,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -4141,10 +4187,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4161,15 +4207,15 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="23" customFormat="1">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -4186,15 +4232,15 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -4216,10 +4262,10 @@
         <v>51</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4241,10 +4287,10 @@
         <v>52</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -4261,15 +4307,15 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="30" spans="1:12" s="23" customFormat="1">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4286,15 +4332,15 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="31" spans="1:12" s="23" customFormat="1">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -4316,10 +4362,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -4336,15 +4382,15 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
+    <row r="33" spans="1:9" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -4361,15 +4407,15 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -4386,15 +4432,15 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -4411,15 +4457,15 @@
       </c>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -4441,10 +4487,10 @@
         <v>60</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -4466,10 +4512,10 @@
         <v>61</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -4491,10 +4537,10 @@
         <v>62</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -4511,15 +4557,15 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="165">
+    <row r="40" spans="1:9" ht="150">
       <c r="A40" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>388</v>
+        <v>332</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>668</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -4541,10 +4587,10 @@
         <v>64</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -4566,10 +4612,10 @@
         <v>65</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -4586,15 +4632,15 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" ht="45">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -4616,10 +4662,10 @@
         <v>67</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -4641,10 +4687,10 @@
         <v>68</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>393</v>
+        <v>333</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>669</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -4657,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I45" s="32"/>
     </row>
@@ -4666,10 +4712,10 @@
         <v>69</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4691,10 +4737,10 @@
         <v>70</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4707,7 +4753,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="32"/>
     </row>
@@ -4716,10 +4762,10 @@
         <v>71</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4732,19 +4778,19 @@
         <v>15</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4766,10 +4812,10 @@
         <v>73</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -4791,10 +4837,10 @@
         <v>74</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -4816,10 +4862,10 @@
         <v>75</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -4836,15 +4882,15 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="45">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
@@ -4866,10 +4912,10 @@
         <v>77</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -4891,10 +4937,10 @@
         <v>78</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -4916,10 +4962,10 @@
         <v>79</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -4944,7 +4990,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -4961,7 +5007,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="105">
+    <row r="58" spans="1:9" ht="90">
       <c r="A58" s="30" t="s">
         <v>81</v>
       </c>
@@ -4969,7 +5015,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -4994,7 +5040,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -5019,7 +5065,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5041,10 +5087,10 @@
         <v>84</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -5066,10 +5112,10 @@
         <v>85</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -5091,10 +5137,10 @@
         <v>86</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -5116,10 +5162,10 @@
         <v>87</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5136,15 +5182,15 @@
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9">
       <c r="A65" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>413</v>
+        <v>336</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -5166,13 +5212,13 @@
         <v>89</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>19</v>
@@ -5193,13 +5239,13 @@
         <v>90</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="E67" s="30" t="s">
         <v>19</v>
@@ -5215,15 +5261,15 @@
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="45">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5245,13 +5291,13 @@
         <v>92</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>19</v>
@@ -5272,13 +5318,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>19</v>
@@ -5299,10 +5345,10 @@
         <v>94</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5324,10 +5370,10 @@
         <v>95</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -5349,10 +5395,10 @@
         <v>96</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -5374,10 +5420,10 @@
         <v>97</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -5399,10 +5445,10 @@
         <v>98</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>423</v>
+        <v>337</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>671</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -5424,10 +5470,10 @@
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -5449,10 +5495,10 @@
         <v>100</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5474,10 +5520,10 @@
         <v>101</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -5499,10 +5545,10 @@
         <v>102</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -5524,10 +5570,10 @@
         <v>103</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -5549,10 +5595,10 @@
         <v>104</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -5574,10 +5620,10 @@
         <v>105</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5599,10 +5645,10 @@
         <v>106</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5624,10 +5670,10 @@
         <v>107</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5644,15 +5690,15 @@
       </c>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" spans="1:9" ht="30">
+    <row r="85" spans="1:9">
       <c r="A85" s="30" t="s">
         <v>108</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5674,10 +5720,10 @@
         <v>109</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5699,10 +5745,10 @@
         <v>110</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -5724,10 +5770,10 @@
         <v>111</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -5743,7 +5789,7 @@
         <v>17</v>
       </c>
       <c r="I88" s="32" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30">
@@ -5751,13 +5797,13 @@
         <v>112</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="E89" s="30" t="s">
         <v>19</v>
@@ -5778,10 +5824,10 @@
         <v>113</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5797,7 +5843,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30">
@@ -5805,13 +5851,13 @@
         <v>114</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>19</v>
@@ -5832,10 +5878,10 @@
         <v>115</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5857,10 +5903,10 @@
         <v>116</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5882,10 +5928,10 @@
         <v>117</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5907,10 +5953,10 @@
         <v>118</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5932,10 +5978,10 @@
         <v>119</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -5957,10 +6003,10 @@
         <v>120</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -5982,10 +6028,10 @@
         <v>121</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -6007,10 +6053,10 @@
         <v>122</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6032,10 +6078,10 @@
         <v>123</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6052,15 +6098,15 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="45">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="30" t="s">
         <v>124</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6082,10 +6128,10 @@
         <v>125</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -6107,13 +6153,13 @@
         <v>126</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>19</v>
@@ -6134,13 +6180,13 @@
         <v>127</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>19</v>
@@ -6161,10 +6207,10 @@
         <v>128</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6186,10 +6232,10 @@
         <v>129</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -6211,10 +6257,10 @@
         <v>130</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -6236,13 +6282,13 @@
         <v>131</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
@@ -6258,18 +6304,18 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="30" t="s">
         <v>132</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="E109" s="30" t="s">
         <v>19</v>
@@ -6290,10 +6336,10 @@
         <v>133</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -6306,7 +6352,7 @@
         <v>15</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" s="32"/>
     </row>
@@ -6315,10 +6361,10 @@
         <v>134</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -6340,13 +6386,13 @@
         <v>135</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="E112" s="30" t="s">
         <v>19</v>
@@ -6362,18 +6408,18 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="45">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="E113" s="30" t="s">
         <v>19</v>
@@ -6394,10 +6440,10 @@
         <v>137</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6410,19 +6456,19 @@
         <v>15</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="75">
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -6438,18 +6484,18 @@
         <v>17</v>
       </c>
       <c r="I115" s="32" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="45">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="30" t="s">
         <v>139</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -6466,18 +6512,18 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="45">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="E117" s="30" t="s">
         <v>19</v>
@@ -6498,13 +6544,13 @@
         <v>141</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="E118" s="30" t="s">
         <v>19</v>
@@ -6520,15 +6566,15 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9">
       <c r="A119" s="30" t="s">
         <v>142</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -6550,10 +6596,10 @@
         <v>143</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -6570,15 +6616,15 @@
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" ht="135">
+    <row r="121" spans="1:9" ht="60">
       <c r="A121" s="30" t="s">
         <v>144</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>469</v>
+        <v>342</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -6600,10 +6646,10 @@
         <v>145</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>470</v>
+        <v>342</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>673</v>
       </c>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
@@ -6619,7 +6665,7 @@
         <v>17</v>
       </c>
       <c r="I122" s="32" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6627,13 +6673,13 @@
         <v>146</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>19</v>
@@ -6649,15 +6695,15 @@
       </c>
       <c r="I123" s="32"/>
     </row>
-    <row r="124" spans="1:9" ht="60">
-      <c r="A124" s="30" t="s">
+    <row r="124" spans="1:9" ht="45">
+      <c r="A124" s="22" t="s">
         <v>147</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>472</v>
+        <v>342</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>462</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -6672,19 +6718,19 @@
       <c r="H124" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="32" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="60">
-      <c r="A125" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>473</v>
+      <c r="I124" s="20" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30">
+      <c r="A125" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>675</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -6697,19 +6743,21 @@
         <v>15</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I125" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="30">
-      <c r="A126" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>474</v>
+      <c r="A126" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>677</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -6719,22 +6767,24 @@
         <v>3</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="32"/>
-    </row>
-    <row r="127" spans="1:9" ht="90">
+        <v>17</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="60">
       <c r="A127" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -6753,13 +6803,13 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
@@ -6776,15 +6826,15 @@
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" ht="75">
       <c r="A129" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -6794,22 +6844,22 @@
         <v>3</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9">
       <c r="A130" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -6828,20 +6878,20 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G131" s="30" t="s">
         <v>16</v>
@@ -6851,22 +6901,22 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9">
       <c r="A132" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G132" s="30" t="s">
         <v>16</v>
@@ -6876,15 +6926,15 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" ht="45">
+    <row r="133" spans="1:9">
       <c r="A133" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -6901,22 +6951,22 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9">
       <c r="A134" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G134" s="30" t="s">
         <v>16</v>
@@ -6926,22 +6976,22 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="45">
       <c r="A135" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G135" s="30" t="s">
         <v>16</v>
@@ -6951,15 +7001,15 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="45">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -6978,20 +7028,20 @@
     </row>
     <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G137" s="30" t="s">
         <v>16</v>
@@ -7001,22 +7051,22 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G138" s="30" t="s">
         <v>16</v>
@@ -7026,15 +7076,15 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7051,15 +7101,15 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9">
       <c r="A140" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7076,15 +7126,15 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9">
       <c r="A141" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7101,15 +7151,15 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="45">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7119,22 +7169,22 @@
         <v>6</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H142" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="45">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7144,22 +7194,22 @@
         <v>6</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" ht="45">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7174,19 +7224,17 @@
       <c r="H144" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I144" s="32" t="s">
-        <v>688</v>
-      </c>
+      <c r="I144" s="32"/>
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7196,29 +7244,29 @@
         <v>6</v>
       </c>
       <c r="G145" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H145" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I145" s="32"/>
     </row>
     <row r="146" spans="1:9" ht="45">
       <c r="A146" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G146" s="30" t="s">
         <v>15</v>
@@ -7226,24 +7274,26 @@
       <c r="H146" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I146" s="32"/>
-    </row>
-    <row r="147" spans="1:9" ht="30">
+      <c r="I146" s="32" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G147" s="30" t="s">
         <v>16</v>
@@ -7255,69 +7305,65 @@
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G148" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9">
       <c r="A149" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>667</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F149" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H149" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" ht="45">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>667</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
         <v>19</v>
       </c>
@@ -7334,15 +7380,17 @@
     </row>
     <row r="151" spans="1:9" ht="30">
       <c r="A151" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D151" s="30"/>
+        <v>487</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>639</v>
+      </c>
       <c r="E151" s="30" t="s">
         <v>19</v>
       </c>
@@ -7350,24 +7398,26 @@
         <v>6</v>
       </c>
       <c r="G151" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H151" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="45">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="D152" s="30"/>
+        <v>488</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>639</v>
+      </c>
       <c r="E152" s="30" t="s">
         <v>19</v>
       </c>
@@ -7382,19 +7432,17 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="45">
+    <row r="153" spans="1:9">
       <c r="A153" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>668</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
         <v>19</v>
       </c>
@@ -7402,26 +7450,24 @@
         <v>6</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H153" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I153" s="32"/>
     </row>
     <row r="154" spans="1:9" ht="45">
       <c r="A154" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>668</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
         <v>19</v>
       </c>
@@ -7436,17 +7482,19 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" ht="45">
       <c r="A155" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D155" s="30"/>
+        <v>491</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>640</v>
+      </c>
       <c r="E155" s="30" t="s">
         <v>19</v>
       </c>
@@ -7461,18 +7509,18 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="45">
       <c r="A156" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="E156" s="30" t="s">
         <v>19</v>
@@ -7488,19 +7536,17 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9">
       <c r="A157" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>669</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
         <v>19</v>
       </c>
@@ -7515,17 +7561,19 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="D158" s="30"/>
+        <v>494</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>641</v>
+      </c>
       <c r="E158" s="30" t="s">
         <v>19</v>
       </c>
@@ -7533,72 +7581,74 @@
         <v>6</v>
       </c>
       <c r="G158" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I158" s="32"/>
     </row>
     <row r="159" spans="1:9" ht="30">
       <c r="A159" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="D159" s="30"/>
+        <v>495</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>641</v>
+      </c>
       <c r="E159" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F159" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9">
       <c r="A160" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F160" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I160" s="32"/>
     </row>
     <row r="161" spans="1:9" ht="30">
       <c r="A161" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7608,22 +7658,22 @@
         <v>3</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I161" s="32"/>
     </row>
     <row r="162" spans="1:9" ht="30">
       <c r="A162" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7642,13 +7692,13 @@
     </row>
     <row r="163" spans="1:9" ht="30">
       <c r="A163" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7665,15 +7715,15 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="60">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -7686,51 +7736,51 @@
         <v>15</v>
       </c>
       <c r="H164" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I164" s="32"/>
     </row>
     <row r="165" spans="1:9" ht="30">
       <c r="A165" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B165" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G165" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H165" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="45">
+    <row r="166" spans="1:9" ht="60">
       <c r="A166" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G166" s="30" t="s">
         <v>15</v>
@@ -7740,15 +7790,15 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9">
       <c r="A167" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -7758,7 +7808,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H167" s="30" t="s">
         <v>18</v>
@@ -7767,13 +7817,13 @@
     </row>
     <row r="168" spans="1:9" ht="30">
       <c r="A168" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B168" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -7783,29 +7833,29 @@
         <v>6</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B169" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G169" s="30" t="s">
         <v>16</v>
@@ -7815,15 +7865,15 @@
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9" ht="45">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B170" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D170" s="30"/>
       <c r="E170" s="30" t="s">
@@ -7833,47 +7883,47 @@
         <v>6</v>
       </c>
       <c r="G170" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H170" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="60">
+    <row r="171" spans="1:9">
       <c r="A171" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B171" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F171" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I171" s="32"/>
     </row>
     <row r="172" spans="1:9" ht="45">
-      <c r="A172" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B172" s="31" t="s">
+      <c r="A172" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="B172" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C172" s="32" t="s">
-        <v>520</v>
+      <c r="C172" s="20" t="s">
+        <v>687</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -7888,26 +7938,26 @@
       <c r="H172" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I172" s="32" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="60">
+      <c r="I172" s="20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="45">
       <c r="A173" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C173" s="32" t="s">
-        <v>521</v>
+      <c r="C173" s="20" t="s">
+        <v>508</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G173" s="30" t="s">
         <v>15</v>
@@ -7917,22 +7967,22 @@
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="60">
+    <row r="174" spans="1:9" ht="45">
       <c r="A174" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B174" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C174" s="32" t="s">
-        <v>522</v>
+      <c r="C174" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G174" s="30" t="s">
         <v>15</v>
@@ -7944,95 +7994,97 @@
     </row>
     <row r="175" spans="1:9" ht="30">
       <c r="A175" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G175" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" s="32"/>
-    </row>
-    <row r="176" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I175" s="32" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="60">
       <c r="A176" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G176" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="45">
       <c r="A177" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G177" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I177" s="32"/>
     </row>
     <row r="178" spans="1:9" ht="30">
       <c r="A178" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F178" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G178" s="30" t="s">
         <v>16</v>
@@ -8044,113 +8096,113 @@
     </row>
     <row r="179" spans="1:9" ht="30">
       <c r="A179" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G179" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H179" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9">
       <c r="A180" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G180" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I180" s="32"/>
     </row>
     <row r="181" spans="1:9" ht="30">
       <c r="A181" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H181" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="105">
+    <row r="182" spans="1:9">
       <c r="A182" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G182" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8160,22 +8212,22 @@
         <v>7</v>
       </c>
       <c r="G183" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H183" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="105">
       <c r="A184" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8194,13 +8246,13 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8210,32 +8262,32 @@
         <v>7</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H185" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9">
       <c r="A186" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H186" s="30" t="s">
         <v>18</v>
@@ -8244,38 +8296,38 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G187" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="195">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30" t="s">
@@ -8285,22 +8337,22 @@
         <v>6</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I188" s="32"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8310,122 +8362,122 @@
         <v>6</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" ht="195">
       <c r="A190" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G190" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I190" s="32"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="30">
+    <row r="192" spans="1:9">
       <c r="A192" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H192" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9">
       <c r="A193" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G193" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I193" s="32"/>
     </row>
     <row r="194" spans="1:9" ht="30">
       <c r="A194" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8444,13 +8496,13 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8460,72 +8512,72 @@
         <v>6</v>
       </c>
       <c r="G195" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G196" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9">
       <c r="A197" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G197" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="75">
+    <row r="198" spans="1:9">
       <c r="A198" s="30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B198" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -8538,51 +8590,51 @@
         <v>15</v>
       </c>
       <c r="H198" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I198" s="32"/>
     </row>
     <row r="199" spans="1:9" ht="30">
       <c r="A199" s="30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B199" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G199" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="75">
       <c r="A200" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B200" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G200" s="30" t="s">
         <v>15</v>
@@ -8592,15 +8644,15 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="60">
+    <row r="201" spans="1:9">
       <c r="A201" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B201" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -8619,95 +8671,95 @@
     </row>
     <row r="202" spans="1:9" ht="45">
       <c r="A202" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B202" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G202" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H202" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="45">
       <c r="A203" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B203" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G203" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I203" s="32"/>
     </row>
     <row r="204" spans="1:9" ht="30">
       <c r="A204" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B204" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G204" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="45">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B205" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G205" s="30" t="s">
         <v>15</v>
@@ -8717,22 +8769,22 @@
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="75">
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B206" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F206" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G206" s="30" t="s">
         <v>15</v>
@@ -8742,65 +8794,65 @@
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" ht="90">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B207" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G207" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H207" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" ht="60">
       <c r="A208" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B208" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G208" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="75">
       <c r="A209" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B209" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -8817,65 +8869,65 @@
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9">
       <c r="A210" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B210" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G210" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H210" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="60">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B211" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G211" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I211" s="32"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="45">
       <c r="A212" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B212" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -8892,90 +8944,90 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B213" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G213" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H213" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I213" s="32"/>
     </row>
     <row r="214" spans="1:9" ht="30">
       <c r="A214" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B214" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G214" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="60">
+    <row r="215" spans="1:9">
       <c r="A215" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B215" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C215" s="32" t="s">
-        <v>563</v>
+      <c r="C215" s="20" t="s">
+        <v>695</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F215" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G215" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H215" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" ht="60">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B216" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -8992,115 +9044,115 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="60">
       <c r="A217" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B217" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F217" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G217" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H217" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9" ht="60">
       <c r="A218" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B218" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G218" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H218" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="60">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G219" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9" ht="75">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G220" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" ht="45">
+    <row r="221" spans="1:9" ht="60">
       <c r="A221" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B221" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C221" s="32" t="s">
-        <v>569</v>
+      <c r="C221" s="20" t="s">
+        <v>710</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
@@ -9113,51 +9165,51 @@
         <v>15</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="60">
       <c r="A222" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B222" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F222" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G222" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I222" s="32"/>
     </row>
     <row r="223" spans="1:9" ht="45">
       <c r="A223" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B223" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G223" s="30" t="s">
         <v>15</v>
@@ -9165,29 +9217,27 @@
       <c r="H223" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I223" s="32" t="s">
-        <v>690</v>
-      </c>
+      <c r="I223" s="32"/>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B224" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G224" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H224" s="30" t="s">
         <v>18</v>
@@ -9195,49 +9245,51 @@
       <c r="I224" s="32"/>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="30" t="s">
-        <v>248</v>
+      <c r="A225" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C225" s="32" t="s">
-        <v>573</v>
+        <v>33</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>696</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G225" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I225" s="32"/>
-    </row>
-    <row r="226" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I225" s="32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F226" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G226" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H226" s="30" t="s">
         <v>18</v>
@@ -9246,13 +9298,13 @@
     </row>
     <row r="227" spans="1:9" ht="30">
       <c r="A227" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9262,7 +9314,7 @@
         <v>7</v>
       </c>
       <c r="G227" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H227" s="30" t="s">
         <v>18</v>
@@ -9271,63 +9323,63 @@
     </row>
     <row r="228" spans="1:9" ht="30">
       <c r="A228" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F228" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G228" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9">
       <c r="A229" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G229" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I229" s="32"/>
     </row>
     <row r="230" spans="1:9" ht="30">
       <c r="A230" s="30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9346,38 +9398,38 @@
     </row>
     <row r="231" spans="1:9" ht="30">
       <c r="A231" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F231" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G231" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="195">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9394,15 +9446,15 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" ht="180">
       <c r="A233" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9412,7 +9464,7 @@
         <v>7</v>
       </c>
       <c r="G233" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H233" s="30" t="s">
         <v>18</v>
@@ -9421,13 +9473,13 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9444,15 +9496,15 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9">
       <c r="A235" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9471,13 +9523,13 @@
     </row>
     <row r="236" spans="1:9" ht="30">
       <c r="A236" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9487,7 +9539,7 @@
         <v>7</v>
       </c>
       <c r="G236" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H236" s="30" t="s">
         <v>18</v>
@@ -9496,13 +9548,13 @@
     </row>
     <row r="237" spans="1:9" ht="30">
       <c r="A237" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9512,47 +9564,47 @@
         <v>7</v>
       </c>
       <c r="G237" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H237" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" ht="45">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D238" s="30"/>
       <c r="E238" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G238" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H238" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" ht="45">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="30" t="s">
@@ -9571,38 +9623,38 @@
     </row>
     <row r="240" spans="1:9" ht="30">
       <c r="A240" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G240" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H240" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -9619,22 +9671,22 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9">
       <c r="A242" s="30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G242" s="30" t="s">
         <v>16</v>
@@ -9646,63 +9698,63 @@
     </row>
     <row r="243" spans="1:9" ht="30">
       <c r="A243" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G243" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H243" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="165">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G244" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H244" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" ht="135">
       <c r="A245" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="30" t="s">
@@ -9712,97 +9764,97 @@
         <v>6</v>
       </c>
       <c r="G245" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H245" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I245" s="32"/>
     </row>
-    <row r="246" spans="1:9" ht="30">
+    <row r="246" spans="1:9">
       <c r="A246" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F246" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G246" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H246" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I246" s="32"/>
     </row>
-    <row r="247" spans="1:9" ht="30">
+    <row r="247" spans="1:9">
       <c r="A247" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G247" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="30">
+    <row r="248" spans="1:9">
       <c r="A248" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="D248" s="30"/>
       <c r="E248" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G248" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I248" s="32"/>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9">
       <c r="A249" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="D249" s="30"/>
       <c r="E249" s="30" t="s">
@@ -9812,29 +9864,29 @@
         <v>6</v>
       </c>
       <c r="G249" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H249" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I249" s="32"/>
     </row>
     <row r="250" spans="1:9" ht="30">
       <c r="A250" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G250" s="30" t="s">
         <v>15</v>
@@ -9846,13 +9898,13 @@
     </row>
     <row r="251" spans="1:9" ht="30">
       <c r="A251" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
@@ -9862,22 +9914,22 @@
         <v>3</v>
       </c>
       <c r="G251" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H251" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I251" s="32"/>
     </row>
     <row r="252" spans="1:9" ht="30">
       <c r="A252" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -9896,13 +9948,13 @@
     </row>
     <row r="253" spans="1:9" ht="30">
       <c r="A253" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9919,15 +9971,15 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9">
       <c r="A254" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
@@ -9937,22 +9989,22 @@
         <v>3</v>
       </c>
       <c r="G254" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H254" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="75">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
@@ -9965,126 +10017,126 @@
         <v>15</v>
       </c>
       <c r="H255" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="75">
       <c r="A256" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G256" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G257" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H258" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9" ht="60">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F259" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G259" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H259" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I259" s="32"/>
     </row>
     <row r="260" spans="1:9" ht="60">
-      <c r="A260" s="30" t="s">
-        <v>283</v>
+      <c r="A260" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C260" s="32" t="s">
-        <v>608</v>
+        <v>358</v>
+      </c>
+      <c r="C260" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F260" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G260" s="30" t="s">
         <v>15</v>
@@ -10096,13 +10148,13 @@
     </row>
     <row r="261" spans="1:9" ht="60">
       <c r="A261" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C261" s="32" t="s">
-        <v>609</v>
+        <v>358</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>698</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -10119,15 +10171,15 @@
       </c>
       <c r="I261" s="32"/>
     </row>
-    <row r="262" spans="1:9" ht="45">
+    <row r="262" spans="1:9" ht="60">
       <c r="A262" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C262" s="32" t="s">
-        <v>610</v>
+        <v>358</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>699</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
@@ -10140,19 +10192,19 @@
         <v>15</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I262" s="32"/>
     </row>
     <row r="263" spans="1:9" ht="60">
       <c r="A263" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C263" s="32" t="s">
-        <v>611</v>
+        <v>358</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>699</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
@@ -10165,19 +10217,19 @@
         <v>15</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I263" s="32"/>
     </row>
     <row r="264" spans="1:9" ht="30">
       <c r="A264" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="D264" s="30"/>
       <c r="E264" s="30" t="s">
@@ -10196,13 +10248,13 @@
     </row>
     <row r="265" spans="1:9" ht="30">
       <c r="A265" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="30" t="s">
@@ -10221,13 +10273,13 @@
     </row>
     <row r="266" spans="1:9" ht="30">
       <c r="A266" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="D266" s="30"/>
       <c r="E266" s="30" t="s">
@@ -10244,15 +10296,15 @@
       </c>
       <c r="I266" s="32"/>
     </row>
-    <row r="267" spans="1:9" ht="60">
-      <c r="A267" s="30" t="s">
-        <v>290</v>
+    <row r="267" spans="1:9" ht="45">
+      <c r="A267" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C267" s="32" t="s">
-        <v>615</v>
+        <v>358</v>
+      </c>
+      <c r="C267" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30" t="s">
@@ -10265,19 +10317,21 @@
         <v>15</v>
       </c>
       <c r="H267" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I267" s="32"/>
-    </row>
-    <row r="268" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I267" s="20" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="45">
       <c r="A268" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="D268" s="30"/>
       <c r="E268" s="30" t="s">
@@ -10294,15 +10348,15 @@
       </c>
       <c r="I268" s="32"/>
     </row>
-    <row r="269" spans="1:9" ht="90">
+    <row r="269" spans="1:9" ht="60">
       <c r="A269" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B269" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C269" s="32" t="s">
-        <v>617</v>
+        <v>358</v>
+      </c>
+      <c r="C269" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="D269" s="30"/>
       <c r="E269" s="30" t="s">
@@ -10317,22 +10371,22 @@
       <c r="H269" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I269" s="32" t="s">
-        <v>691</v>
+      <c r="I269" s="20" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="30">
       <c r="A270" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="D270" s="30" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="E270" s="30" t="s">
         <v>19</v>
@@ -10350,16 +10404,16 @@
     </row>
     <row r="271" spans="1:9" ht="30">
       <c r="A271" s="30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="E271" s="30" t="s">
         <v>19</v>
@@ -10377,16 +10431,16 @@
     </row>
     <row r="272" spans="1:9" ht="30">
       <c r="A272" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="E272" s="30" t="s">
         <v>19</v>
@@ -10402,18 +10456,18 @@
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="75">
+    <row r="273" spans="1:9" ht="60">
       <c r="A273" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="D273" s="30" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="E273" s="30" t="s">
         <v>19</v>
@@ -10431,16 +10485,16 @@
     </row>
     <row r="274" spans="1:9" ht="60">
       <c r="A274" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="D274" s="30" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="E274" s="30" t="s">
         <v>19</v>
@@ -10458,16 +10512,16 @@
     </row>
     <row r="275" spans="1:9" ht="60">
       <c r="A275" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="D275" s="30" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="E275" s="30" t="s">
         <v>19</v>
@@ -10485,13 +10539,13 @@
     </row>
     <row r="276" spans="1:9" ht="30">
       <c r="A276" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
@@ -10510,13 +10564,13 @@
     </row>
     <row r="277" spans="1:9" ht="30">
       <c r="A277" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
@@ -10533,15 +10587,15 @@
       </c>
       <c r="I277" s="32"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9">
       <c r="A278" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
@@ -10560,13 +10614,13 @@
     </row>
     <row r="279" spans="1:9" ht="30">
       <c r="A279" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
@@ -10585,13 +10639,13 @@
     </row>
     <row r="280" spans="1:9" ht="30">
       <c r="A280" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
@@ -10610,38 +10664,38 @@
     </row>
     <row r="281" spans="1:9" ht="30">
       <c r="A281" s="30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F281" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G281" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H281" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I281" s="32"/>
     </row>
-    <row r="282" spans="1:9" ht="30">
+    <row r="282" spans="1:9" ht="150">
       <c r="A282" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
@@ -10658,15 +10712,15 @@
       </c>
       <c r="I282" s="32"/>
     </row>
-    <row r="283" spans="1:9" ht="150">
+    <row r="283" spans="1:9">
       <c r="A283" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
@@ -10676,7 +10730,7 @@
         <v>7</v>
       </c>
       <c r="G283" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H283" s="30" t="s">
         <v>18</v>
@@ -10685,13 +10739,13 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
@@ -10701,7 +10755,7 @@
         <v>7</v>
       </c>
       <c r="G284" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H284" s="30" t="s">
         <v>18</v>
@@ -10710,13 +10764,13 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
@@ -10735,13 +10789,13 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
@@ -10760,38 +10814,38 @@
     </row>
     <row r="287" spans="1:9" ht="30">
       <c r="A287" s="30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F287" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G287" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H287" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I287" s="32"/>
     </row>
     <row r="288" spans="1:9" ht="30">
       <c r="A288" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="D288" s="30"/>
       <c r="E288" s="30" t="s">
@@ -10801,47 +10855,47 @@
         <v>3</v>
       </c>
       <c r="G288" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H288" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="135">
       <c r="A289" s="30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="D289" s="30"/>
       <c r="E289" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F289" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G289" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H289" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I289" s="32"/>
     </row>
-    <row r="290" spans="1:9" ht="165">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B290" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C290" s="32" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="D290" s="30"/>
       <c r="E290" s="30" t="s">
@@ -10858,65 +10912,65 @@
       </c>
       <c r="I290" s="32"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9">
       <c r="A291" s="30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B291" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="D291" s="30"/>
       <c r="E291" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G291" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H291" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I291" s="32"/>
     </row>
     <row r="292" spans="1:9" ht="30">
       <c r="A292" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B292" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="D292" s="30"/>
       <c r="E292" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F292" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G292" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H292" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I292" s="32"/>
     </row>
-    <row r="293" spans="1:9" ht="30">
+    <row r="293" spans="1:9">
       <c r="A293" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="D293" s="30"/>
       <c r="E293" s="30" t="s">
@@ -10926,22 +10980,22 @@
         <v>6</v>
       </c>
       <c r="G293" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H293" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I293" s="32"/>
     </row>
     <row r="294" spans="1:9" ht="30">
       <c r="A294" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="D294" s="30"/>
       <c r="E294" s="30" t="s">
@@ -10951,79 +11005,83 @@
         <v>6</v>
       </c>
       <c r="G294" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H294" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I294" s="32"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="45">
       <c r="A295" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C295" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="D295" s="30"/>
+        <v>620</v>
+      </c>
+      <c r="D295" s="30" t="s">
+        <v>648</v>
+      </c>
       <c r="E295" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F295" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G295" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H295" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I295" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="I295" s="32" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="296" spans="1:9" ht="45">
       <c r="A296" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="D296" s="30" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="E296" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F296" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G296" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H296" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I296" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="45">
       <c r="A297" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="D297" s="30" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="E297" s="30" t="s">
         <v>22</v>
@@ -11038,21 +11096,21 @@
         <v>20</v>
       </c>
       <c r="I297" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="45">
       <c r="A298" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="D298" s="30" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="E298" s="30" t="s">
         <v>22</v>
@@ -11067,21 +11125,21 @@
         <v>20</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="45">
       <c r="A299" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C299" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="D299" s="30" t="s">
-        <v>677</v>
+        <v>363</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>650</v>
       </c>
       <c r="E299" s="30" t="s">
         <v>22</v>
@@ -11096,21 +11154,21 @@
         <v>20</v>
       </c>
       <c r="I299" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="45">
       <c r="A300" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B300" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C300" s="32" t="s">
-        <v>648</v>
+        <v>363</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>707</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E300" s="30" t="s">
         <v>22</v>
@@ -11125,27 +11183,27 @@
         <v>20</v>
       </c>
       <c r="I300" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
       <c r="A301" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B301" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C301" s="32" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="D301" s="30" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="E301" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F301" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G301" s="30" t="s">
         <v>15</v>
@@ -11154,21 +11212,21 @@
         <v>20</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="45">
       <c r="A302" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B302" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C302" s="32" t="s">
-        <v>650</v>
+        <v>363</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>625</v>
       </c>
       <c r="D302" s="30" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="E302" s="30" t="s">
         <v>22</v>
@@ -11183,21 +11241,21 @@
         <v>20</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
       <c r="A303" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B303" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C303" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="D303" s="30" t="s">
         <v>651</v>
-      </c>
-      <c r="D303" s="30" t="s">
-        <v>679</v>
       </c>
       <c r="E303" s="30" t="s">
         <v>22</v>
@@ -11212,21 +11270,21 @@
         <v>20</v>
       </c>
       <c r="I303" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
-      <c r="A304" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="B304" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C304" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="D304" s="30" t="s">
+      <c r="A304" s="22" t="s">
         <v>679</v>
+      </c>
+      <c r="B304" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C304" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>678</v>
       </c>
       <c r="E304" s="30" t="s">
         <v>22</v>
@@ -11241,27 +11299,27 @@
         <v>20</v>
       </c>
       <c r="I304" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="45">
-      <c r="A305" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B305" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C305" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D305" s="30" t="s">
+      <c r="A305" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="D305" s="22" t="s">
         <v>680</v>
       </c>
       <c r="E305" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F305" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G305" s="30" t="s">
         <v>15</v>
@@ -11270,21 +11328,21 @@
         <v>20</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="45">
       <c r="A306" s="30" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C306" s="32" t="s">
-        <v>654</v>
+        <v>363</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>708</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="E306" s="30" t="s">
         <v>22</v>
@@ -11299,21 +11357,21 @@
         <v>20</v>
       </c>
       <c r="I306" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="45">
       <c r="A307" s="30" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C307" s="32" t="s">
-        <v>655</v>
+        <v>363</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>709</v>
       </c>
       <c r="D307" s="30" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="E307" s="30" t="s">
         <v>22</v>
@@ -11328,69 +11386,190 @@
         <v>20</v>
       </c>
       <c r="I307" s="32" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="45">
       <c r="A308" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B308" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C308" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="D308" s="30"/>
+        <v>627</v>
+      </c>
+      <c r="D308" s="30" t="s">
+        <v>653</v>
+      </c>
       <c r="E308" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F308" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G308" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H308" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I308" s="32"/>
-    </row>
-    <row r="309" spans="1:9" ht="30">
-      <c r="A309" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B309" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C309" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="D309" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I308" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="45">
+      <c r="A309" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="B309" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C309" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="D309" s="22" t="s">
+        <v>689</v>
+      </c>
       <c r="E309" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F309" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G309" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H309" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I309" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="45">
+      <c r="A310" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="B310" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D310" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="E310" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G310" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H310" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I310" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="45">
+      <c r="A311" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C311" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="D311" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="E311" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F311" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G311" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H311" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I311" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="45">
+      <c r="A312" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B312" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C312" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D312" s="30"/>
+      <c r="E312" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F312" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G309" s="30" t="s">
+      <c r="G312" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H309" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I309" s="32"/>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="3"/>
-      <c r="B310" s="10"/>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="3"/>
-      <c r="B311" s="10"/>
+      <c r="H312" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I312" s="32"/>
+    </row>
+    <row r="313" spans="1:9" ht="30">
+      <c r="A313" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B313" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="D313" s="30"/>
+      <c r="E313" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F313" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G313" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H313" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I313" s="32"/>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" s="3"/>
+      <c r="B314" s="10"/>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="3"/>
+      <c r="B315" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -11398,80 +11577,53 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H309 A34:I309">
-    <cfRule type="expression" dxfId="32" priority="53">
+  <conditionalFormatting sqref="A20:H181 I20:I263 A34:I313">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H309 A34:I309">
-    <cfRule type="expression" dxfId="29" priority="7">
+  <conditionalFormatting sqref="A20:H181 I20:I263 A34:I313">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F309">
-    <cfRule type="expression" dxfId="26" priority="13">
+  <conditionalFormatting sqref="F20:F313">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I309">
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I309">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F313">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E313">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G313">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H313">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11481,7 +11633,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B311 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B311:B315 B19:B126 B172:B181 B127:B171 B305:B310 B182:B230 B231:B263 B264:B304 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -11491,12 +11643,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11549,15 +11698,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11578,15 +11736,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$311</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="705">
   <si>
     <t>Req ID</t>
   </si>
@@ -830,9 +830,6 @@
     <t>MS-COPYS_R176</t>
   </si>
   <si>
-    <t>MS-COPYS_R1047</t>
-  </si>
-  <si>
     <t>MS-COPYS_R177</t>
   </si>
   <si>
@@ -1221,9 +1218,6 @@
   </si>
   <si>
     <t>MS-COPYS_R232</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R1048</t>
   </si>
   <si>
     <t>MS-COPYS_R1</t>
@@ -1855,9 +1849,6 @@
     <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the source location points to a different server or uses a different HTTP or HTTPS protocol, the protocol server MUST report a SOAP exception.</t>
   </si>
   <si>
-    <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the URL parameter is an invalid URI format string, the protocol server SHOULD return a SOAP fault.</t>
-  </si>
-  <si>
     <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the protocol server implements permission settings for files and the file at the source location cannot be read based on the permission settings for the file, the protocol server MUST report a failure by using HTTP Status-Code 401 Unauthorized, as defined in [RFC2616].</t>
   </si>
   <si>
@@ -2265,9 +2256,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does ContentTypeId field type map to Text field type.(SharePoint Foundation 2010 SP2 follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return a SOAP fault if the URL parameter is an invalid URI format string. (Microsoft SharePoint Foundation 2010 and Microsoft SharePoint Foundation 2013 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
   </si>
   <si>
@@ -2343,9 +2331,6 @@
     <t>MS-COPYS_R228:i</t>
   </si>
   <si>
-    <t>MS-COPYS_R1047:i, MS-COPYS_R1:i</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-COPYS_R5.</t>
   </si>
   <si>
@@ -2365,9 +2350,6 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-COPYS_R148, MS-COPYS_R149.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-COPYS_R1048.</t>
   </si>
   <si>
     <t>Verified by derived requirements: MS-COPYS_R230, MS-COPYS_R232.</t>
@@ -2801,6 +2783,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2825,26 +2822,55 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3183,50 +3209,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3356,34 +3338,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I313" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I313"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I311" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
+  <autoFilter ref="A19:I311"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3392,12 +3374,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="10"/>
+    <tableColumn id="2" name="Test" dataDxfId="9"/>
+    <tableColumn id="3" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3725,7 +3707,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L315"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3746,7 +3728,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -3756,7 +3738,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3773,7 +3755,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F3" s="12">
         <v>42566</v>
@@ -3781,127 +3763,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3914,12 +3896,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3932,12 +3914,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3950,12 +3932,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3968,60 +3950,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4060,10 +4042,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4085,10 +4067,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4104,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1">
@@ -4112,10 +4094,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -4137,10 +4119,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4162,10 +4144,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -4187,10 +4169,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4212,10 +4194,10 @@
         <v>49</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -4237,10 +4219,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -4262,10 +4244,10 @@
         <v>51</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4287,10 +4269,10 @@
         <v>52</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -4312,10 +4294,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4337,10 +4319,10 @@
         <v>54</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -4362,10 +4344,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -4387,10 +4369,10 @@
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -4412,10 +4394,10 @@
         <v>57</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -4437,10 +4419,10 @@
         <v>58</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -4462,10 +4444,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -4487,10 +4469,10 @@
         <v>60</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -4512,10 +4494,10 @@
         <v>61</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -4537,10 +4519,10 @@
         <v>62</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -4562,10 +4544,10 @@
         <v>63</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -4587,10 +4569,10 @@
         <v>64</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -4612,10 +4594,10 @@
         <v>65</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -4637,10 +4619,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -4662,10 +4644,10 @@
         <v>67</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -4687,10 +4669,10 @@
         <v>68</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -4712,10 +4694,10 @@
         <v>69</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4737,10 +4719,10 @@
         <v>70</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4762,10 +4744,10 @@
         <v>71</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4787,10 +4769,10 @@
         <v>72</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4812,10 +4794,10 @@
         <v>73</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -4837,10 +4819,10 @@
         <v>74</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -4862,10 +4844,10 @@
         <v>75</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -4887,10 +4869,10 @@
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
@@ -4912,10 +4894,10 @@
         <v>77</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -4937,10 +4919,10 @@
         <v>78</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -4962,10 +4944,10 @@
         <v>79</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -4990,7 +4972,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -5015,7 +4997,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -5040,7 +5022,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -5065,7 +5047,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5087,10 +5069,10 @@
         <v>84</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -5112,10 +5094,10 @@
         <v>85</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -5137,10 +5119,10 @@
         <v>86</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -5162,10 +5144,10 @@
         <v>87</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5187,10 +5169,10 @@
         <v>88</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -5212,13 +5194,13 @@
         <v>89</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>19</v>
@@ -5239,13 +5221,13 @@
         <v>90</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E67" s="30" t="s">
         <v>19</v>
@@ -5266,10 +5248,10 @@
         <v>91</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5291,13 +5273,13 @@
         <v>92</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>19</v>
@@ -5318,13 +5300,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>19</v>
@@ -5345,10 +5327,10 @@
         <v>94</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5370,10 +5352,10 @@
         <v>95</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -5395,10 +5377,10 @@
         <v>96</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -5420,10 +5402,10 @@
         <v>97</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -5445,10 +5427,10 @@
         <v>98</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -5470,10 +5452,10 @@
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -5495,10 +5477,10 @@
         <v>100</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5520,10 +5502,10 @@
         <v>101</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -5545,10 +5527,10 @@
         <v>102</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -5570,10 +5552,10 @@
         <v>103</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -5595,10 +5577,10 @@
         <v>104</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -5620,10 +5602,10 @@
         <v>105</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5645,10 +5627,10 @@
         <v>106</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5670,10 +5652,10 @@
         <v>107</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5695,10 +5677,10 @@
         <v>108</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5720,10 +5702,10 @@
         <v>109</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5745,10 +5727,10 @@
         <v>110</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -5770,10 +5752,10 @@
         <v>111</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -5789,7 +5771,7 @@
         <v>17</v>
       </c>
       <c r="I88" s="32" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30">
@@ -5797,13 +5779,13 @@
         <v>112</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E89" s="30" t="s">
         <v>19</v>
@@ -5824,10 +5806,10 @@
         <v>113</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5843,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30">
@@ -5851,13 +5833,13 @@
         <v>114</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>19</v>
@@ -5878,10 +5860,10 @@
         <v>115</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5903,10 +5885,10 @@
         <v>116</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5928,10 +5910,10 @@
         <v>117</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5953,10 +5935,10 @@
         <v>118</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5978,10 +5960,10 @@
         <v>119</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -6003,10 +5985,10 @@
         <v>120</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6028,10 +6010,10 @@
         <v>121</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -6053,10 +6035,10 @@
         <v>122</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6078,10 +6060,10 @@
         <v>123</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6103,10 +6085,10 @@
         <v>124</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6128,10 +6110,10 @@
         <v>125</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -6153,13 +6135,13 @@
         <v>126</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>19</v>
@@ -6180,13 +6162,13 @@
         <v>127</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>19</v>
@@ -6207,10 +6189,10 @@
         <v>128</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6232,10 +6214,10 @@
         <v>129</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -6257,10 +6239,10 @@
         <v>130</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -6282,13 +6264,13 @@
         <v>131</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
@@ -6309,13 +6291,13 @@
         <v>132</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E109" s="30" t="s">
         <v>19</v>
@@ -6336,10 +6318,10 @@
         <v>133</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -6361,10 +6343,10 @@
         <v>134</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -6386,13 +6368,13 @@
         <v>135</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E112" s="30" t="s">
         <v>19</v>
@@ -6413,13 +6395,13 @@
         <v>136</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E113" s="30" t="s">
         <v>19</v>
@@ -6440,10 +6422,10 @@
         <v>137</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6465,10 +6447,10 @@
         <v>138</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -6484,7 +6466,7 @@
         <v>17</v>
       </c>
       <c r="I115" s="32" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="30">
@@ -6492,10 +6474,10 @@
         <v>139</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -6517,13 +6499,13 @@
         <v>140</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E117" s="30" t="s">
         <v>19</v>
@@ -6544,13 +6526,13 @@
         <v>141</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E118" s="30" t="s">
         <v>19</v>
@@ -6571,10 +6553,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -6596,10 +6578,10 @@
         <v>143</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -6621,10 +6603,10 @@
         <v>144</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -6646,10 +6628,10 @@
         <v>145</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
@@ -6665,7 +6647,7 @@
         <v>17</v>
       </c>
       <c r="I122" s="32" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6673,13 +6655,13 @@
         <v>146</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>19</v>
@@ -6700,10 +6682,10 @@
         <v>147</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -6719,18 +6701,18 @@
         <v>17</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="22" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -6746,18 +6728,18 @@
         <v>17</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="22" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -6773,7 +6755,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="60">
@@ -6781,10 +6763,10 @@
         <v>148</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -6806,10 +6788,10 @@
         <v>149</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
@@ -6831,10 +6813,10 @@
         <v>150</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -6856,10 +6838,10 @@
         <v>151</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -6881,10 +6863,10 @@
         <v>152</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -6906,10 +6888,10 @@
         <v>153</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -6931,10 +6913,10 @@
         <v>154</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -6956,10 +6938,10 @@
         <v>155</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -6981,10 +6963,10 @@
         <v>156</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -7006,10 +6988,10 @@
         <v>157</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -7031,10 +7013,10 @@
         <v>158</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -7056,10 +7038,10 @@
         <v>159</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7081,10 +7063,10 @@
         <v>160</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7106,10 +7088,10 @@
         <v>161</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7131,10 +7113,10 @@
         <v>162</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7156,10 +7138,10 @@
         <v>163</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7181,10 +7163,10 @@
         <v>164</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7206,10 +7188,10 @@
         <v>165</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7231,10 +7213,10 @@
         <v>166</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7251,15 +7233,15 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9" ht="45">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7275,7 +7257,7 @@
         <v>17</v>
       </c>
       <c r="I146" s="32" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7283,10 +7265,10 @@
         <v>168</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
@@ -7308,10 +7290,10 @@
         <v>169</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
@@ -7333,10 +7315,10 @@
         <v>170</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -7358,10 +7340,10 @@
         <v>171</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -7383,13 +7365,13 @@
         <v>172</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E151" s="30" t="s">
         <v>19</v>
@@ -7410,13 +7392,13 @@
         <v>173</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E152" s="30" t="s">
         <v>19</v>
@@ -7437,10 +7419,10 @@
         <v>174</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7462,10 +7444,10 @@
         <v>175</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
@@ -7487,13 +7469,13 @@
         <v>176</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E155" s="30" t="s">
         <v>19</v>
@@ -7514,13 +7496,13 @@
         <v>177</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E156" s="30" t="s">
         <v>19</v>
@@ -7541,10 +7523,10 @@
         <v>178</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7566,13 +7548,13 @@
         <v>179</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E158" s="30" t="s">
         <v>19</v>
@@ -7593,13 +7575,13 @@
         <v>180</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E159" s="30" t="s">
         <v>19</v>
@@ -7620,10 +7602,10 @@
         <v>181</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7645,10 +7627,10 @@
         <v>182</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7670,10 +7652,10 @@
         <v>183</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7695,10 +7677,10 @@
         <v>184</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7720,10 +7702,10 @@
         <v>185</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -7748,7 +7730,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
@@ -7773,7 +7755,7 @@
         <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
@@ -7798,7 +7780,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -7823,7 +7805,7 @@
         <v>32</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -7848,7 +7830,7 @@
         <v>32</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="30" t="s">
@@ -7873,7 +7855,7 @@
         <v>32</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D170" s="30"/>
       <c r="E170" s="30" t="s">
@@ -7898,7 +7880,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7917,13 +7899,13 @@
     </row>
     <row r="172" spans="1:9" ht="45">
       <c r="A172" s="22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -7939,7 +7921,7 @@
         <v>17</v>
       </c>
       <c r="I172" s="20" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="45">
@@ -7950,7 +7932,7 @@
         <v>32</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -7975,7 +7957,7 @@
         <v>32</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
@@ -7992,7 +7974,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="60">
       <c r="A175" s="30" t="s">
         <v>195</v>
       </c>
@@ -8000,26 +7982,24 @@
         <v>32</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G175" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I175" s="32" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I175" s="32"/>
+    </row>
+    <row r="176" spans="1:9" ht="45">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
@@ -8027,14 +8007,14 @@
         <v>32</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G176" s="30" t="s">
         <v>15</v>
@@ -8044,28 +8024,28 @@
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="45">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I177" s="32"/>
     </row>
@@ -8074,10 +8054,10 @@
         <v>198</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
@@ -8087,22 +8067,22 @@
         <v>7</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H178" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
@@ -8119,40 +8099,40 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="30" t="s">
         <v>200</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H180" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9">
       <c r="A181" s="30" t="s">
         <v>201</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8162,47 +8142,47 @@
         <v>6</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="30" t="s">
         <v>202</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G182" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="105">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8219,15 +8199,15 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="105">
+    <row r="184" spans="1:9">
       <c r="A184" s="30" t="s">
         <v>204</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8237,7 +8217,7 @@
         <v>7</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H184" s="30" t="s">
         <v>18</v>
@@ -8249,10 +8229,10 @@
         <v>205</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8262,7 +8242,7 @@
         <v>7</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H185" s="30" t="s">
         <v>18</v>
@@ -8274,10 +8254,10 @@
         <v>206</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8294,40 +8274,40 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="30" t="s">
         <v>207</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H187" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9">
       <c r="A188" s="30" t="s">
         <v>208</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30" t="s">
@@ -8337,22 +8317,22 @@
         <v>6</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" ht="195">
       <c r="A189" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8369,15 +8349,15 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="195">
+    <row r="190" spans="1:9">
       <c r="A190" s="30" t="s">
         <v>210</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8387,10 +8367,10 @@
         <v>6</v>
       </c>
       <c r="G190" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I190" s="32"/>
     </row>
@@ -8399,20 +8379,20 @@
         <v>211</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="30" t="s">
         <v>18</v>
@@ -8424,60 +8404,60 @@
         <v>212</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G192" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9">
       <c r="A194" s="30" t="s">
         <v>214</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8487,22 +8467,22 @@
         <v>6</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8512,22 +8492,22 @@
         <v>6</v>
       </c>
       <c r="G195" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" ht="30">
+    <row r="196" spans="1:9">
       <c r="A196" s="30" t="s">
         <v>216</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
@@ -8549,27 +8529,27 @@
         <v>217</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G197" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="30" t="s">
         <v>218</v>
       </c>
@@ -8577,7 +8557,7 @@
         <v>33</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -8594,7 +8574,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="75">
       <c r="A199" s="30" t="s">
         <v>219</v>
       </c>
@@ -8602,7 +8582,7 @@
         <v>33</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
@@ -8615,11 +8595,11 @@
         <v>15</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="75">
+    <row r="200" spans="1:9">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -8627,24 +8607,24 @@
         <v>33</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G200" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H200" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -8652,20 +8632,20 @@
         <v>33</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G201" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H201" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I201" s="32"/>
     </row>
@@ -8677,24 +8657,24 @@
         <v>33</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G202" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H202" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="45">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="30" t="s">
         <v>223</v>
       </c>
@@ -8702,14 +8682,14 @@
         <v>33</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G203" s="30" t="s">
         <v>16</v>
@@ -8727,7 +8707,7 @@
         <v>33</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -8737,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="G204" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I204" s="32"/>
     </row>
@@ -8752,14 +8732,14 @@
         <v>33</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G205" s="30" t="s">
         <v>15</v>
@@ -8777,7 +8757,7 @@
         <v>33</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
@@ -8794,7 +8774,7 @@
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="60">
       <c r="A207" s="30" t="s">
         <v>227</v>
       </c>
@@ -8802,14 +8782,14 @@
         <v>33</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G207" s="30" t="s">
         <v>15</v>
@@ -8819,7 +8799,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="60">
+    <row r="208" spans="1:9" ht="75">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -8827,24 +8807,24 @@
         <v>33</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G208" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="75">
+    <row r="209" spans="1:9">
       <c r="A209" s="30" t="s">
         <v>229</v>
       </c>
@@ -8852,24 +8832,24 @@
         <v>33</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F209" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G209" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H209" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" s="30" t="s">
         <v>230</v>
       </c>
@@ -8877,24 +8857,24 @@
         <v>33</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G210" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H210" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="45">
       <c r="A211" s="30" t="s">
         <v>231</v>
       </c>
@@ -8902,7 +8882,7 @@
         <v>33</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
@@ -8927,24 +8907,24 @@
         <v>33</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F212" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G212" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H212" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="30" t="s">
         <v>233</v>
       </c>
@@ -8952,32 +8932,32 @@
         <v>33</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G213" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H213" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9">
       <c r="A214" s="30" t="s">
         <v>234</v>
       </c>
       <c r="B214" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="32" t="s">
-        <v>548</v>
+      <c r="C214" s="20" t="s">
+        <v>689</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -8994,32 +8974,32 @@
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="30" t="s">
         <v>235</v>
       </c>
       <c r="B215" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C215" s="20" t="s">
-        <v>695</v>
+      <c r="C215" s="32" t="s">
+        <v>546</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F215" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G215" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H215" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="60">
       <c r="A216" s="30" t="s">
         <v>236</v>
       </c>
@@ -9027,7 +9007,7 @@
         <v>33</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -9052,7 +9032,7 @@
         <v>33</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9069,7 +9049,7 @@
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9" ht="60">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="30" t="s">
         <v>238</v>
       </c>
@@ -9077,20 +9057,20 @@
         <v>33</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G218" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H218" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I218" s="32"/>
     </row>
@@ -9102,45 +9082,45 @@
         <v>33</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G219" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="60">
       <c r="A220" s="30" t="s">
         <v>240</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C220" s="32" t="s">
-        <v>553</v>
+      <c r="C220" s="20" t="s">
+        <v>704</v>
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G220" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I220" s="32"/>
     </row>
@@ -9151,8 +9131,8 @@
       <c r="B221" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C221" s="20" t="s">
-        <v>710</v>
+      <c r="C221" s="32" t="s">
+        <v>551</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
@@ -9165,11 +9145,11 @@
         <v>15</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="60">
+    <row r="222" spans="1:9" ht="45">
       <c r="A222" s="30" t="s">
         <v>242</v>
       </c>
@@ -9177,7 +9157,7 @@
         <v>33</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
@@ -9194,7 +9174,7 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="45">
+    <row r="223" spans="1:9">
       <c r="A223" s="30" t="s">
         <v>243</v>
       </c>
@@ -9202,91 +9182,91 @@
         <v>33</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G223" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="30" t="s">
+    <row r="224" spans="1:9" ht="30">
+      <c r="A224" s="22" t="s">
         <v>244</v>
       </c>
       <c r="B224" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C224" s="32" t="s">
-        <v>556</v>
+      <c r="C224" s="20" t="s">
+        <v>690</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G224" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I224" s="32"/>
-    </row>
-    <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I224" s="32" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="30" t="s">
         <v>245</v>
       </c>
       <c r="B225" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C225" s="20" t="s">
-        <v>696</v>
+      <c r="C225" s="32" t="s">
+        <v>554</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G225" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I225" s="32" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I225" s="32"/>
+    </row>
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="30" t="s">
         <v>246</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F226" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G226" s="30" t="s">
         <v>16</v>
@@ -9301,10 +9281,10 @@
         <v>247</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9314,22 +9294,22 @@
         <v>7</v>
       </c>
       <c r="G227" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H227" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9">
       <c r="A228" s="30" t="s">
         <v>248</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
@@ -9346,28 +9326,28 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G229" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I229" s="32"/>
     </row>
@@ -9376,10 +9356,10 @@
         <v>250</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9401,35 +9381,35 @@
         <v>251</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F231" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G231" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9" ht="180">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9446,15 +9426,15 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="180">
+    <row r="233" spans="1:9">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9464,7 +9444,7 @@
         <v>7</v>
       </c>
       <c r="G233" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H233" s="30" t="s">
         <v>18</v>
@@ -9476,10 +9456,10 @@
         <v>254</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9496,15 +9476,15 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" ht="30">
       <c r="A235" s="30" t="s">
         <v>255</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9526,10 +9506,10 @@
         <v>256</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9539,7 +9519,7 @@
         <v>7</v>
       </c>
       <c r="G236" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H236" s="30" t="s">
         <v>18</v>
@@ -9551,10 +9531,10 @@
         <v>257</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9564,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="G237" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H237" s="30" t="s">
         <v>18</v>
@@ -9576,23 +9556,23 @@
         <v>258</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D238" s="30"/>
       <c r="E238" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G238" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H238" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I238" s="32"/>
     </row>
@@ -9601,10 +9581,10 @@
         <v>259</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="30" t="s">
@@ -9626,35 +9606,35 @@
         <v>260</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G240" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H240" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" ht="30">
+    <row r="241" spans="1:9">
       <c r="A241" s="30" t="s">
         <v>261</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -9671,22 +9651,22 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" ht="30">
       <c r="A242" s="30" t="s">
         <v>262</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G242" s="30" t="s">
         <v>16</v>
@@ -9701,60 +9681,60 @@
         <v>263</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G243" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H243" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="30">
+    <row r="244" spans="1:9" ht="135">
       <c r="A244" s="30" t="s">
         <v>264</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G244" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H244" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9" ht="135">
+    <row r="245" spans="1:9">
       <c r="A245" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="30" t="s">
@@ -9764,10 +9744,10 @@
         <v>6</v>
       </c>
       <c r="G245" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H245" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I245" s="32"/>
     </row>
@@ -9776,20 +9756,20 @@
         <v>266</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F246" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G246" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H246" s="30" t="s">
         <v>18</v>
@@ -9801,23 +9781,23 @@
         <v>267</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G247" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I247" s="32"/>
     </row>
@@ -9826,35 +9806,35 @@
         <v>268</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D248" s="30"/>
       <c r="E248" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G248" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I248" s="32"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="30" t="s">
         <v>269</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D249" s="30"/>
       <c r="E249" s="30" t="s">
@@ -9864,10 +9844,10 @@
         <v>6</v>
       </c>
       <c r="G249" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H249" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I249" s="32"/>
     </row>
@@ -9876,17 +9856,17 @@
         <v>270</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G250" s="30" t="s">
         <v>15</v>
@@ -9901,10 +9881,10 @@
         <v>271</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
@@ -9914,10 +9894,10 @@
         <v>3</v>
       </c>
       <c r="G251" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H251" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I251" s="32"/>
     </row>
@@ -9926,10 +9906,10 @@
         <v>272</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -9946,15 +9926,15 @@
       </c>
       <c r="I252" s="32"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9">
       <c r="A253" s="30" t="s">
         <v>273</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9971,15 +9951,15 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="30" t="s">
         <v>274</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
@@ -9989,22 +9969,22 @@
         <v>3</v>
       </c>
       <c r="G254" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H254" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" ht="75">
       <c r="A255" s="30" t="s">
         <v>275</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
@@ -10017,126 +9997,126 @@
         <v>15</v>
       </c>
       <c r="H255" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="75">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="30" t="s">
         <v>276</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G256" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="45">
       <c r="A257" s="30" t="s">
         <v>277</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G257" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="30" t="s">
         <v>278</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H258" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
-      <c r="A259" s="30" t="s">
+    <row r="259" spans="1:9" ht="60">
+      <c r="A259" s="22" t="s">
         <v>279</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C259" s="32" t="s">
-        <v>590</v>
+        <v>356</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>691</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F259" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G259" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H259" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I259" s="32"/>
     </row>
     <row r="260" spans="1:9" ht="60">
-      <c r="A260" s="22" t="s">
+      <c r="A260" s="30" t="s">
         <v>280</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F260" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G260" s="30" t="s">
         <v>15</v>
@@ -10151,10 +10131,10 @@
         <v>281</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -10176,10 +10156,10 @@
         <v>282</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
@@ -10196,28 +10176,28 @@
       </c>
       <c r="I262" s="32"/>
     </row>
-    <row r="263" spans="1:9" ht="60">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="30" t="s">
         <v>283</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>699</v>
+        <v>356</v>
+      </c>
+      <c r="C263" s="32" t="s">
+        <v>588</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G263" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I263" s="32"/>
     </row>
@@ -10226,10 +10206,10 @@
         <v>284</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D264" s="30"/>
       <c r="E264" s="30" t="s">
@@ -10239,10 +10219,10 @@
         <v>6</v>
       </c>
       <c r="G264" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H264" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I264" s="32"/>
     </row>
@@ -10251,10 +10231,10 @@
         <v>285</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="30" t="s">
@@ -10267,19 +10247,19 @@
         <v>15</v>
       </c>
       <c r="H265" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I265" s="32"/>
     </row>
-    <row r="266" spans="1:9" ht="30">
-      <c r="A266" s="30" t="s">
+    <row r="266" spans="1:9" ht="45">
+      <c r="A266" s="22" t="s">
         <v>286</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C266" s="32" t="s">
-        <v>593</v>
+        <v>356</v>
+      </c>
+      <c r="C266" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="D266" s="30"/>
       <c r="E266" s="30" t="s">
@@ -10292,19 +10272,21 @@
         <v>15</v>
       </c>
       <c r="H266" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I266" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I266" s="20" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="267" spans="1:9" ht="45">
-      <c r="A267" s="22" t="s">
+      <c r="A267" s="30" t="s">
         <v>287</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>700</v>
+        <v>356</v>
+      </c>
+      <c r="C267" s="32" t="s">
+        <v>591</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30" t="s">
@@ -10317,76 +10299,76 @@
         <v>15</v>
       </c>
       <c r="H267" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I267" s="20" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I267" s="32"/>
+    </row>
+    <row r="268" spans="1:9" ht="60">
       <c r="A268" s="30" t="s">
         <v>288</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C268" s="32" t="s">
-        <v>594</v>
+        <v>356</v>
+      </c>
+      <c r="C268" s="20" t="s">
+        <v>699</v>
       </c>
       <c r="D268" s="30"/>
       <c r="E268" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G268" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H268" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I268" s="32"/>
-    </row>
-    <row r="269" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I268" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="30" t="s">
         <v>289</v>
       </c>
       <c r="B269" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C269" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="D269" s="30"/>
+        <v>356</v>
+      </c>
+      <c r="C269" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D269" s="30" t="s">
+        <v>638</v>
+      </c>
       <c r="E269" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F269" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G269" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H269" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I269" s="20" t="s">
-        <v>663</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I269" s="32"/>
     </row>
     <row r="270" spans="1:9" ht="30">
       <c r="A270" s="30" t="s">
         <v>290</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D270" s="30" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E270" s="30" t="s">
         <v>19</v>
@@ -10407,13 +10389,13 @@
         <v>291</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E271" s="30" t="s">
         <v>19</v>
@@ -10429,18 +10411,18 @@
       </c>
       <c r="I271" s="32"/>
     </row>
-    <row r="272" spans="1:9" ht="30">
+    <row r="272" spans="1:9" ht="60">
       <c r="A272" s="30" t="s">
         <v>292</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E272" s="30" t="s">
         <v>19</v>
@@ -10461,13 +10443,13 @@
         <v>293</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D273" s="30" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E273" s="30" t="s">
         <v>19</v>
@@ -10488,13 +10470,13 @@
         <v>294</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D274" s="30" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E274" s="30" t="s">
         <v>19</v>
@@ -10510,30 +10492,28 @@
       </c>
       <c r="I274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="60">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="30" t="s">
         <v>295</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="D275" s="30" t="s">
-        <v>647</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="D275" s="30"/>
       <c r="E275" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F275" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G275" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H275" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I275" s="32"/>
     </row>
@@ -10542,10 +10522,10 @@
         <v>296</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
@@ -10555,22 +10535,22 @@
         <v>7</v>
       </c>
       <c r="G276" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H276" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9">
       <c r="A277" s="30" t="s">
         <v>297</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
@@ -10587,28 +10567,28 @@
       </c>
       <c r="I277" s="32"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="30" t="s">
         <v>298</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F278" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G278" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H278" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I278" s="32"/>
     </row>
@@ -10617,10 +10597,10 @@
         <v>299</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
@@ -10642,35 +10622,35 @@
         <v>300</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G280" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H280" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="150">
       <c r="A281" s="30" t="s">
         <v>301</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
@@ -10687,15 +10667,15 @@
       </c>
       <c r="I281" s="32"/>
     </row>
-    <row r="282" spans="1:9" ht="150">
+    <row r="282" spans="1:9">
       <c r="A282" s="30" t="s">
         <v>302</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
@@ -10705,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="G282" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H282" s="30" t="s">
         <v>18</v>
@@ -10717,10 +10697,10 @@
         <v>303</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
@@ -10730,7 +10710,7 @@
         <v>7</v>
       </c>
       <c r="G283" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H283" s="30" t="s">
         <v>18</v>
@@ -10742,10 +10722,10 @@
         <v>304</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
@@ -10767,10 +10747,10 @@
         <v>305</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
@@ -10787,28 +10767,28 @@
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="30" t="s">
         <v>306</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F286" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G286" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H286" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I286" s="32"/>
     </row>
@@ -10817,10 +10797,10 @@
         <v>307</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
@@ -10830,47 +10810,47 @@
         <v>3</v>
       </c>
       <c r="G287" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H287" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="135">
       <c r="A288" s="30" t="s">
         <v>308</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D288" s="30"/>
       <c r="E288" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F288" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G288" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H288" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="135">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="30" t="s">
         <v>309</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D289" s="30"/>
       <c r="E289" s="30" t="s">
@@ -10887,65 +10867,65 @@
       </c>
       <c r="I289" s="32"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9">
       <c r="A290" s="30" t="s">
         <v>310</v>
       </c>
       <c r="B290" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C290" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D290" s="30"/>
       <c r="E290" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F290" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G290" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H290" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I290" s="32"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="30" t="s">
         <v>311</v>
       </c>
       <c r="B291" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D291" s="30"/>
       <c r="E291" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G291" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H291" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I291" s="32"/>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:9">
       <c r="A292" s="30" t="s">
         <v>312</v>
       </c>
       <c r="B292" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D292" s="30"/>
       <c r="E292" s="30" t="s">
@@ -10955,22 +10935,22 @@
         <v>6</v>
       </c>
       <c r="G292" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H292" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I292" s="32"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="30" t="s">
         <v>313</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D293" s="30"/>
       <c r="E293" s="30" t="s">
@@ -10980,65 +10960,69 @@
         <v>6</v>
       </c>
       <c r="G293" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H293" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I293" s="32"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="30" t="s">
         <v>314</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="D294" s="30"/>
+        <v>617</v>
+      </c>
+      <c r="D294" s="30" t="s">
+        <v>644</v>
+      </c>
       <c r="E294" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F294" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G294" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H294" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I294" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="I294" s="32" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="295" spans="1:9" ht="45">
       <c r="A295" s="30" t="s">
         <v>315</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C295" s="32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D295" s="30" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E295" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F295" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G295" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H295" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I295" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="45">
@@ -11046,13 +11030,13 @@
         <v>316</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D296" s="30" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E296" s="30" t="s">
         <v>22</v>
@@ -11067,7 +11051,7 @@
         <v>20</v>
       </c>
       <c r="I296" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="45">
@@ -11075,13 +11059,13 @@
         <v>317</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D297" s="30" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E297" s="30" t="s">
         <v>22</v>
@@ -11096,7 +11080,7 @@
         <v>20</v>
       </c>
       <c r="I297" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="45">
@@ -11104,13 +11088,13 @@
         <v>318</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C298" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="D298" s="30" t="s">
-        <v>649</v>
+        <v>361</v>
+      </c>
+      <c r="C298" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="D298" s="22" t="s">
+        <v>646</v>
       </c>
       <c r="E298" s="30" t="s">
         <v>22</v>
@@ -11125,7 +11109,7 @@
         <v>20</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="45">
@@ -11133,13 +11117,13 @@
         <v>319</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="D299" s="22" t="s">
-        <v>650</v>
+        <v>701</v>
+      </c>
+      <c r="D299" s="30" t="s">
+        <v>646</v>
       </c>
       <c r="E299" s="30" t="s">
         <v>22</v>
@@ -11154,7 +11138,7 @@
         <v>20</v>
       </c>
       <c r="I299" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="45">
@@ -11162,19 +11146,19 @@
         <v>320</v>
       </c>
       <c r="B300" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C300" s="20" t="s">
-        <v>707</v>
+        <v>361</v>
+      </c>
+      <c r="C300" s="32" t="s">
+        <v>621</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E300" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F300" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G300" s="30" t="s">
         <v>15</v>
@@ -11183,7 +11167,7 @@
         <v>20</v>
       </c>
       <c r="I300" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
@@ -11191,13 +11175,13 @@
         <v>321</v>
       </c>
       <c r="B301" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C301" s="32" t="s">
-        <v>624</v>
+        <v>361</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>622</v>
       </c>
       <c r="D301" s="30" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E301" s="30" t="s">
         <v>22</v>
@@ -11212,7 +11196,7 @@
         <v>20</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="45">
@@ -11220,13 +11204,13 @@
         <v>322</v>
       </c>
       <c r="B302" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D302" s="30" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E302" s="30" t="s">
         <v>22</v>
@@ -11241,21 +11225,21 @@
         <v>20</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
-      <c r="A303" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B303" s="31" t="s">
-        <v>363</v>
+      <c r="A303" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="B303" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="D303" s="30" t="s">
-        <v>651</v>
+        <v>675</v>
+      </c>
+      <c r="D303" s="22" t="s">
+        <v>672</v>
       </c>
       <c r="E303" s="30" t="s">
         <v>22</v>
@@ -11270,21 +11254,21 @@
         <v>20</v>
       </c>
       <c r="I303" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
       <c r="A304" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B304" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E304" s="30" t="s">
         <v>22</v>
@@ -11299,27 +11283,27 @@
         <v>20</v>
       </c>
       <c r="I304" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="45">
-      <c r="A305" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>363</v>
+      <c r="A305" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>361</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="D305" s="22" t="s">
-        <v>680</v>
+        <v>702</v>
+      </c>
+      <c r="D305" s="30" t="s">
+        <v>648</v>
       </c>
       <c r="E305" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F305" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G305" s="30" t="s">
         <v>15</v>
@@ -11328,7 +11312,7 @@
         <v>20</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="45">
@@ -11336,13 +11320,13 @@
         <v>324</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E306" s="30" t="s">
         <v>22</v>
@@ -11357,21 +11341,21 @@
         <v>20</v>
       </c>
       <c r="I306" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="45">
-      <c r="A307" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B307" s="31" t="s">
-        <v>363</v>
+      <c r="A307" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="D307" s="30" t="s">
-        <v>652</v>
+        <v>685</v>
+      </c>
+      <c r="D307" s="22" t="s">
+        <v>683</v>
       </c>
       <c r="E307" s="30" t="s">
         <v>22</v>
@@ -11386,21 +11370,21 @@
         <v>20</v>
       </c>
       <c r="I307" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="45">
-      <c r="A308" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="B308" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C308" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="D308" s="30" t="s">
-        <v>653</v>
+      <c r="A308" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="B308" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D308" s="22" t="s">
+        <v>683</v>
       </c>
       <c r="E308" s="30" t="s">
         <v>22</v>
@@ -11415,21 +11399,21 @@
         <v>20</v>
       </c>
       <c r="I308" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="45">
       <c r="A309" s="22" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B309" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E309" s="30" t="s">
         <v>22</v>
@@ -11444,132 +11428,69 @@
         <v>20</v>
       </c>
       <c r="I309" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="45">
       <c r="A310" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="B310" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C310" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="D310" s="22" t="s">
-        <v>689</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B310" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C310" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="D310" s="30"/>
       <c r="E310" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F310" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G310" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H310" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I310" s="32" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="45">
-      <c r="A311" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="B311" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C311" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D311" s="22" t="s">
-        <v>701</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I310" s="32"/>
+    </row>
+    <row r="311" spans="1:9" ht="30">
+      <c r="A311" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B311" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C311" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="D311" s="30"/>
       <c r="E311" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F311" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G311" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H311" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I311" s="32" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="45">
-      <c r="A312" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B312" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C312" s="32" t="s">
-        <v>628</v>
-      </c>
-      <c r="D312" s="30"/>
-      <c r="E312" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F312" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G312" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H312" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I312" s="32"/>
-    </row>
-    <row r="313" spans="1:9" ht="30">
-      <c r="A313" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B313" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C313" s="32" t="s">
-        <v>629</v>
-      </c>
-      <c r="D313" s="30"/>
-      <c r="E313" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F313" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G313" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H313" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I313" s="32"/>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="3"/>
-      <c r="B314" s="10"/>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="3"/>
-      <c r="B315" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="I311" s="32"/>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="3"/>
+      <c r="B312" s="10"/>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" s="3"/>
+      <c r="B313" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -11577,53 +11498,58 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H181 I20:I263 A34:I313">
-    <cfRule type="expression" dxfId="26" priority="53">
+  <conditionalFormatting sqref="A20:I311">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54">
+    <cfRule type="expression" dxfId="6" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="61">
+    <cfRule type="expression" dxfId="5" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H181 I20:I263 A34:I313">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="A20:I311">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F313">
-    <cfRule type="expression" dxfId="20" priority="13">
+  <conditionalFormatting sqref="F20:F311">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F313">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F311">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E313">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E311">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G313">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G311">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H313">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H311">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11633,7 +11559,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B311:B315 B19:B126 B172:B181 B127:B171 B305:B310 B182:B230 B231:B263 B264:B304 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B309:B313 B19:B126 B172:B174 B127:B171 B304:B306 B181:B229 B230:B262 B263:B303 C3 B307:B308 B175:B180" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -11649,6 +11575,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -11697,15 +11632,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -11721,6 +11647,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11733,12 +11667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$309</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="701">
   <si>
     <t>Req ID</t>
   </si>
@@ -659,9 +659,6 @@
     <t>MS-COPYS_R104</t>
   </si>
   <si>
-    <t>MS-COPYS_R1040</t>
-  </si>
-  <si>
     <t>MS-COPYS_R109</t>
   </si>
   <si>
@@ -1188,9 +1185,6 @@
   </si>
   <si>
     <t>MS-COPYS_R5</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R1041</t>
   </si>
   <si>
     <t>MS-COPYS_R1043</t>
@@ -1646,10 +1640,6 @@
   </si>
   <si>
     <t>[In CopyErrorCode] InvalidUrl:  This value is used to indicate an error when the IRI of a destination location is malformed.</t>
-  </si>
-  <si>
-    <t>[In CopyErrorCode] InvalidUrl: 
-This value SHOULD be used to indicate an error when the IRI of a destination location is malformed.</t>
   </si>
   <si>
     <t>[In CopyErrorCode] Unknown: 
@@ -2238,9 +2228,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does additionally support SOAP over HTTPS to help secure communication with protocol clients. (Windows® SharePoint® Services 3.0 and above products follow this behavior.)</t>
   </si>
   <si>
-    <t>[In CopyErrorCode] [For CopyIntoItems operation] Implementation does return an ErrorCode of "InvalidUrl" when a destination location is a malformed IRI.(SharePoint Foundation 2013 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In CopyErrorCode] [For CopyIntoItemsLocal operation] Implementation does return an ErrorCode of "InvalidUrl" when a destination location is a malformed IRI.(SharePoint Foundation 2013 follow this behavior.)</t>
   </si>
   <si>
@@ -2319,9 +2306,6 @@
     <t>MS-COPYS_R4:i,MS-COPYS_R1:i</t>
   </si>
   <si>
-    <t>MS-COPYS_R1040:I, MS-COPYS_R1:i</t>
-  </si>
-  <si>
     <t>MS-COPYS_R146:i</t>
   </si>
   <si>
@@ -2340,9 +2324,6 @@
     <t>Partially verified by derived requirement: MS-COPYS_R75.</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-COPYS_R1041, MS-COPYS_R1043, MS-COPYS_R1044.</t>
-  </si>
-  <si>
     <t>Partially verified by derived requirement: MS-COPYS_R119.</t>
   </si>
   <si>
@@ -2353,9 +2334,6 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-COPYS_R230, MS-COPYS_R232.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-COPYS_R281, MS-COPYS_R282, MS-COPYS_R285, MS-COPYS_R286, MS-COPYS_R287, MS-COPYS_R289.</t>
   </si>
   <si>
     <t>This requirement can be enabled/disabled in the deployment.ptfconfig file.</t>
@@ -2457,9 +2435,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does not return a SOAP exception if the source location URL is in an invalid format. (&lt;3&gt; Section 3.1.4.1:  Windows SharePoint Services 3.0 does not return a SOAP exception.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exceptionif the source location URL is in an invalid format. (Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-COPYS_R12331, MS-COPYS_R12332.</t>
   </si>
   <si>
@@ -2475,12 +2450,6 @@
     <t>[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
   </si>
   <si>
-    <t>[In CopyIntoItems] If the source location does not point to an existing file, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CopyIntoItems] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
-  </si>
-  <si>
     <t>[In CopyIntoItemsLocal] If the source location and the destination location refer to different protocol servers, [or if the destination location points to a non-existing folder,] the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "DestinationInvalid".&lt;5&gt;</t>
   </si>
   <si>
@@ -2512,6 +2481,24 @@
   </si>
   <si>
     <t>[In CopyIntoItems] If the file cannot be created at the given destination location, the protocol server MUST report a failure for this destination location by setting the ErrorCode attribute of the corresponding CopyResult element to "Unknown" and provide a string value that describes the error in the ErrorMessage attribute.</t>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return a SOAP exception if the source location URL is in an invalid format. (Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-COPYS_R281, MS-COPYS_R282, MS-COPYS_R285, MS-COPYS_R286, MS-COPYS_R287, MS-COPYS_R289, MS-COPYS_R1043, MS-COPYS_R1044.</t>
+  </si>
+  <si>
+    <t>MS-COPYS_R280:i</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2783,21 +2770,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2822,55 +2795,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3209,6 +3153,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3338,34 +3326,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I311" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
-  <autoFilter ref="A19:I311"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I309" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I309">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Normative"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3374,12 +3368,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3707,7 +3701,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3728,7 +3722,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -3738,7 +3732,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3755,7 +3749,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F3" s="12">
         <v>42566</v>
@@ -3763,127 +3757,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3896,12 +3890,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3914,12 +3908,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3932,12 +3926,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3950,60 +3944,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4042,10 +4036,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4067,10 +4061,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4086,7 +4080,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1">
@@ -4094,10 +4088,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -4119,10 +4113,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4144,10 +4138,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -4169,10 +4163,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4189,15 +4183,15 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1">
+    <row r="26" spans="1:12" s="23" customFormat="1" hidden="1">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -4214,15 +4208,15 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -4239,15 +4233,15 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4264,15 +4258,15 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" hidden="1">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -4289,15 +4283,15 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1">
+    <row r="30" spans="1:12" s="23" customFormat="1" hidden="1">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4314,15 +4308,15 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1">
+    <row r="31" spans="1:12" s="23" customFormat="1" hidden="1">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -4339,15 +4333,15 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1">
+    <row r="32" spans="1:12" s="23" customFormat="1" hidden="1">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -4364,15 +4358,15 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1">
+    <row r="33" spans="1:9" s="23" customFormat="1" hidden="1">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -4389,15 +4383,15 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -4414,15 +4408,15 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -4439,15 +4433,15 @@
       </c>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -4464,15 +4458,15 @@
       </c>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="30" hidden="1">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -4494,10 +4488,10 @@
         <v>61</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -4510,19 +4504,19 @@
         <v>15</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="30" hidden="1">
       <c r="A39" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -4544,10 +4538,10 @@
         <v>63</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -4560,19 +4554,19 @@
         <v>15</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -4594,10 +4588,10 @@
         <v>65</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -4614,15 +4608,15 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="30" hidden="1">
       <c r="A43" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -4639,15 +4633,15 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" hidden="1">
       <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -4665,14 +4659,14 @@
       <c r="I44" s="32"/>
     </row>
     <row r="45" spans="1:9" ht="180">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -4685,19 +4679,19 @@
         <v>15</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4719,10 +4713,10 @@
         <v>70</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4735,7 +4729,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="32"/>
     </row>
@@ -4744,10 +4738,10 @@
         <v>71</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4760,19 +4754,19 @@
         <v>15</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4789,15 +4783,15 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" hidden="1">
       <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -4814,15 +4808,15 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" hidden="1">
       <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -4839,15 +4833,15 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" hidden="1">
       <c r="A52" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -4864,15 +4858,15 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" hidden="1">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
@@ -4889,15 +4883,15 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="30" hidden="1">
       <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -4914,15 +4908,15 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" hidden="1">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -4939,15 +4933,15 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" hidden="1">
       <c r="A56" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -4964,7 +4958,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="30" hidden="1">
       <c r="A57" s="30" t="s">
         <v>80</v>
       </c>
@@ -4972,7 +4966,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -4997,7 +4991,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -5014,7 +5008,7 @@
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -5047,7 +5041,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5064,15 +5058,15 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" hidden="1">
       <c r="A61" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -5094,10 +5088,10 @@
         <v>85</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -5119,10 +5113,10 @@
         <v>86</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -5144,10 +5138,10 @@
         <v>87</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5169,10 +5163,10 @@
         <v>88</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -5194,13 +5188,13 @@
         <v>89</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>19</v>
@@ -5221,13 +5215,13 @@
         <v>90</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E67" s="30" t="s">
         <v>19</v>
@@ -5248,10 +5242,10 @@
         <v>91</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5273,13 +5267,13 @@
         <v>92</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>19</v>
@@ -5300,13 +5294,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>19</v>
@@ -5327,10 +5321,10 @@
         <v>94</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5347,15 +5341,15 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="30" hidden="1">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -5377,10 +5371,10 @@
         <v>96</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -5402,10 +5396,10 @@
         <v>97</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -5427,10 +5421,10 @@
         <v>98</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -5447,15 +5441,15 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="30" hidden="1">
       <c r="A76" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -5472,15 +5466,15 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5502,10 +5496,10 @@
         <v>101</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -5522,15 +5516,15 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -5552,10 +5546,10 @@
         <v>103</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -5577,10 +5571,10 @@
         <v>104</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -5602,10 +5596,10 @@
         <v>105</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5627,10 +5621,10 @@
         <v>106</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5652,10 +5646,10 @@
         <v>107</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5677,10 +5671,10 @@
         <v>108</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5702,10 +5696,10 @@
         <v>109</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5722,15 +5716,15 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9" ht="30" hidden="1">
       <c r="A87" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -5752,10 +5746,10 @@
         <v>111</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -5771,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="I88" s="32" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30">
@@ -5779,13 +5773,13 @@
         <v>112</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E89" s="30" t="s">
         <v>19</v>
@@ -5806,10 +5800,10 @@
         <v>113</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5825,7 +5819,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30">
@@ -5833,13 +5827,13 @@
         <v>114</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>19</v>
@@ -5860,10 +5854,10 @@
         <v>115</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5885,10 +5879,10 @@
         <v>116</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5905,15 +5899,15 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="30" hidden="1">
       <c r="A94" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5930,15 +5924,15 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="30" hidden="1">
       <c r="A95" s="30" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5955,15 +5949,15 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="30" hidden="1">
       <c r="A96" s="30" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -5980,15 +5974,15 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" ht="30">
+    <row r="97" spans="1:9" ht="30" hidden="1">
       <c r="A97" s="30" t="s">
         <v>120</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6005,15 +5999,15 @@
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" hidden="1">
       <c r="A98" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -6030,15 +6024,15 @@
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="30" hidden="1">
       <c r="A99" s="30" t="s">
         <v>122</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6060,10 +6054,10 @@
         <v>123</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6085,10 +6079,10 @@
         <v>124</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6110,10 +6104,10 @@
         <v>125</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -6135,13 +6129,13 @@
         <v>126</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>19</v>
@@ -6162,13 +6156,13 @@
         <v>127</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>19</v>
@@ -6189,10 +6183,10 @@
         <v>128</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6214,10 +6208,10 @@
         <v>129</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -6239,10 +6233,10 @@
         <v>130</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -6264,13 +6258,13 @@
         <v>131</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
@@ -6291,13 +6285,13 @@
         <v>132</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E109" s="30" t="s">
         <v>19</v>
@@ -6318,10 +6312,10 @@
         <v>133</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>448</v>
+        <v>337</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>446</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -6343,10 +6337,10 @@
         <v>134</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -6368,13 +6362,13 @@
         <v>135</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E112" s="30" t="s">
         <v>19</v>
@@ -6395,13 +6389,13 @@
         <v>136</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E113" s="30" t="s">
         <v>19</v>
@@ -6418,14 +6412,14 @@
       <c r="I113" s="32"/>
     </row>
     <row r="114" spans="1:9" ht="30">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="22" t="s">
         <v>137</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>452</v>
+        <v>337</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>450</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6442,15 +6436,15 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="45">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -6463,23 +6457,23 @@
         <v>15</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="32" t="s">
-        <v>652</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I115" s="32"/>
     </row>
     <row r="116" spans="1:9" ht="30">
       <c r="A116" s="30" t="s">
         <v>139</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D116" s="30"/>
+        <v>452</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>629</v>
+      </c>
       <c r="E116" s="30" t="s">
         <v>19</v>
       </c>
@@ -6499,13 +6493,13 @@
         <v>140</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E117" s="30" t="s">
         <v>19</v>
@@ -6521,42 +6515,40 @@
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="30" t="s">
         <v>141</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>633</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" ht="409.5">
       <c r="A119" s="30" t="s">
         <v>142</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -6566,35 +6558,35 @@
         <v>3</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I119" s="32"/>
     </row>
-    <row r="120" spans="1:9" ht="409.5">
+    <row r="120" spans="1:9" ht="60" hidden="1">
       <c r="A120" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>458</v>
+        <v>338</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>659</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I120" s="32"/>
     </row>
@@ -6603,37 +6595,41 @@
         <v>144</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" s="32"/>
-    </row>
-    <row r="122" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I121" s="32" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D122" s="30"/>
+        <v>338</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>630</v>
+      </c>
       <c r="E122" s="30" t="s">
         <v>19</v>
       </c>
@@ -6644,25 +6640,21 @@
         <v>15</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I122" s="32" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="32"/>
+    </row>
+    <row r="123" spans="1:9" ht="45">
+      <c r="A123" s="22" t="s">
         <v>146</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>634</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D123" s="30"/>
       <c r="E123" s="30" t="s">
         <v>19</v>
       </c>
@@ -6673,19 +6665,21 @@
         <v>15</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" s="32"/>
-    </row>
-    <row r="124" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>340</v>
+        <v>661</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>338</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>460</v>
+        <v>662</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -6701,18 +6695,18 @@
         <v>17</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="22" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -6728,18 +6722,18 @@
         <v>17</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="30">
-      <c r="A126" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="60">
+      <c r="A126" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>458</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -6752,21 +6746,19 @@
         <v>15</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I126" s="20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="60">
+        <v>21</v>
+      </c>
+      <c r="I126" s="32"/>
+    </row>
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -6776,22 +6768,22 @@
         <v>3</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I127" s="32"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="75">
       <c r="A128" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
@@ -6801,22 +6793,22 @@
         <v>3</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" ht="75">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="30" t="s">
         <v>150</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -6826,22 +6818,22 @@
         <v>3</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="30" t="s">
         <v>151</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -6858,15 +6850,15 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -6883,22 +6875,22 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="30" t="s">
         <v>153</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G132" s="30" t="s">
         <v>16</v>
@@ -6908,15 +6900,15 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="30" t="s">
         <v>154</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -6933,15 +6925,15 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" ht="45" hidden="1">
       <c r="A134" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -6958,22 +6950,22 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="45">
+    <row r="135" spans="1:9" ht="30" hidden="1">
       <c r="A135" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G135" s="30" t="s">
         <v>16</v>
@@ -6983,15 +6975,15 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="30" hidden="1">
       <c r="A136" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -7008,15 +7000,15 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" hidden="1">
       <c r="A137" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -7033,22 +7025,22 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" hidden="1">
       <c r="A138" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G138" s="30" t="s">
         <v>16</v>
@@ -7058,15 +7050,15 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7083,15 +7075,15 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" s="30" t="s">
         <v>161</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7108,15 +7100,15 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" ht="30" hidden="1">
       <c r="A141" s="30" t="s">
         <v>162</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7133,15 +7125,15 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="30" hidden="1">
       <c r="A142" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7163,10 +7155,10 @@
         <v>164</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7176,10 +7168,10 @@
         <v>6</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I143" s="32"/>
     </row>
@@ -7188,10 +7180,10 @@
         <v>165</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7213,10 +7205,10 @@
         <v>166</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7231,17 +7223,19 @@
       <c r="H145" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I145" s="32"/>
-    </row>
-    <row r="146" spans="1:9" ht="30">
+      <c r="I145" s="32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7251,49 +7245,47 @@
         <v>6</v>
       </c>
       <c r="G146" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H146" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="32" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I146" s="32"/>
+    </row>
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G147" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H147" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
@@ -7303,35 +7295,35 @@
         <v>3</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F149" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H149" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I149" s="32"/>
     </row>
@@ -7340,12 +7332,14 @@
         <v>171</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="D150" s="30"/>
+        <v>482</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>631</v>
+      </c>
       <c r="E150" s="30" t="s">
         <v>19</v>
       </c>
@@ -7365,13 +7359,13 @@
         <v>172</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E151" s="30" t="s">
         <v>19</v>
@@ -7387,19 +7381,17 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>635</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
         <v>19</v>
       </c>
@@ -7407,22 +7399,22 @@
         <v>6</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7432,10 +7424,10 @@
         <v>6</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H153" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I153" s="32"/>
     </row>
@@ -7444,12 +7436,14 @@
         <v>175</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="D154" s="30"/>
+        <v>486</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>632</v>
+      </c>
       <c r="E154" s="30" t="s">
         <v>19</v>
       </c>
@@ -7469,13 +7463,13 @@
         <v>176</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E155" s="30" t="s">
         <v>19</v>
@@ -7491,19 +7485,17 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="45">
+    <row r="156" spans="1:9">
       <c r="A156" s="30" t="s">
         <v>177</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>636</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
         <v>19</v>
       </c>
@@ -7518,17 +7510,19 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="30" t="s">
         <v>178</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="D157" s="30"/>
+        <v>489</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>633</v>
+      </c>
       <c r="E157" s="30" t="s">
         <v>19</v>
       </c>
@@ -7548,13 +7542,13 @@
         <v>179</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E158" s="30" t="s">
         <v>19</v>
@@ -7570,19 +7564,17 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" ht="30">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>637</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
         <v>19</v>
       </c>
@@ -7590,29 +7582,29 @@
         <v>6</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" ht="30" hidden="1">
       <c r="A160" s="30" t="s">
         <v>181</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F160" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G160" s="30" t="s">
         <v>16</v>
@@ -7627,10 +7619,10 @@
         <v>182</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7640,10 +7632,10 @@
         <v>3</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I161" s="32"/>
     </row>
@@ -7652,10 +7644,10 @@
         <v>183</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7677,10 +7669,10 @@
         <v>184</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7702,10 +7694,10 @@
         <v>185</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -7722,7 +7714,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" ht="60">
       <c r="A165" s="30" t="s">
         <v>186</v>
       </c>
@@ -7730,7 +7722,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
@@ -7743,11 +7735,11 @@
         <v>15</v>
       </c>
       <c r="H165" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="60">
+    <row r="166" spans="1:9">
       <c r="A166" s="30" t="s">
         <v>187</v>
       </c>
@@ -7755,24 +7747,24 @@
         <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G166" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H166" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="30" t="s">
         <v>188</v>
       </c>
@@ -7780,24 +7772,24 @@
         <v>32</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G167" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H167" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="30" hidden="1">
       <c r="A168" s="30" t="s">
         <v>189</v>
       </c>
@@ -7805,24 +7797,24 @@
         <v>32</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" ht="30" hidden="1">
       <c r="A169" s="30" t="s">
         <v>190</v>
       </c>
@@ -7830,14 +7822,14 @@
         <v>32</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G169" s="30" t="s">
         <v>16</v>
@@ -7847,7 +7839,7 @@
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="30" t="s">
         <v>191</v>
       </c>
@@ -7855,7 +7847,7 @@
         <v>32</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D170" s="30"/>
       <c r="E170" s="30" t="s">
@@ -7872,15 +7864,15 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B171" s="31" t="s">
+    <row r="171" spans="1:9" ht="45">
+      <c r="A171" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="B171" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C171" s="32" t="s">
-        <v>505</v>
+      <c r="C171" s="20" t="s">
+        <v>674</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7890,22 +7882,24 @@
         <v>6</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I171" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="172" spans="1:9" ht="45">
-      <c r="A172" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="B172" s="24" t="s">
+      <c r="A172" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B172" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>681</v>
+        <v>503</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -7918,11 +7912,9 @@
         <v>15</v>
       </c>
       <c r="H172" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I172" s="20" t="s">
-        <v>687</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I172" s="32"/>
     </row>
     <row r="173" spans="1:9" ht="45">
       <c r="A173" s="30" t="s">
@@ -7932,14 +7924,14 @@
         <v>32</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>506</v>
+        <v>680</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G173" s="30" t="s">
         <v>15</v>
@@ -7949,15 +7941,15 @@
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="45">
+    <row r="174" spans="1:9" ht="60">
       <c r="A174" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B174" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C174" s="20" t="s">
-        <v>688</v>
+      <c r="C174" s="32" t="s">
+        <v>504</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
@@ -7974,7 +7966,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="60">
+    <row r="175" spans="1:9" ht="45">
       <c r="A175" s="30" t="s">
         <v>195</v>
       </c>
@@ -7982,14 +7974,14 @@
         <v>32</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G175" s="30" t="s">
         <v>15</v>
@@ -7999,28 +7991,28 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="45">
+    <row r="176" spans="1:9" ht="30" hidden="1">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I176" s="32"/>
     </row>
@@ -8029,10 +8021,10 @@
         <v>197</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8042,22 +8034,22 @@
         <v>7</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9">
       <c r="A178" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
@@ -8074,40 +8066,40 @@
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" ht="30" hidden="1">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H179" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9">
       <c r="A180" s="30" t="s">
         <v>200</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -8117,47 +8109,47 @@
         <v>6</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="30" t="s">
         <v>201</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G181" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="105">
       <c r="A182" s="30" t="s">
         <v>202</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
@@ -8174,15 +8166,15 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="105">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8192,7 +8184,7 @@
         <v>7</v>
       </c>
       <c r="G183" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H183" s="30" t="s">
         <v>18</v>
@@ -8204,10 +8196,10 @@
         <v>204</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8217,7 +8209,7 @@
         <v>7</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H184" s="30" t="s">
         <v>18</v>
@@ -8229,10 +8221,10 @@
         <v>205</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8249,40 +8241,40 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" ht="30" hidden="1">
       <c r="A186" s="30" t="s">
         <v>206</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H186" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9">
       <c r="A187" s="30" t="s">
         <v>207</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30" t="s">
@@ -8292,22 +8284,22 @@
         <v>6</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" ht="195">
       <c r="A188" s="30" t="s">
         <v>208</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30" t="s">
@@ -8324,15 +8316,15 @@
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" ht="195">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8342,10 +8334,10 @@
         <v>6</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I189" s="32"/>
     </row>
@@ -8354,20 +8346,20 @@
         <v>210</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G190" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H190" s="30" t="s">
         <v>18</v>
@@ -8379,60 +8371,60 @@
         <v>211</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G191" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" ht="30" hidden="1">
       <c r="A192" s="30" t="s">
         <v>212</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9">
       <c r="A193" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
@@ -8442,22 +8434,22 @@
         <v>6</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" ht="30" hidden="1">
       <c r="A194" s="30" t="s">
         <v>214</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8467,22 +8459,22 @@
         <v>6</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8504,27 +8496,27 @@
         <v>216</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G196" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -8532,7 +8524,7 @@
         <v>33</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -8549,7 +8541,7 @@
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="75">
       <c r="A198" s="30" t="s">
         <v>218</v>
       </c>
@@ -8557,7 +8549,7 @@
         <v>33</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -8570,11 +8562,11 @@
         <v>15</v>
       </c>
       <c r="H198" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="75">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="30" t="s">
         <v>219</v>
       </c>
@@ -8582,24 +8574,24 @@
         <v>33</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G199" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" ht="45">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -8607,24 +8599,24 @@
         <v>33</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G200" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H200" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="45" hidden="1">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -8632,24 +8624,24 @@
         <v>33</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G201" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H201" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="45">
+    <row r="202" spans="1:9" ht="30" hidden="1">
       <c r="A202" s="30" t="s">
         <v>222</v>
       </c>
@@ -8657,14 +8649,14 @@
         <v>33</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G202" s="30" t="s">
         <v>16</v>
@@ -8682,7 +8674,7 @@
         <v>33</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -8692,10 +8684,10 @@
         <v>3</v>
       </c>
       <c r="G203" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I203" s="32"/>
     </row>
@@ -8707,14 +8699,14 @@
         <v>33</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G204" s="30" t="s">
         <v>15</v>
@@ -8732,7 +8724,7 @@
         <v>33</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
@@ -8749,7 +8741,7 @@
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="30">
+    <row r="206" spans="1:9" ht="60">
       <c r="A206" s="30" t="s">
         <v>226</v>
       </c>
@@ -8757,14 +8749,14 @@
         <v>33</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F206" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G206" s="30" t="s">
         <v>15</v>
@@ -8774,7 +8766,7 @@
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" ht="60">
+    <row r="207" spans="1:9" ht="75">
       <c r="A207" s="30" t="s">
         <v>227</v>
       </c>
@@ -8782,24 +8774,24 @@
         <v>33</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G207" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H207" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="75">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -8807,24 +8799,24 @@
         <v>33</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G208" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H208" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="30" t="s">
         <v>229</v>
       </c>
@@ -8832,24 +8824,24 @@
         <v>33</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F209" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G209" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H209" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="30" t="s">
         <v>230</v>
       </c>
@@ -8857,7 +8849,7 @@
         <v>33</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="30" t="s">
@@ -8882,24 +8874,24 @@
         <v>33</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G211" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I211" s="32"/>
     </row>
-    <row r="212" spans="1:9" ht="45">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="30" t="s">
         <v>232</v>
       </c>
@@ -8907,32 +8899,32 @@
         <v>33</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F212" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G212" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H212" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9">
       <c r="A213" s="30" t="s">
         <v>233</v>
       </c>
       <c r="B213" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C213" s="32" t="s">
-        <v>545</v>
+      <c r="C213" s="20" t="s">
+        <v>681</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -8949,32 +8941,32 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" ht="30">
       <c r="A214" s="30" t="s">
         <v>234</v>
       </c>
       <c r="B214" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="20" t="s">
-        <v>689</v>
+      <c r="C214" s="32" t="s">
+        <v>543</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G214" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="60">
       <c r="A215" s="30" t="s">
         <v>235</v>
       </c>
@@ -8982,7 +8974,7 @@
         <v>33</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
@@ -9007,7 +8999,7 @@
         <v>33</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -9024,7 +9016,7 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="60">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="30" t="s">
         <v>237</v>
       </c>
@@ -9032,20 +9024,20 @@
         <v>33</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F217" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G217" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H217" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I217" s="32"/>
     </row>
@@ -9057,45 +9049,45 @@
         <v>33</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G218" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H218" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
-      <c r="A219" s="30" t="s">
+    <row r="219" spans="1:9" ht="60">
+      <c r="A219" s="22" t="s">
         <v>239</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C219" s="32" t="s">
-        <v>550</v>
+      <c r="C219" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G219" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I219" s="32"/>
     </row>
@@ -9106,8 +9098,8 @@
       <c r="B220" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C220" s="20" t="s">
-        <v>704</v>
+      <c r="C220" s="32" t="s">
+        <v>548</v>
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
@@ -9120,11 +9112,11 @@
         <v>15</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" ht="60">
+    <row r="221" spans="1:9" ht="45">
       <c r="A221" s="30" t="s">
         <v>241</v>
       </c>
@@ -9132,7 +9124,7 @@
         <v>33</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
@@ -9149,7 +9141,7 @@
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="45">
+    <row r="222" spans="1:9">
       <c r="A222" s="30" t="s">
         <v>242</v>
       </c>
@@ -9157,91 +9149,91 @@
         <v>33</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F222" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G222" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="30" t="s">
+    <row r="223" spans="1:9" ht="30">
+      <c r="A223" s="22" t="s">
         <v>243</v>
       </c>
       <c r="B223" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C223" s="32" t="s">
-        <v>553</v>
+      <c r="C223" s="20" t="s">
+        <v>682</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G223" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I223" s="32"/>
-    </row>
-    <row r="224" spans="1:9" ht="30">
-      <c r="A224" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I223" s="32" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" hidden="1">
+      <c r="A224" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B224" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C224" s="20" t="s">
-        <v>690</v>
+      <c r="C224" s="32" t="s">
+        <v>551</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G224" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I224" s="32" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I224" s="32"/>
+    </row>
+    <row r="225" spans="1:9" ht="30" hidden="1">
       <c r="A225" s="30" t="s">
         <v>245</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G225" s="30" t="s">
         <v>16</v>
@@ -9256,10 +9248,10 @@
         <v>246</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -9269,22 +9261,22 @@
         <v>7</v>
       </c>
       <c r="G226" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H226" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="30">
+    <row r="227" spans="1:9">
       <c r="A227" s="30" t="s">
         <v>247</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9301,28 +9293,28 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="30" t="s">
         <v>248</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F228" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G228" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I228" s="32"/>
     </row>
@@ -9331,10 +9323,10 @@
         <v>249</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9356,35 +9348,35 @@
         <v>250</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F230" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G230" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H230" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="180">
       <c r="A231" s="30" t="s">
         <v>251</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
@@ -9401,15 +9393,15 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="180">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9419,22 +9411,22 @@
         <v>7</v>
       </c>
       <c r="G232" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H232" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9451,15 +9443,15 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" ht="30" hidden="1">
       <c r="A234" s="30" t="s">
         <v>254</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9481,10 +9473,10 @@
         <v>255</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9494,22 +9486,22 @@
         <v>7</v>
       </c>
       <c r="G235" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H235" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9" ht="30" hidden="1">
       <c r="A236" s="30" t="s">
         <v>256</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9519,7 +9511,7 @@
         <v>7</v>
       </c>
       <c r="G236" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H236" s="30" t="s">
         <v>18</v>
@@ -9531,23 +9523,23 @@
         <v>257</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F237" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G237" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H237" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I237" s="32"/>
     </row>
@@ -9556,10 +9548,10 @@
         <v>258</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D238" s="30"/>
       <c r="E238" s="30" t="s">
@@ -9576,40 +9568,40 @@
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" ht="30" hidden="1">
       <c r="A239" s="30" t="s">
         <v>259</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G239" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H239" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="30" t="s">
         <v>260</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
@@ -9626,22 +9618,22 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" ht="30" hidden="1">
       <c r="A241" s="30" t="s">
         <v>261</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F241" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G241" s="30" t="s">
         <v>16</v>
@@ -9656,60 +9648,60 @@
         <v>262</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G242" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H242" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I242" s="32"/>
     </row>
-    <row r="243" spans="1:9" ht="30">
+    <row r="243" spans="1:9" ht="135">
       <c r="A243" s="30" t="s">
         <v>263</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G243" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H243" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="135">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="30" t="s">
         <v>264</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="30" t="s">
@@ -9719,10 +9711,10 @@
         <v>6</v>
       </c>
       <c r="G244" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H244" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I244" s="32"/>
     </row>
@@ -9731,20 +9723,20 @@
         <v>265</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F245" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G245" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H245" s="30" t="s">
         <v>18</v>
@@ -9756,60 +9748,60 @@
         <v>266</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F246" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G246" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H246" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I246" s="32"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="30" t="s">
         <v>267</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G247" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="30" t="s">
         <v>268</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D248" s="30"/>
       <c r="E248" s="30" t="s">
@@ -9819,10 +9811,10 @@
         <v>6</v>
       </c>
       <c r="G248" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I248" s="32"/>
     </row>
@@ -9831,17 +9823,17 @@
         <v>269</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D249" s="30"/>
       <c r="E249" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F249" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G249" s="30" t="s">
         <v>15</v>
@@ -9851,15 +9843,15 @@
       </c>
       <c r="I249" s="32"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="30" hidden="1">
       <c r="A250" s="30" t="s">
         <v>270</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
@@ -9869,22 +9861,22 @@
         <v>3</v>
       </c>
       <c r="G250" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H250" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="30" hidden="1">
       <c r="A251" s="30" t="s">
         <v>271</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
@@ -9901,15 +9893,15 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="30" t="s">
         <v>272</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -9926,15 +9918,15 @@
       </c>
       <c r="I252" s="32"/>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="30" t="s">
         <v>273</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9944,22 +9936,22 @@
         <v>3</v>
       </c>
       <c r="G253" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H253" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="75">
       <c r="A254" s="30" t="s">
         <v>274</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
@@ -9972,107 +9964,107 @@
         <v>15</v>
       </c>
       <c r="H254" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="75">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="30" t="s">
         <v>275</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F255" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G255" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="45">
       <c r="A256" s="30" t="s">
         <v>276</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G256" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="30" hidden="1">
       <c r="A257" s="30" t="s">
         <v>277</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G257" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H257" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
-      <c r="A258" s="30" t="s">
+    <row r="258" spans="1:9" ht="60">
+      <c r="A258" s="22" t="s">
         <v>278</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C258" s="32" t="s">
-        <v>587</v>
+        <v>354</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>683</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H258" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I258" s="32"/>
     </row>
@@ -10081,17 +10073,17 @@
         <v>279</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F259" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G259" s="30" t="s">
         <v>15</v>
@@ -10102,14 +10094,14 @@
       <c r="I259" s="32"/>
     </row>
     <row r="260" spans="1:9" ht="60">
-      <c r="A260" s="30" t="s">
+      <c r="A260" s="22" t="s">
         <v>280</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
@@ -10122,19 +10114,19 @@
         <v>15</v>
       </c>
       <c r="H260" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I260" s="32"/>
     </row>
-    <row r="261" spans="1:9" ht="60">
+    <row r="261" spans="1:9" ht="45">
       <c r="A261" s="30" t="s">
         <v>281</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -10151,28 +10143,28 @@
       </c>
       <c r="I261" s="32"/>
     </row>
-    <row r="262" spans="1:9" ht="60">
+    <row r="262" spans="1:9" ht="30" hidden="1">
       <c r="A262" s="30" t="s">
         <v>282</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>693</v>
+        <v>354</v>
+      </c>
+      <c r="C262" s="32" t="s">
+        <v>585</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G262" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I262" s="32"/>
     </row>
@@ -10181,10 +10173,10 @@
         <v>283</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
@@ -10194,10 +10186,10 @@
         <v>6</v>
       </c>
       <c r="G263" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I263" s="32"/>
     </row>
@@ -10206,10 +10198,10 @@
         <v>284</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D264" s="30"/>
       <c r="E264" s="30" t="s">
@@ -10222,19 +10214,19 @@
         <v>15</v>
       </c>
       <c r="H264" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I264" s="32"/>
     </row>
-    <row r="265" spans="1:9" ht="30">
-      <c r="A265" s="30" t="s">
+    <row r="265" spans="1:9" ht="45">
+      <c r="A265" s="22" t="s">
         <v>285</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C265" s="32" t="s">
-        <v>590</v>
+        <v>354</v>
+      </c>
+      <c r="C265" s="20" t="s">
+        <v>684</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="30" t="s">
@@ -10247,19 +10239,21 @@
         <v>15</v>
       </c>
       <c r="H265" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I265" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I265" s="20" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="266" spans="1:9" ht="45">
-      <c r="A266" s="22" t="s">
+      <c r="A266" s="30" t="s">
         <v>286</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>694</v>
+        <v>354</v>
+      </c>
+      <c r="C266" s="32" t="s">
+        <v>588</v>
       </c>
       <c r="D266" s="30"/>
       <c r="E266" s="30" t="s">
@@ -10272,76 +10266,76 @@
         <v>15</v>
       </c>
       <c r="H266" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="45">
-      <c r="A267" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I266" s="32"/>
+    </row>
+    <row r="267" spans="1:9" ht="90">
+      <c r="A267" s="22" t="s">
         <v>287</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C267" s="32" t="s">
-        <v>591</v>
+        <v>354</v>
+      </c>
+      <c r="C267" s="20" t="s">
+        <v>689</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G267" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H267" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I267" s="32"/>
-    </row>
-    <row r="268" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I267" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="30">
       <c r="A268" s="30" t="s">
         <v>288</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="D268" s="30"/>
+        <v>354</v>
+      </c>
+      <c r="C268" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="D268" s="30" t="s">
+        <v>634</v>
+      </c>
       <c r="E268" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G268" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H268" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I268" s="20" t="s">
-        <v>657</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I268" s="32"/>
     </row>
     <row r="269" spans="1:9" ht="30">
       <c r="A269" s="30" t="s">
         <v>289</v>
       </c>
       <c r="B269" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E269" s="30" t="s">
         <v>19</v>
@@ -10362,13 +10356,13 @@
         <v>290</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D270" s="30" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E270" s="30" t="s">
         <v>19</v>
@@ -10384,18 +10378,18 @@
       </c>
       <c r="I270" s="32"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="60">
       <c r="A271" s="30" t="s">
         <v>291</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E271" s="30" t="s">
         <v>19</v>
@@ -10416,13 +10410,13 @@
         <v>292</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E272" s="30" t="s">
         <v>19</v>
@@ -10443,13 +10437,13 @@
         <v>293</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D273" s="30" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E273" s="30" t="s">
         <v>19</v>
@@ -10465,30 +10459,28 @@
       </c>
       <c r="I273" s="32"/>
     </row>
-    <row r="274" spans="1:9" ht="60">
+    <row r="274" spans="1:9" ht="30" hidden="1">
       <c r="A274" s="30" t="s">
         <v>294</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="D274" s="30" t="s">
-        <v>643</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D274" s="30"/>
       <c r="E274" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F274" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G274" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H274" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I274" s="32"/>
     </row>
@@ -10497,10 +10489,10 @@
         <v>295</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D275" s="30"/>
       <c r="E275" s="30" t="s">
@@ -10510,22 +10502,22 @@
         <v>7</v>
       </c>
       <c r="G275" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H275" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9">
       <c r="A276" s="30" t="s">
         <v>296</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
@@ -10542,28 +10534,28 @@
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="30" t="s">
         <v>297</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F277" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G277" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H277" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I277" s="32"/>
     </row>
@@ -10572,10 +10564,10 @@
         <v>298</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
@@ -10597,35 +10589,35 @@
         <v>299</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F279" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G279" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H279" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="150">
       <c r="A280" s="30" t="s">
         <v>300</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
@@ -10642,15 +10634,15 @@
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="150">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" s="30" t="s">
         <v>301</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
@@ -10660,7 +10652,7 @@
         <v>7</v>
       </c>
       <c r="G281" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H281" s="30" t="s">
         <v>18</v>
@@ -10672,10 +10664,10 @@
         <v>302</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
@@ -10685,7 +10677,7 @@
         <v>7</v>
       </c>
       <c r="G282" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H282" s="30" t="s">
         <v>18</v>
@@ -10697,10 +10689,10 @@
         <v>303</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
@@ -10722,10 +10714,10 @@
         <v>304</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
@@ -10742,40 +10734,40 @@
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="30" t="s">
         <v>305</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G285" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H285" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="30" hidden="1">
       <c r="A286" s="30" t="s">
         <v>306</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
@@ -10785,47 +10777,47 @@
         <v>3</v>
       </c>
       <c r="G286" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H286" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="135">
       <c r="A287" s="30" t="s">
         <v>307</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F287" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G287" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H287" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9" ht="135">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="30" t="s">
         <v>308</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D288" s="30"/>
       <c r="E288" s="30" t="s">
@@ -10842,65 +10834,65 @@
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9">
       <c r="A289" s="30" t="s">
         <v>309</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D289" s="30"/>
       <c r="E289" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F289" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G289" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H289" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I289" s="32"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="30" t="s">
         <v>310</v>
       </c>
       <c r="B290" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C290" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D290" s="30"/>
       <c r="E290" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F290" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G290" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H290" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I290" s="32"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" s="30" t="s">
         <v>311</v>
       </c>
       <c r="B291" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D291" s="30"/>
       <c r="E291" s="30" t="s">
@@ -10910,22 +10902,22 @@
         <v>6</v>
       </c>
       <c r="G291" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H291" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I291" s="32"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="30" t="s">
         <v>312</v>
       </c>
       <c r="B292" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D292" s="30"/>
       <c r="E292" s="30" t="s">
@@ -10935,79 +10927,83 @@
         <v>6</v>
       </c>
       <c r="G292" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H292" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I292" s="32"/>
     </row>
-    <row r="293" spans="1:9" ht="30">
+    <row r="293" spans="1:9" ht="45">
       <c r="A293" s="30" t="s">
         <v>313</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="D293" s="30"/>
+        <v>614</v>
+      </c>
+      <c r="D293" s="30" t="s">
+        <v>640</v>
+      </c>
       <c r="E293" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F293" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G293" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H293" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I293" s="32"/>
-    </row>
-    <row r="294" spans="1:9" ht="45">
-      <c r="A294" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I293" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="33" customFormat="1" ht="45">
+      <c r="A294" s="22" t="s">
         <v>314</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="D294" s="30" t="s">
-        <v>644</v>
+        <v>615</v>
+      </c>
+      <c r="D294" s="22" t="s">
+        <v>700</v>
       </c>
       <c r="E294" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F294" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G294" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H294" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I294" s="32" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="33" customFormat="1" ht="45">
       <c r="A295" s="30" t="s">
         <v>315</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C295" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="D295" s="30" t="s">
-        <v>645</v>
+        <v>359</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="D295" s="22" t="s">
+        <v>700</v>
       </c>
       <c r="E295" s="30" t="s">
         <v>22</v>
@@ -11022,7 +11018,7 @@
         <v>20</v>
       </c>
       <c r="I295" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="45">
@@ -11030,13 +11026,13 @@
         <v>316</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C296" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="D296" s="30" t="s">
-        <v>645</v>
+        <v>359</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="D296" s="22" t="s">
+        <v>641</v>
       </c>
       <c r="E296" s="30" t="s">
         <v>22</v>
@@ -11051,7 +11047,7 @@
         <v>20</v>
       </c>
       <c r="I296" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="45">
@@ -11059,13 +11055,13 @@
         <v>317</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C297" s="32" t="s">
-        <v>620</v>
+        <v>359</v>
+      </c>
+      <c r="C297" s="20" t="s">
+        <v>691</v>
       </c>
       <c r="D297" s="30" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E297" s="30" t="s">
         <v>22</v>
@@ -11080,7 +11076,7 @@
         <v>20</v>
       </c>
       <c r="I297" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="45">
@@ -11088,19 +11084,19 @@
         <v>318</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C298" s="20" t="s">
-        <v>700</v>
+        <v>359</v>
+      </c>
+      <c r="C298" s="32" t="s">
+        <v>617</v>
       </c>
       <c r="D298" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E298" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F298" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G298" s="30" t="s">
         <v>15</v>
@@ -11109,7 +11105,7 @@
         <v>20</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="45">
@@ -11117,19 +11113,19 @@
         <v>319</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="D299" s="30" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E299" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F299" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G299" s="30" t="s">
         <v>15</v>
@@ -11138,7 +11134,7 @@
         <v>20</v>
       </c>
       <c r="I299" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="45">
@@ -11146,13 +11142,13 @@
         <v>320</v>
       </c>
       <c r="B300" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C300" s="32" t="s">
-        <v>621</v>
+        <v>359</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>619</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E300" s="30" t="s">
         <v>22</v>
@@ -11167,21 +11163,21 @@
         <v>20</v>
       </c>
       <c r="I300" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
-      <c r="A301" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="B301" s="31" t="s">
-        <v>361</v>
+      <c r="A301" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D301" s="30" t="s">
-        <v>647</v>
+        <v>668</v>
+      </c>
+      <c r="D301" s="22" t="s">
+        <v>665</v>
       </c>
       <c r="E301" s="30" t="s">
         <v>22</v>
@@ -11196,21 +11192,21 @@
         <v>20</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="45">
-      <c r="A302" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B302" s="31" t="s">
-        <v>361</v>
+      <c r="A302" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="D302" s="30" t="s">
-        <v>647</v>
+        <v>670</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>667</v>
       </c>
       <c r="E302" s="30" t="s">
         <v>22</v>
@@ -11225,27 +11221,27 @@
         <v>20</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
-      <c r="A303" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="B303" s="24" t="s">
-        <v>361</v>
+      <c r="A303" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B303" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="D303" s="22" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="E303" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F303" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G303" s="30" t="s">
         <v>15</v>
@@ -11254,27 +11250,27 @@
         <v>20</v>
       </c>
       <c r="I303" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
-      <c r="A304" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="B304" s="24" t="s">
-        <v>361</v>
+      <c r="A304" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B304" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="D304" s="22" t="s">
-        <v>674</v>
+        <v>693</v>
+      </c>
+      <c r="D304" s="30" t="s">
+        <v>643</v>
       </c>
       <c r="E304" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F304" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G304" s="30" t="s">
         <v>15</v>
@@ -11283,21 +11279,21 @@
         <v>20</v>
       </c>
       <c r="I304" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="45">
-      <c r="A305" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B305" s="31" t="s">
-        <v>361</v>
+      <c r="A305" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="D305" s="30" t="s">
-        <v>648</v>
+        <v>678</v>
+      </c>
+      <c r="D305" s="22" t="s">
+        <v>676</v>
       </c>
       <c r="E305" s="30" t="s">
         <v>22</v>
@@ -11312,21 +11308,21 @@
         <v>20</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="45">
-      <c r="A306" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B306" s="31" t="s">
-        <v>361</v>
+      <c r="A306" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="B306" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D306" s="30" t="s">
-        <v>648</v>
+        <v>698</v>
+      </c>
+      <c r="D306" s="22" t="s">
+        <v>676</v>
       </c>
       <c r="E306" s="30" t="s">
         <v>22</v>
@@ -11341,21 +11337,21 @@
         <v>20</v>
       </c>
       <c r="I306" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="45">
       <c r="A307" s="22" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B307" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C307" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="D307" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="D307" s="22" t="s">
-        <v>683</v>
       </c>
       <c r="E307" s="30" t="s">
         <v>22</v>
@@ -11370,127 +11366,74 @@
         <v>20</v>
       </c>
       <c r="I307" s="32" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="45" hidden="1">
       <c r="A308" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="B308" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C308" s="20" t="s">
-        <v>686</v>
-      </c>
-      <c r="D308" s="22" t="s">
-        <v>683</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B308" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C308" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="D308" s="30"/>
       <c r="E308" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F308" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G308" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H308" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I308" s="32" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="45">
-      <c r="A309" s="22" t="s">
-        <v>696</v>
-      </c>
-      <c r="B309" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C309" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="D309" s="22" t="s">
-        <v>695</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I308" s="32"/>
+    </row>
+    <row r="309" spans="1:9" ht="30" hidden="1">
+      <c r="A309" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B309" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="D309" s="30"/>
       <c r="E309" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F309" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G309" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H309" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I309" s="32" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="45">
-      <c r="A310" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B310" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C310" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="D310" s="30"/>
-      <c r="E310" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F310" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G310" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H310" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I310" s="32"/>
-    </row>
-    <row r="311" spans="1:9" ht="30">
-      <c r="A311" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="B311" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C311" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="D311" s="30"/>
-      <c r="E311" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F311" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G311" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H311" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I311" s="32"/>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="3"/>
-      <c r="B312" s="10"/>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="3"/>
-      <c r="B313" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="I309" s="32"/>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="3"/>
+      <c r="B310" s="10"/>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="3"/>
+      <c r="B311" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -11498,58 +11441,53 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I311">
-    <cfRule type="expression" dxfId="7" priority="53">
+  <conditionalFormatting sqref="A20:I309">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I311">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="A20:I309">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F311">
-    <cfRule type="expression" dxfId="1" priority="13">
+  <conditionalFormatting sqref="F20:F309">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F311">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F309">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E311">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E309">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G311">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G309">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H311">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H309">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11559,7 +11497,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B309:B313 B19:B126 B172:B174 B127:B171 B304:B306 B181:B229 B230:B262 B263:B303 C3 B307:B308 B175:B180" numberStoredAsText="1"/>
+    <ignoredError sqref="B307:B311 B19:B114 B171:B173 B126:B170 B302:B304 B180:B228 B229:B261 B262:B293 C3 B305:B306 B174:B179 B294:B301 B115:B125" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -11569,18 +11507,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11633,23 +11571,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="701">
   <si>
     <t>Req ID</t>
   </si>
@@ -2506,14 +2506,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2709,13 +2709,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2748,7 +2748,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2771,6 +2771,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2794,21 +2809,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3757,127 +3757,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3890,12 +3890,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3908,12 +3908,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3926,12 +3926,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3944,60 +3944,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="45">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="30" t="s">
         <v>65</v>
       </c>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="180">
+    <row r="45" spans="1:9" ht="165">
       <c r="A45" s="22" t="s">
         <v>68</v>
       </c>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="90">
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="30" t="s">
         <v>85</v>
       </c>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="45">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="30" t="s">
         <v>93</v>
       </c>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="105">
+    <row r="92" spans="1:9" ht="90">
       <c r="A92" s="30" t="s">
         <v>115</v>
       </c>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
+    <row r="93" spans="1:9">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="60">
+    <row r="126" spans="1:9" ht="45">
       <c r="A126" s="30" t="s">
         <v>147</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="45" hidden="1">
+    <row r="134" spans="1:9" ht="30" hidden="1">
       <c r="A134" s="30" t="s">
         <v>155</v>
       </c>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9">
       <c r="A164" s="30" t="s">
         <v>185</v>
       </c>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="60">
+    <row r="219" spans="1:9" ht="45">
       <c r="A219" s="22" t="s">
         <v>239</v>
       </c>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="180">
+    <row r="231" spans="1:9" ht="165">
       <c r="A231" s="30" t="s">
         <v>251</v>
       </c>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9" ht="60">
+    <row r="259" spans="1:9" ht="45">
       <c r="A259" s="22" t="s">
         <v>279</v>
       </c>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="60">
+    <row r="273" spans="1:9" ht="45">
       <c r="A273" s="30" t="s">
         <v>293</v>
       </c>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="150">
+    <row r="280" spans="1:9" ht="135">
       <c r="A280" s="30" t="s">
         <v>300</v>
       </c>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9">
       <c r="A288" s="30" t="s">
         <v>308</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="45">
+    <row r="301" spans="1:9" ht="30">
       <c r="A301" s="22" t="s">
         <v>666</v>
       </c>
@@ -11189,13 +11189,11 @@
         <v>15</v>
       </c>
       <c r="H301" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I301" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I301" s="32"/>
+    </row>
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="22" t="s">
         <v>671</v>
       </c>
@@ -11218,11 +11216,9 @@
         <v>15</v>
       </c>
       <c r="H302" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I302" s="32" t="s">
-        <v>651</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I302" s="32"/>
     </row>
     <row r="303" spans="1:9" ht="45">
       <c r="A303" s="30" t="s">
@@ -11305,11 +11301,9 @@
         <v>15</v>
       </c>
       <c r="H305" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I305" s="32" t="s">
-        <v>651</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I305" s="32"/>
     </row>
     <row r="306" spans="1:9" ht="45">
       <c r="A306" s="22" t="s">
@@ -11429,11 +11423,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -11441,6 +11430,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I309">
@@ -11507,21 +11501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -11570,10 +11549,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11593,16 +11594,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="699">
   <si>
     <t>Req ID</t>
   </si>
@@ -2405,18 +2405,12 @@
     <t>[In Appendix B: Product Behavior] Implementation does map the LookupMulti field type to the Lookup field type. (Windows SharePoint Services 3.0 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-COPYS_R12311.</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does map the UserMulti field type to the User field type.type. (Windows SharePoint Services 3.0 and above follow this behavior.)</t>
   </si>
   <si>
     <t>MS-COPYS_R12312</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-COPYS_R12312.</t>
-  </si>
-  <si>
     <t>MS-COPYS_R1233</t>
   </si>
   <si>
@@ -2435,9 +2429,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does not return a SOAP exception if the source location URL is in an invalid format. (&lt;3&gt; Section 3.1.4.1:  Windows SharePoint Services 3.0 does not return a SOAP exception.)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-COPYS_R12331, MS-COPYS_R12332.</t>
-  </si>
-  <si>
     <t>[In GetItem] [The protocol server returns results based on the following conditions:] If the source location does not point to an existing file on the protocol server, the protocol server MUST omit the Fields and Stream elements in the GetItemResponse element (section 3.1.4.1.2.2).</t>
   </si>
   <si>
@@ -2499,6 +2490,10 @@
   </si>
   <si>
     <t>MS-COPYS_R280:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-COPYS_R12332.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2771,21 +2766,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2809,6 +2789,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3757,127 +3752,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3890,12 +3885,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3908,12 +3903,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3926,12 +3921,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3944,60 +3939,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -6671,7 +6666,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="30">
+    <row r="124" spans="1:9">
       <c r="A124" s="22" t="s">
         <v>661</v>
       </c>
@@ -6694,11 +6689,9 @@
       <c r="H124" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="20" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="30">
+      <c r="I124" s="20"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="22" t="s">
         <v>663</v>
       </c>
@@ -6721,9 +6714,7 @@
       <c r="H125" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I125" s="20" t="s">
-        <v>672</v>
-      </c>
+      <c r="I125" s="20"/>
     </row>
     <row r="126" spans="1:9" ht="45">
       <c r="A126" s="30" t="s">
@@ -7864,15 +7855,15 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="45">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7888,7 +7879,7 @@
         <v>17</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="45">
@@ -7924,7 +7915,7 @@
         <v>32</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -8924,7 +8915,7 @@
         <v>33</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -9074,7 +9065,7 @@
         <v>33</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
@@ -9174,7 +9165,7 @@
         <v>33</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -10051,7 +10042,7 @@
         <v>354</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
@@ -10076,7 +10067,7 @@
         <v>354</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
@@ -10101,7 +10092,7 @@
         <v>354</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
@@ -10126,7 +10117,7 @@
         <v>354</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -10226,7 +10217,7 @@
         <v>354</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="30" t="s">
@@ -10242,7 +10233,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="20" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="45">
@@ -10278,7 +10269,7 @@
         <v>354</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30" t="s">
@@ -10294,7 +10285,7 @@
         <v>17</v>
       </c>
       <c r="I267" s="20" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="30">
@@ -10974,7 +10965,7 @@
         <v>615</v>
       </c>
       <c r="D294" s="22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E294" s="30" t="s">
         <v>22</v>
@@ -11003,7 +10994,7 @@
         <v>616</v>
       </c>
       <c r="D295" s="22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E295" s="30" t="s">
         <v>22</v>
@@ -11029,7 +11020,7 @@
         <v>359</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D296" s="22" t="s">
         <v>641</v>
@@ -11058,7 +11049,7 @@
         <v>359</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D297" s="30" t="s">
         <v>641</v>
@@ -11195,13 +11186,13 @@
     </row>
     <row r="302" spans="1:9" ht="30">
       <c r="A302" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B302" s="24" t="s">
         <v>359</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D302" s="22" t="s">
         <v>667</v>
@@ -11228,7 +11219,7 @@
         <v>359</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D303" s="22" t="s">
         <v>643</v>
@@ -11257,7 +11248,7 @@
         <v>359</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>643</v>
@@ -11280,16 +11271,16 @@
     </row>
     <row r="305" spans="1:9" ht="45">
       <c r="A305" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B305" s="24" t="s">
         <v>359</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D305" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E305" s="30" t="s">
         <v>22</v>
@@ -11307,16 +11298,16 @@
     </row>
     <row r="306" spans="1:9" ht="45">
       <c r="A306" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B306" s="24" t="s">
         <v>359</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E306" s="30" t="s">
         <v>22</v>
@@ -11336,16 +11327,16 @@
     </row>
     <row r="307" spans="1:9" ht="45">
       <c r="A307" s="22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B307" s="24" t="s">
         <v>359</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D307" s="22" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E307" s="30" t="s">
         <v>22</v>
@@ -11423,6 +11414,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -11430,11 +11426,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I309">
@@ -11501,6 +11492,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -11549,12 +11546,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11565,6 +11556,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11579,20 +11584,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -2492,8 +2492,7 @@
     <t>MS-COPYS_R280:i</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-COPYS_R12332.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Verified by derived requirement: MS-COPYS_R12332.</t>
   </si>
 </sst>
 </file>
@@ -2501,14 +2500,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2704,13 +2703,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2743,7 +2742,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3322,13 +3321,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I309" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I309">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Normative"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A19:I309"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -4178,7 +4171,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" hidden="1">
+    <row r="26" spans="1:12" s="23" customFormat="1">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -4203,7 +4196,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -4228,7 +4221,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -4253,7 +4246,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" hidden="1">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
@@ -4278,7 +4271,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" hidden="1">
+    <row r="30" spans="1:12" s="23" customFormat="1">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
@@ -4303,7 +4296,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" hidden="1">
+    <row r="31" spans="1:12" s="23" customFormat="1">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -4328,7 +4321,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" hidden="1">
+    <row r="32" spans="1:12" s="23" customFormat="1">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -4353,7 +4346,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" hidden="1">
+    <row r="33" spans="1:9" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
@@ -4378,7 +4371,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
         <v>57</v>
       </c>
@@ -4403,7 +4396,7 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
@@ -4428,7 +4421,7 @@
       </c>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
@@ -4453,7 +4446,7 @@
       </c>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
@@ -4503,7 +4496,7 @@
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="30" t="s">
         <v>62</v>
       </c>
@@ -4553,7 +4546,7 @@
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="30" t="s">
         <v>64</v>
       </c>
@@ -4578,7 +4571,7 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="45">
       <c r="A42" s="30" t="s">
         <v>65</v>
       </c>
@@ -4603,7 +4596,7 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="30" t="s">
         <v>66</v>
       </c>
@@ -4628,7 +4621,7 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30" hidden="1">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
@@ -4653,7 +4646,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="165">
+    <row r="45" spans="1:9" ht="180">
       <c r="A45" s="22" t="s">
         <v>68</v>
       </c>
@@ -4678,7 +4671,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
@@ -4753,7 +4746,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
@@ -4778,7 +4771,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="30" hidden="1">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
@@ -4803,7 +4796,7 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
@@ -4828,7 +4821,7 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="30" hidden="1">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="30" t="s">
         <v>75</v>
       </c>
@@ -4853,7 +4846,7 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="30" hidden="1">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
@@ -4878,7 +4871,7 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" ht="30" hidden="1">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
@@ -4903,7 +4896,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30" hidden="1">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -4928,7 +4921,7 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="30" hidden="1">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="30" t="s">
         <v>79</v>
       </c>
@@ -4953,7 +4946,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="30" t="s">
         <v>80</v>
       </c>
@@ -5003,7 +4996,7 @@
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
@@ -5053,7 +5046,7 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="30" t="s">
         <v>84</v>
       </c>
@@ -5078,7 +5071,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="75">
+    <row r="62" spans="1:9" ht="90">
       <c r="A62" s="30" t="s">
         <v>85</v>
       </c>
@@ -5257,7 +5250,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
@@ -5284,7 +5277,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="30" t="s">
         <v>93</v>
       </c>
@@ -5336,7 +5329,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="30" hidden="1">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
@@ -5436,7 +5429,7 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30" hidden="1">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="30" t="s">
         <v>99</v>
       </c>
@@ -5461,7 +5454,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" hidden="1">
+    <row r="77" spans="1:9">
       <c r="A77" s="30" t="s">
         <v>100</v>
       </c>
@@ -5511,7 +5504,7 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" s="30" t="s">
         <v>102</v>
       </c>
@@ -5711,7 +5704,7 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30" hidden="1">
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="30" t="s">
         <v>110</v>
       </c>
@@ -5844,7 +5837,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="90">
+    <row r="92" spans="1:9" ht="105">
       <c r="A92" s="30" t="s">
         <v>115</v>
       </c>
@@ -5869,7 +5862,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="30">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
@@ -5894,7 +5887,7 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="30" hidden="1">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="30" t="s">
         <v>117</v>
       </c>
@@ -5919,7 +5912,7 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30" hidden="1">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="30" t="s">
         <v>118</v>
       </c>
@@ -5944,7 +5937,7 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" ht="30" hidden="1">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="30" t="s">
         <v>119</v>
       </c>
@@ -5969,7 +5962,7 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" ht="30" hidden="1">
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="30" t="s">
         <v>120</v>
       </c>
@@ -5994,7 +5987,7 @@
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30" hidden="1">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="30" t="s">
         <v>121</v>
       </c>
@@ -6019,7 +6012,7 @@
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30" hidden="1">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="30" t="s">
         <v>122</v>
       </c>
@@ -6510,7 +6503,7 @@
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" s="30" t="s">
         <v>141</v>
       </c>
@@ -6560,7 +6553,7 @@
       </c>
       <c r="I119" s="32"/>
     </row>
-    <row r="120" spans="1:9" ht="60" hidden="1">
+    <row r="120" spans="1:9" ht="60">
       <c r="A120" s="30" t="s">
         <v>143</v>
       </c>
@@ -6716,7 +6709,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="45">
+    <row r="126" spans="1:9" ht="60">
       <c r="A126" s="30" t="s">
         <v>147</v>
       </c>
@@ -6741,7 +6734,7 @@
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9">
       <c r="A127" s="30" t="s">
         <v>148</v>
       </c>
@@ -6791,7 +6784,7 @@
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" s="30" t="s">
         <v>150</v>
       </c>
@@ -6816,7 +6809,7 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" s="30" t="s">
         <v>151</v>
       </c>
@@ -6841,7 +6834,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" s="30" t="s">
         <v>152</v>
       </c>
@@ -6866,7 +6859,7 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" s="30" t="s">
         <v>153</v>
       </c>
@@ -6891,7 +6884,7 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" s="30" t="s">
         <v>154</v>
       </c>
@@ -6916,7 +6909,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="30" hidden="1">
+    <row r="134" spans="1:9" ht="45">
       <c r="A134" s="30" t="s">
         <v>155</v>
       </c>
@@ -6941,7 +6934,7 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30" hidden="1">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="30" t="s">
         <v>156</v>
       </c>
@@ -6966,7 +6959,7 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30" hidden="1">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="30" t="s">
         <v>157</v>
       </c>
@@ -6991,7 +6984,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30" hidden="1">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
         <v>158</v>
       </c>
@@ -7016,7 +7009,7 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30" hidden="1">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="30" t="s">
         <v>159</v>
       </c>
@@ -7041,7 +7034,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" hidden="1">
+    <row r="139" spans="1:9">
       <c r="A139" s="30" t="s">
         <v>160</v>
       </c>
@@ -7066,7 +7059,7 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="A140" s="30" t="s">
         <v>161</v>
       </c>
@@ -7091,7 +7084,7 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30" hidden="1">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="30" t="s">
         <v>162</v>
       </c>
@@ -7116,7 +7109,7 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="30" hidden="1">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="30" t="s">
         <v>163</v>
       </c>
@@ -7218,7 +7211,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="30" t="s">
         <v>167</v>
       </c>
@@ -7268,7 +7261,7 @@
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" s="30" t="s">
         <v>169</v>
       </c>
@@ -7372,7 +7365,7 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" s="30" t="s">
         <v>173</v>
       </c>
@@ -7555,7 +7548,7 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" s="30" t="s">
         <v>180</v>
       </c>
@@ -7580,7 +7573,7 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" ht="30" hidden="1">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="30" t="s">
         <v>181</v>
       </c>
@@ -7680,7 +7673,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="30" t="s">
         <v>185</v>
       </c>
@@ -7780,7 +7773,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="30" hidden="1">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="30" t="s">
         <v>189</v>
       </c>
@@ -7805,7 +7798,7 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="30" hidden="1">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="30" t="s">
         <v>190</v>
       </c>
@@ -7830,7 +7823,7 @@
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="30" t="s">
         <v>191</v>
       </c>
@@ -7982,7 +7975,7 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="30" hidden="1">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
@@ -8057,7 +8050,7 @@
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9" ht="30" hidden="1">
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
@@ -8157,7 +8150,7 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
@@ -8232,7 +8225,7 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30" hidden="1">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="30" t="s">
         <v>206</v>
       </c>
@@ -8307,7 +8300,7 @@
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="30" t="s">
         <v>209</v>
       </c>
@@ -8382,7 +8375,7 @@
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="30" hidden="1">
+    <row r="192" spans="1:9" ht="30">
       <c r="A192" s="30" t="s">
         <v>212</v>
       </c>
@@ -8432,7 +8425,7 @@
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="30" hidden="1">
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="30" t="s">
         <v>214</v>
       </c>
@@ -8457,7 +8450,7 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
@@ -8507,7 +8500,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -8557,7 +8550,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9">
       <c r="A199" s="30" t="s">
         <v>219</v>
       </c>
@@ -8582,7 +8575,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="45">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -8607,7 +8600,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="45" hidden="1">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -8632,7 +8625,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="30" hidden="1">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="30" t="s">
         <v>222</v>
       </c>
@@ -8782,7 +8775,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" hidden="1">
+    <row r="208" spans="1:9">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -9057,7 +9050,7 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="45">
+    <row r="219" spans="1:9" ht="60">
       <c r="A219" s="22" t="s">
         <v>239</v>
       </c>
@@ -9184,7 +9177,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1">
+    <row r="224" spans="1:9">
       <c r="A224" s="30" t="s">
         <v>244</v>
       </c>
@@ -9209,7 +9202,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="30" hidden="1">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="30" t="s">
         <v>245</v>
       </c>
@@ -9309,7 +9302,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
@@ -9359,7 +9352,7 @@
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="165">
+    <row r="231" spans="1:9" ht="180">
       <c r="A231" s="30" t="s">
         <v>251</v>
       </c>
@@ -9384,7 +9377,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
@@ -9409,7 +9402,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
@@ -9434,7 +9427,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" ht="30" hidden="1">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="30" t="s">
         <v>254</v>
       </c>
@@ -9484,7 +9477,7 @@
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="30" hidden="1">
+    <row r="236" spans="1:9" ht="30">
       <c r="A236" s="30" t="s">
         <v>256</v>
       </c>
@@ -9559,7 +9552,7 @@
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" ht="30" hidden="1">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="30" t="s">
         <v>259</v>
       </c>
@@ -9584,7 +9577,7 @@
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="30" t="s">
         <v>260</v>
       </c>
@@ -9609,7 +9602,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" ht="30" hidden="1">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="30" t="s">
         <v>261</v>
       </c>
@@ -9684,7 +9677,7 @@
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="30" t="s">
         <v>264</v>
       </c>
@@ -9759,7 +9752,7 @@
       </c>
       <c r="I246" s="32"/>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="30" t="s">
         <v>267</v>
       </c>
@@ -9834,7 +9827,7 @@
       </c>
       <c r="I249" s="32"/>
     </row>
-    <row r="250" spans="1:9" ht="30" hidden="1">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="30" t="s">
         <v>270</v>
       </c>
@@ -9859,7 +9852,7 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30" hidden="1">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="30" t="s">
         <v>271</v>
       </c>
@@ -9884,7 +9877,7 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" s="30" t="s">
         <v>272</v>
       </c>
@@ -10009,7 +10002,7 @@
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="30" hidden="1">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="30" t="s">
         <v>277</v>
       </c>
@@ -10059,7 +10052,7 @@
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9" ht="45">
+    <row r="259" spans="1:9" ht="60">
       <c r="A259" s="22" t="s">
         <v>279</v>
       </c>
@@ -10134,7 +10127,7 @@
       </c>
       <c r="I261" s="32"/>
     </row>
-    <row r="262" spans="1:9" ht="30" hidden="1">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="30" t="s">
         <v>282</v>
       </c>
@@ -10423,7 +10416,7 @@
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="60">
       <c r="A273" s="30" t="s">
         <v>293</v>
       </c>
@@ -10450,7 +10443,7 @@
       </c>
       <c r="I273" s="32"/>
     </row>
-    <row r="274" spans="1:9" ht="30" hidden="1">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="30" t="s">
         <v>294</v>
       </c>
@@ -10600,7 +10593,7 @@
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="135">
+    <row r="280" spans="1:9" ht="150">
       <c r="A280" s="30" t="s">
         <v>300</v>
       </c>
@@ -10625,7 +10618,7 @@
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="30" t="s">
         <v>301</v>
       </c>
@@ -10750,7 +10743,7 @@
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" ht="30" hidden="1">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="30" t="s">
         <v>306</v>
       </c>
@@ -10800,7 +10793,7 @@
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="30" t="s">
         <v>308</v>
       </c>
@@ -10875,7 +10868,7 @@
       </c>
       <c r="I290" s="32"/>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="30" t="s">
         <v>311</v>
       </c>
@@ -11354,7 +11347,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="45" hidden="1">
+    <row r="308" spans="1:9" ht="45">
       <c r="A308" s="22" t="s">
         <v>323</v>
       </c>
@@ -11379,7 +11372,7 @@
       </c>
       <c r="I308" s="32"/>
     </row>
-    <row r="309" spans="1:9" ht="30" hidden="1">
+    <row r="309" spans="1:9" ht="30">
       <c r="A309" s="30" t="s">
         <v>324</v>
       </c>
@@ -11492,12 +11485,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -11546,16 +11548,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11569,7 +11570,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11582,12 +11583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2279EE-E836-4FB3-8DD5-73E29548F8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$304</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -20,15 +21,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp8E43" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp8E43" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-zhalin\AppData\Local\Temp\tmp8E43.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="688">
   <si>
     <t>Req ID</t>
   </si>
@@ -443,24 +444,6 @@
     <t>MS-COPYS_R26</t>
   </si>
   <si>
-    <t>MS-COPYS_R27</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R28</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R29</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R30</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R31</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R32</t>
-  </si>
-  <si>
     <t>MS-COPYS_R33</t>
   </si>
   <si>
@@ -1082,12 +1065,6 @@
     <t>MS-COPYS_R270</t>
   </si>
   <si>
-    <t>MS-COPYS_R271</t>
-  </si>
-  <si>
-    <t>MS-COPYS_R272</t>
-  </si>
-  <si>
     <t>MS-COPYS_R273</t>
   </si>
   <si>
@@ -1232,9 +1209,6 @@
     <t>2.2.2.1</t>
   </si>
   <si>
-    <t>2.2.2.2</t>
-  </si>
-  <si>
     <t>2.2.3</t>
   </si>
   <si>
@@ -1334,15 +1308,9 @@
     <t>[In Transport] Protocol messages MUST be formatted as specified either in [SOAP1.1] section 4.</t>
   </si>
   <si>
-    <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.2/1] section 5.</t>
-  </si>
-  <si>
     <t>[In Transport] Protocol server faults MUST be returned by using either HTTP Status-Codes, as specified in [RFC2616] section 10</t>
   </si>
   <si>
-    <t>[In Transport] Protocol server faults MUST be returned by using  SOAP faults, as specified in [SOAP1.1] section 4.4 or [SOAP1.2/1] section 5.4.</t>
-  </si>
-  <si>
     <t>[In Common Message Syntax] This section contains common definitions that are used by this protocol.</t>
   </si>
   <si>
@@ -1389,21 +1357,6 @@
   </si>
   <si>
     <t>[In SOAP Fault Message] errorcode: A hexadecimal representation of a 4-byte result code, which is an operation-specific error code that is defined in the messages subsection for operations that return SOAP faults.</t>
-  </si>
-  <si>
-    <t>[In SOAP Exception Message] This protocol enables a protocol server to notify a protocol client when a request is not well-formed and cannot be processed using a SOAP exception response.</t>
-  </si>
-  <si>
-    <t>[In SOAP Exception Message] The following schema specifies the structure of the detail element in the SOAP exception response that is used by this protocol:</t>
-  </si>
-  <si>
-    <t>[In SOAP Exception Message] errorstring: A description of the error.</t>
-  </si>
-  <si>
-    <t>[In SOAP Exception Message] faultcode: This MUST be the string "soap:Server".</t>
-  </si>
-  <si>
-    <t>[In SOAP Exception Message] faultstring: This MUST be the string "Exception of type 'Microsoft.SharePoint.SoapServer.SoapServerException' was thrown."</t>
   </si>
   <si>
     <t>[In Elements] This specification does not define any common XML schema element definitions.</t>
@@ -2358,17 +2311,6 @@
   &lt;/s:schema&gt;</t>
   </si>
   <si>
-    <t>[In SOAP Exception Message]The following schema specifies the structure of the detail element in the SOAP exception response that is used by this protocol: &lt;s:schema xmlns:s="http://www.w3.org/2001/XMLSchema" targetNamespace=" http://schemas.microsoft.com/sharepoint/soap/"&gt;
-     &lt;s:complexType name="SOAPExceptionDetails"&gt;
-        &lt;s:sequence&gt;
-           &lt;s:element name="errorstring" type="s:string"/&gt;
-           &lt;s:element name="faultcode" type="s:string" /&gt;
-           &lt;s:element name="faultstring" type="s:string" /&gt;
-        &lt;/s:sequence&gt;
-     &lt;/s:complexType&gt;
-  &lt;/s:schema&gt;</t>
-  </si>
-  <si>
     <t>[In CopyResult] [ErrorMessage] If the value of ErrorCode is "Success", the attribute MUST NOT be present.</t>
   </si>
   <si>
@@ -2477,9 +2419,6 @@
     <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
   </si>
   <si>
@@ -2493,21 +2432,49 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-COPYS_R12332.</t>
+  </si>
+  <si>
+    <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.2-1/2007] section 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Transport] Protocol server faults MUST be returned by using  SOAP faults, as specified in [SOAP1.1] section 4.4 or [SOAP1.2-1/2007] section 5.4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file whose permission setting allows writing by the protocol client, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-COPYS_R272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-COPYS_R271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-COPYS_R271001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file whose permission setting does not allow access by the protocol client, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "Unknown" for this destination location.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2540,6 +2507,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2694,7 +2667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2703,13 +2676,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2742,7 +2715,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2804,11 +2777,61 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3147,50 +3170,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3320,34 +3299,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I309" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I309"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I304" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
+  <autoFilter ref="A19:I304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3356,12 +3335,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3687,13 +3666,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:L306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
@@ -3708,9 +3687,9 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -3718,9 +3697,9 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3729,22 +3708,22 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="F3" s="12">
-        <v>42566</v>
+        <v>43634</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
@@ -3756,7 +3735,7 @@
       <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -3772,7 +3751,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3767,7 @@
       <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -3804,7 +3783,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3820,7 +3799,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="78.75" customHeight="1">
+    <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
@@ -3836,7 +3815,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1">
+    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
@@ -3852,7 +3831,7 @@
       <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -3868,7 +3847,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +3865,7 @@
       <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -3904,7 +3883,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -3922,7 +3901,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -3940,7 +3919,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -3956,7 +3935,7 @@
       <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1">
+    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3951,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
@@ -3989,7 +3968,7 @@
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4019,15 +3998,15 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1">
+    <row r="20" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4044,15 +4023,15 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4068,18 +4047,18 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="23" customFormat="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -4096,15 +4075,15 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1">
+    <row r="23" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>363</v>
+        <v>681</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4121,15 +4100,15 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -4146,15 +4125,15 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>365</v>
+        <v>682</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4171,15 +4150,15 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1">
+    <row r="26" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -4196,15 +4175,15 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -4221,15 +4200,15 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4246,15 +4225,15 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -4271,15 +4250,15 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1">
+    <row r="30" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4296,15 +4275,15 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1">
+    <row r="31" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -4321,15 +4300,15 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1">
+    <row r="32" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -4346,15 +4325,15 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1">
+    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -4371,15 +4350,15 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -4396,15 +4375,15 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -4421,15 +4400,15 @@
       </c>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -4446,15 +4425,15 @@
       </c>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -4471,15 +4450,15 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -4496,15 +4475,15 @@
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -4521,15 +4500,15 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="150">
+    <row r="40" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -4546,15 +4525,15 @@
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -4571,15 +4550,15 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="45">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -4596,15 +4575,15 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -4621,22 +4600,22 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>16</v>
@@ -4646,47 +4625,47 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="180">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>656</v>
+        <v>322</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>373</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>16</v>
@@ -4696,15 +4675,15 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4714,22 +4693,22 @@
         <v>6</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4739,22 +4718,22 @@
         <v>6</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4771,15 +4750,15 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -4796,22 +4775,22 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>16</v>
@@ -4821,15 +4800,15 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -4839,29 +4818,29 @@
         <v>7</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H52" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>16</v>
@@ -4871,47 +4850,47 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>16</v>
@@ -4921,142 +4900,146 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="90">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>397</v>
+        <v>323</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>640</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="D60" s="30"/>
+        <v>387</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>606</v>
+      </c>
       <c r="E60" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="D61" s="30"/>
+        <v>388</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>606</v>
+      </c>
       <c r="E61" s="30" t="s">
         <v>19</v>
       </c>
@@ -5064,22 +5047,22 @@
         <v>6</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="90">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -5092,21 +5075,23 @@
         <v>15</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D63" s="30"/>
+        <v>390</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>607</v>
+      </c>
       <c r="E63" s="30" t="s">
         <v>19</v>
       </c>
@@ -5117,21 +5102,23 @@
         <v>15</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="D64" s="30"/>
+        <v>391</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>607</v>
+      </c>
       <c r="E64" s="30" t="s">
         <v>19</v>
       </c>
@@ -5142,19 +5129,19 @@
         <v>15</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>657</v>
+        <v>323</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>392</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -5167,23 +5154,21 @@
         <v>15</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>622</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
         <v>19</v>
       </c>
@@ -5191,26 +5176,24 @@
         <v>6</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>622</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
         <v>19</v>
       </c>
@@ -5221,19 +5204,19 @@
         <v>15</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5246,23 +5229,21 @@
         <v>15</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>623</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
         <v>19</v>
       </c>
@@ -5273,71 +5254,69 @@
         <v>15</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="45">
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>623</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D70" s="30"/>
       <c r="E70" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -5347,54 +5326,54 @@
         <v>6</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" ht="105">
+    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>15</v>
@@ -5404,22 +5383,22 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>658</v>
+        <v>325</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>401</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>15</v>
@@ -5429,15 +5408,15 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -5447,22 +5426,22 @@
         <v>3</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5472,29 +5451,29 @@
         <v>3</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="120">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>15</v>
@@ -5504,15 +5483,15 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -5522,22 +5501,22 @@
         <v>3</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" ht="60">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -5554,15 +5533,15 @@
       </c>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -5572,22 +5551,22 @@
         <v>3</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="30">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5600,21 +5579,25 @@
         <v>15</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="32"/>
-    </row>
-    <row r="83" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D83" s="30"/>
+        <v>409</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>608</v>
+      </c>
       <c r="E83" s="30" t="s">
         <v>19</v>
       </c>
@@ -5625,19 +5608,19 @@
         <v>15</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5650,21 +5633,25 @@
         <v>15</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>108</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D85" s="30"/>
+        <v>411</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>609</v>
+      </c>
       <c r="E85" s="30" t="s">
         <v>19</v>
       </c>
@@ -5675,26 +5662,26 @@
         <v>15</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I85" s="32"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" s="30" t="s">
         <v>15</v>
@@ -5704,15 +5691,15 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -5722,22 +5709,22 @@
         <v>3</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -5747,28 +5734,24 @@
         <v>3</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="32" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>624</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
         <v>19</v>
       </c>
@@ -5776,53 +5759,49 @@
         <v>3</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>113</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="32" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>625</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
         <v>19</v>
       </c>
@@ -5830,122 +5809,122 @@
         <v>3</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="105">
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>115</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -5955,72 +5934,76 @@
         <v>6</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" ht="30">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>120</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="D97" s="30"/>
+        <v>423</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>610</v>
+      </c>
       <c r="E97" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="D98" s="30"/>
+        <v>424</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>610</v>
+      </c>
       <c r="E98" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>122</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6030,22 +6013,22 @@
         <v>6</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H99" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="180">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>123</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6058,19 +6041,19 @@
         <v>15</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>124</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6083,21 +6066,23 @@
         <v>15</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>125</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="D102" s="30"/>
+        <v>428</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>611</v>
+      </c>
       <c r="E102" s="30" t="s">
         <v>19</v>
       </c>
@@ -6112,18 +6097,18 @@
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>126</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>19</v>
@@ -6139,19 +6124,17 @@
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>127</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>626</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
         <v>19</v>
       </c>
@@ -6166,15 +6149,15 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>128</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6187,21 +6170,23 @@
         <v>15</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I105" s="32"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>129</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="D106" s="30"/>
+        <v>432</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>612</v>
+      </c>
       <c r="E106" s="30" t="s">
         <v>19</v>
       </c>
@@ -6216,17 +6201,19 @@
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" ht="45">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>130</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="D107" s="30"/>
+        <v>433</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>612</v>
+      </c>
       <c r="E107" s="30" t="s">
         <v>19</v>
       </c>
@@ -6241,19 +6228,17 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
-      <c r="A108" s="30" t="s">
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>627</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" s="30"/>
       <c r="E108" s="30" t="s">
         <v>19</v>
       </c>
@@ -6268,19 +6253,17 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>132</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>627</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
         <v>19</v>
       </c>
@@ -6295,17 +6278,19 @@
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>133</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D110" s="30"/>
+        <v>328</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>613</v>
+      </c>
       <c r="E110" s="30" t="s">
         <v>19</v>
       </c>
@@ -6320,17 +6305,19 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="45">
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>134</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="D111" s="30"/>
+        <v>437</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>613</v>
+      </c>
       <c r="E111" s="30" t="s">
         <v>19</v>
       </c>
@@ -6345,69 +6332,65 @@
       </c>
       <c r="I111" s="32"/>
     </row>
-    <row r="112" spans="1:9" ht="45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>628</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>628</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G113" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
-      <c r="A114" s="22" t="s">
+    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
         <v>137</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>450</v>
+        <v>642</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6417,56 +6400,58 @@
         <v>6</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>451</v>
+        <v>329</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>643</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G115" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" s="32"/>
-    </row>
-    <row r="116" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I115" s="32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>139</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="E116" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G116" s="30" t="s">
         <v>15</v>
@@ -6476,42 +6461,42 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
-      <c r="A117" s="30" t="s">
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
         <v>140</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>629</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G117" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117" s="32"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>454</v>
+        <v>17</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>645</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -6521,22 +6506,22 @@
         <v>3</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="32"/>
-    </row>
-    <row r="119" spans="1:9" ht="409.5">
-      <c r="A119" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>455</v>
+        <v>17</v>
+      </c>
+      <c r="I118" s="20"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>647</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -6549,44 +6534,44 @@
         <v>15</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" s="32"/>
-    </row>
-    <row r="120" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I119" s="20"/>
+    </row>
+    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>659</v>
+        <v>329</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>442</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" ht="60">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>660</v>
+        <v>330</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>443</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -6596,28 +6581,24 @@
         <v>3</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I121" s="32" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I121" s="32"/>
+    </row>
+    <row r="122" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>630</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
         <v>19</v>
       </c>
@@ -6628,19 +6609,19 @@
         <v>15</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I122" s="32"/>
     </row>
-    <row r="123" spans="1:9" ht="45">
-      <c r="A123" s="22" t="s">
-        <v>146</v>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>457</v>
+        <v>331</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>445</v>
       </c>
       <c r="D123" s="30"/>
       <c r="E123" s="30" t="s">
@@ -6650,24 +6631,22 @@
         <v>3</v>
       </c>
       <c r="G123" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I123" s="20" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>662</v>
+        <v>18</v>
+      </c>
+      <c r="I123" s="32"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -6677,22 +6656,22 @@
         <v>3</v>
       </c>
       <c r="G124" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I124" s="20"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>664</v>
+        <v>18</v>
+      </c>
+      <c r="I124" s="32"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>447</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -6702,54 +6681,54 @@
         <v>3</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I125" s="20"/>
-    </row>
-    <row r="126" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I125" s="32"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>147</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G127" s="30" t="s">
         <v>16</v>
@@ -6759,40 +6738,40 @@
       </c>
       <c r="I127" s="32"/>
     </row>
-    <row r="128" spans="1:9" ht="75">
+    <row r="128" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>150</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -6809,15 +6788,15 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>151</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -6834,15 +6813,15 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -6859,22 +6838,22 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>153</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G132" s="30" t="s">
         <v>16</v>
@@ -6884,22 +6863,22 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>154</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G133" s="30" t="s">
         <v>16</v>
@@ -6909,22 +6888,22 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G134" s="30" t="s">
         <v>16</v>
@@ -6934,22 +6913,22 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G135" s="30" t="s">
         <v>16</v>
@@ -6959,22 +6938,22 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G136" s="30" t="s">
         <v>16</v>
@@ -6984,40 +6963,40 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H137" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7027,22 +7006,22 @@
         <v>6</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7052,22 +7031,24 @@
         <v>6</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139" s="32"/>
-    </row>
-    <row r="140" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I139" s="32" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>161</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7084,47 +7065,47 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>162</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G142" s="30" t="s">
         <v>16</v>
@@ -7134,15 +7115,15 @@
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7155,21 +7136,23 @@
         <v>15</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="D144" s="30"/>
+        <v>466</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>615</v>
+      </c>
       <c r="E144" s="30" t="s">
         <v>19</v>
       </c>
@@ -7180,21 +7163,23 @@
         <v>15</v>
       </c>
       <c r="H144" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="D145" s="30"/>
+        <v>467</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>615</v>
+      </c>
       <c r="E145" s="30" t="s">
         <v>19</v>
       </c>
@@ -7205,21 +7190,19 @@
         <v>15</v>
       </c>
       <c r="H145" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I145" s="32" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="I145" s="32"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7236,67 +7219,71 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G147" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H147" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="D148" s="30"/>
+        <v>470</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>616</v>
+      </c>
       <c r="E148" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D149" s="30"/>
+        <v>471</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>616</v>
+      </c>
       <c r="E149" s="30" t="s">
         <v>19</v>
       </c>
@@ -7311,19 +7298,17 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
         <v>171</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>631</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
         <v>19</v>
       </c>
@@ -7338,18 +7323,18 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="E151" s="30" t="s">
         <v>19</v>
@@ -7365,17 +7350,19 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="D152" s="30"/>
+        <v>474</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>617</v>
+      </c>
       <c r="E152" s="30" t="s">
         <v>19</v>
       </c>
@@ -7383,22 +7370,22 @@
         <v>6</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7408,58 +7395,54 @@
         <v>6</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H153" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
         <v>175</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>632</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F154" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G154" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H154" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="45">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
         <v>176</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>632</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D155" s="30"/>
       <c r="E155" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F155" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G155" s="30" t="s">
         <v>15</v>
@@ -7469,22 +7452,22 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
         <v>177</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F156" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G156" s="30" t="s">
         <v>15</v>
@@ -7494,24 +7477,22 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
         <v>178</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>633</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F157" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G157" s="30" t="s">
         <v>15</v>
@@ -7521,24 +7502,22 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="30">
+    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
         <v>179</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>633</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F158" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G158" s="30" t="s">
         <v>15</v>
@@ -7548,132 +7527,132 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F159" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
         <v>181</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F160" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H160" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I160" s="32"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F161" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G161" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
         <v>183</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F162" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F163" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H163" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
         <v>185</v>
       </c>
@@ -7681,64 +7660,66 @@
         <v>32</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F164" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G164" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H164" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="60">
-      <c r="A165" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B165" s="31" t="s">
+    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B165" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="32" t="s">
-        <v>497</v>
+      <c r="C165" s="20" t="s">
+        <v>655</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G165" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H165" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I165" s="32"/>
-    </row>
-    <row r="166" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I165" s="20" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C166" s="32" t="s">
-        <v>498</v>
+      <c r="C166" s="20" t="s">
+        <v>487</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G166" s="30" t="s">
         <v>15</v>
@@ -7748,65 +7729,65 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C167" s="32" t="s">
-        <v>499</v>
+      <c r="C167" s="20" t="s">
+        <v>660</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G167" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H167" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B168" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B169" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="30" t="s">
@@ -7816,29 +7797,29 @@
         <v>6</v>
       </c>
       <c r="G169" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H169" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D170" s="30"/>
       <c r="E170" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G170" s="30" t="s">
         <v>16</v>
@@ -7848,49 +7829,47 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
-      <c r="A171" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>672</v>
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>491</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F171" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G171" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I171" s="32"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>503</v>
+        <v>337</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>492</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F172" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G172" s="30" t="s">
         <v>15</v>
@@ -7900,90 +7879,90 @@
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9" ht="45">
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
         <v>193</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>677</v>
+        <v>338</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>493</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H173" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="60">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G174" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H174" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="45">
+    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="30" t="s">
         <v>195</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G175" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -7993,22 +7972,22 @@
         <v>7</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H176" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8018,22 +7997,22 @@
         <v>7</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H177" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
@@ -8050,40 +8029,40 @@
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H179" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="30" t="s">
         <v>200</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -8093,79 +8072,79 @@
         <v>6</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="30" t="s">
         <v>201</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G181" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="105">
+    <row r="182" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A182" s="30" t="s">
         <v>202</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G182" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F183" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G183" s="30" t="s">
         <v>16</v>
@@ -8175,15 +8154,15 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="30" t="s">
         <v>204</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8200,40 +8179,40 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
         <v>205</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F185" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G185" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="30" t="s">
         <v>206</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8250,15 +8229,15 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="30" t="s">
         <v>207</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30" t="s">
@@ -8271,19 +8250,19 @@
         <v>15</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="195">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="30" t="s">
         <v>208</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30" t="s">
@@ -8293,22 +8272,22 @@
         <v>6</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8325,40 +8304,40 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="30" t="s">
         <v>210</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G190" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="30" t="s">
         <v>211</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
@@ -8371,69 +8350,69 @@
         <v>15</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="30">
+    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="30" t="s">
         <v>212</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="30" t="s">
         <v>214</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8443,29 +8422,29 @@
         <v>6</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G195" s="30" t="s">
         <v>16</v>
@@ -8475,7 +8454,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="30" t="s">
         <v>216</v>
       </c>
@@ -8483,7 +8462,7 @@
         <v>33</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
@@ -8493,14 +8472,14 @@
         <v>3</v>
       </c>
       <c r="G196" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -8508,7 +8487,7 @@
         <v>33</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -8525,7 +8504,7 @@
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="75">
+    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="30" t="s">
         <v>218</v>
       </c>
@@ -8533,24 +8512,24 @@
         <v>33</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F198" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G198" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H198" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="30" t="s">
         <v>219</v>
       </c>
@@ -8558,24 +8537,24 @@
         <v>33</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G199" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -8583,24 +8562,24 @@
         <v>33</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G200" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H200" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -8608,7 +8587,7 @@
         <v>33</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -8618,14 +8597,14 @@
         <v>7</v>
       </c>
       <c r="G201" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H201" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="30" t="s">
         <v>222</v>
       </c>
@@ -8633,14 +8612,14 @@
         <v>33</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G202" s="30" t="s">
         <v>16</v>
@@ -8650,7 +8629,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="30" t="s">
         <v>223</v>
       </c>
@@ -8658,24 +8637,24 @@
         <v>33</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G203" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I203" s="32"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="30" t="s">
         <v>224</v>
       </c>
@@ -8683,24 +8662,24 @@
         <v>33</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G204" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="30" t="s">
         <v>225</v>
       </c>
@@ -8708,14 +8687,14 @@
         <v>33</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G205" s="30" t="s">
         <v>15</v>
@@ -8725,7 +8704,7 @@
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="60">
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="30" t="s">
         <v>226</v>
       </c>
@@ -8733,32 +8712,32 @@
         <v>33</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F206" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G206" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H206" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" ht="75">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
         <v>227</v>
       </c>
       <c r="B207" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C207" s="32" t="s">
-        <v>537</v>
+      <c r="C207" s="20" t="s">
+        <v>661</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -8775,7 +8754,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -8783,24 +8762,24 @@
         <v>33</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G208" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="30" t="s">
         <v>229</v>
       </c>
@@ -8808,24 +8787,24 @@
         <v>33</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F209" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G209" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H209" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="30" t="s">
         <v>230</v>
       </c>
@@ -8833,24 +8812,24 @@
         <v>33</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G210" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H210" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="45">
+    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="30" t="s">
         <v>231</v>
       </c>
@@ -8858,24 +8837,24 @@
         <v>33</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G211" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I211" s="32"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
         <v>232</v>
       </c>
@@ -8883,7 +8862,7 @@
         <v>33</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -8900,32 +8879,32 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="30" t="s">
+    <row r="213" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="22" t="s">
         <v>233</v>
       </c>
       <c r="B213" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G213" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H213" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="30" t="s">
         <v>234</v>
       </c>
@@ -8933,7 +8912,7 @@
         <v>33</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -8946,11 +8925,11 @@
         <v>15</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="60">
+    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="30" t="s">
         <v>235</v>
       </c>
@@ -8958,7 +8937,7 @@
         <v>33</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
@@ -8971,11 +8950,11 @@
         <v>15</v>
       </c>
       <c r="H215" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" ht="60">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="30" t="s">
         <v>236</v>
       </c>
@@ -8983,32 +8962,32 @@
         <v>33</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F216" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G216" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H216" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
-      <c r="A217" s="30" t="s">
+    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="22" t="s">
         <v>237</v>
       </c>
       <c r="B217" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C217" s="32" t="s">
-        <v>546</v>
+      <c r="C217" s="20" t="s">
+        <v>662</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9023,9 +9002,11 @@
       <c r="H217" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I217" s="32"/>
-    </row>
-    <row r="218" spans="1:9" ht="30">
+      <c r="I217" s="32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="30" t="s">
         <v>238</v>
       </c>
@@ -9033,132 +9014,132 @@
         <v>33</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G218" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H218" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="60">
-      <c r="A219" s="22" t="s">
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="30" t="s">
         <v>239</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>691</v>
+        <v>341</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>536</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G219" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9" ht="60">
+    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="30" t="s">
         <v>240</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G220" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" ht="45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="30" t="s">
         <v>241</v>
       </c>
       <c r="B221" s="31" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F221" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G221" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="30" t="s">
         <v>242</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F222" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G222" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
-      <c r="A223" s="22" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="30" t="s">
         <v>243</v>
       </c>
       <c r="B223" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>679</v>
+        <v>342</v>
+      </c>
+      <c r="C223" s="32" t="s">
+        <v>540</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -9171,46 +9152,44 @@
         <v>15</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I223" s="32" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="I223" s="32"/>
+    </row>
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B224" s="31" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G224" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H224" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A225" s="30" t="s">
         <v>245</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -9220,22 +9199,22 @@
         <v>7</v>
       </c>
       <c r="G225" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H225" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="30" t="s">
         <v>246</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -9245,22 +9224,22 @@
         <v>7</v>
       </c>
       <c r="G226" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H226" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="30" t="s">
         <v>247</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9270,72 +9249,72 @@
         <v>7</v>
       </c>
       <c r="G227" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H227" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="30" t="s">
         <v>248</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F228" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G228" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G229" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
         <v>250</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9345,72 +9324,72 @@
         <v>7</v>
       </c>
       <c r="G230" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H230" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="180">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="30" t="s">
         <v>251</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F231" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G231" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F232" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G232" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H232" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9427,15 +9406,15 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" ht="30">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
         <v>254</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9452,115 +9431,115 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="30" t="s">
         <v>255</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F235" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G235" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H235" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
         <v>256</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F236" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G236" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H236" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A237" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F237" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G237" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H237" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="30" t="s">
         <v>258</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D238" s="30"/>
       <c r="E238" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G238" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H238" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="30" t="s">
         <v>259</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="30" t="s">
@@ -9570,47 +9549,47 @@
         <v>7</v>
       </c>
       <c r="G239" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H239" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
         <v>260</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G240" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H240" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" ht="30">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
         <v>261</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -9627,22 +9606,22 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
         <v>262</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G242" s="30" t="s">
         <v>15</v>
@@ -9652,47 +9631,47 @@
       </c>
       <c r="I242" s="32"/>
     </row>
-    <row r="243" spans="1:9" ht="135">
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="30" t="s">
         <v>263</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G243" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H243" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="30" t="s">
         <v>264</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G244" s="30" t="s">
         <v>16</v>
@@ -9702,40 +9681,40 @@
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F245" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G245" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H245" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I245" s="32"/>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="30" t="s">
         <v>266</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="30" t="s">
@@ -9745,129 +9724,129 @@
         <v>3</v>
       </c>
       <c r="G246" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H246" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I246" s="32"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="30" t="s">
         <v>267</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G247" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="30">
+    <row r="248" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A248" s="30" t="s">
         <v>268</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D248" s="30"/>
       <c r="E248" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G248" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I248" s="32"/>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="30" t="s">
         <v>269</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D249" s="30"/>
       <c r="E249" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F249" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G249" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H249" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I249" s="32"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
         <v>270</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G250" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H250" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="30" t="s">
         <v>271</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F251" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G251" s="30" t="s">
         <v>16</v>
@@ -9877,40 +9856,40 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="30" t="s">
+    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A252" s="22" t="s">
         <v>272</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C252" s="32" t="s">
-        <v>579</v>
+        <v>345</v>
+      </c>
+      <c r="C252" s="20" t="s">
+        <v>663</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F252" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G252" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H252" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I252" s="32"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
-      <c r="A253" s="30" t="s">
-        <v>273</v>
+    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A253" s="22" t="s">
+        <v>685</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C253" s="32" t="s">
-        <v>580</v>
+        <v>345</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>675</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9927,47 +9906,47 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="75">
-      <c r="A254" s="30" t="s">
-        <v>274</v>
+    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A254" s="22" t="s">
+        <v>686</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C254" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="D254" s="30"/>
-      <c r="E254" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F254" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C254" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="D254" s="47"/>
+      <c r="E254" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G254" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H254" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I254" s="32"/>
-    </row>
-    <row r="255" spans="1:9" ht="30">
-      <c r="A255" s="30" t="s">
-        <v>275</v>
+      <c r="G254" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I254" s="48"/>
+    </row>
+    <row r="255" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A255" s="22" t="s">
+        <v>684</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C255" s="32" t="s">
-        <v>582</v>
+        <v>345</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>683</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F255" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G255" s="30" t="s">
         <v>15</v>
@@ -9977,47 +9956,47 @@
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="45">
+    <row r="256" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C256" s="32" t="s">
-        <v>583</v>
+        <v>345</v>
+      </c>
+      <c r="C256" s="20" t="s">
+        <v>676</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G256" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G257" s="30" t="s">
         <v>16</v>
@@ -10027,15 +10006,15 @@
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="60">
-      <c r="A258" s="22" t="s">
-        <v>278</v>
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="30" t="s">
+        <v>275</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>680</v>
+        <v>345</v>
+      </c>
+      <c r="C258" s="32" t="s">
+        <v>570</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
@@ -10048,26 +10027,26 @@
         <v>15</v>
       </c>
       <c r="H258" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9" ht="60">
-      <c r="A259" s="22" t="s">
-        <v>279</v>
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>692</v>
+        <v>345</v>
+      </c>
+      <c r="C259" s="32" t="s">
+        <v>571</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F259" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G259" s="30" t="s">
         <v>15</v>
@@ -10077,47 +10056,49 @@
       </c>
       <c r="I259" s="32"/>
     </row>
-    <row r="260" spans="1:9" ht="60">
+    <row r="260" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F260" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G260" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H260" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I260" s="32"/>
-    </row>
-    <row r="261" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I260" s="20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>694</v>
+        <v>345</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>572</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G261" s="30" t="s">
         <v>15</v>
@@ -10127,42 +10108,46 @@
       </c>
       <c r="I261" s="32"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
-      <c r="A262" s="30" t="s">
-        <v>282</v>
+    <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A262" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C262" s="32" t="s">
-        <v>585</v>
+        <v>345</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>669</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G262" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I262" s="32"/>
-    </row>
-    <row r="263" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I262" s="20" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="D263" s="30"/>
+        <v>573</v>
+      </c>
+      <c r="D263" s="30" t="s">
+        <v>618</v>
+      </c>
       <c r="E263" s="30" t="s">
         <v>19</v>
       </c>
@@ -10173,21 +10158,23 @@
         <v>15</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I263" s="32"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="D264" s="30"/>
+        <v>574</v>
+      </c>
+      <c r="D264" s="30" t="s">
+        <v>619</v>
+      </c>
       <c r="E264" s="30" t="s">
         <v>19</v>
       </c>
@@ -10202,17 +10189,19 @@
       </c>
       <c r="I264" s="32"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
-      <c r="A265" s="22" t="s">
-        <v>285</v>
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="30" t="s">
+        <v>282</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>681</v>
-      </c>
-      <c r="D265" s="30"/>
+        <v>345</v>
+      </c>
+      <c r="C265" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="D265" s="30" t="s">
+        <v>620</v>
+      </c>
       <c r="E265" s="30" t="s">
         <v>19</v>
       </c>
@@ -10223,23 +10212,23 @@
         <v>15</v>
       </c>
       <c r="H265" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I265" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I265" s="32"/>
+    </row>
+    <row r="266" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="D266" s="30"/>
+        <v>576</v>
+      </c>
+      <c r="D266" s="30" t="s">
+        <v>621</v>
+      </c>
       <c r="E266" s="30" t="s">
         <v>19</v>
       </c>
@@ -10254,45 +10243,45 @@
       </c>
       <c r="I266" s="32"/>
     </row>
-    <row r="267" spans="1:9" ht="90">
-      <c r="A267" s="22" t="s">
-        <v>287</v>
+    <row r="267" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="30" t="s">
+        <v>284</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>686</v>
-      </c>
-      <c r="D267" s="30"/>
+        <v>345</v>
+      </c>
+      <c r="C267" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="D267" s="30" t="s">
+        <v>622</v>
+      </c>
       <c r="E267" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G267" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H267" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I267" s="20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="30">
+        <v>20</v>
+      </c>
+      <c r="I267" s="32"/>
+    </row>
+    <row r="268" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="E268" s="30" t="s">
         <v>19</v>
@@ -10308,150 +10297,140 @@
       </c>
       <c r="I268" s="32"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B269" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C269" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D269" s="30"/>
+      <c r="E269" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G269" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H269" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I269" s="32"/>
+    </row>
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B270" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C270" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="D270" s="30"/>
+      <c r="E270" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G270" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H270" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I270" s="32"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B271" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C271" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="D271" s="30"/>
+      <c r="E271" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G271" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H271" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I271" s="32"/>
+    </row>
+    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B269" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C269" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="D269" s="30" t="s">
-        <v>635</v>
-      </c>
-      <c r="E269" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F269" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G269" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H269" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I269" s="32"/>
-    </row>
-    <row r="270" spans="1:9" ht="30">
-      <c r="A270" s="30" t="s">
+      <c r="B272" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C272" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D272" s="30"/>
+      <c r="E272" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F272" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G272" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H272" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I272" s="32"/>
+    </row>
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B270" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C270" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="D270" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="E270" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F270" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G270" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H270" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I270" s="32"/>
-    </row>
-    <row r="271" spans="1:9" ht="60">
-      <c r="A271" s="30" t="s">
+      <c r="B273" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C273" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D273" s="30"/>
+      <c r="E273" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F273" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H273" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I273" s="32"/>
+    </row>
+    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C271" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="D271" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="E271" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G271" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H271" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I271" s="32"/>
-    </row>
-    <row r="272" spans="1:9" ht="60">
-      <c r="A272" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B272" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C272" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="D272" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="E272" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F272" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G272" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H272" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I272" s="32"/>
-    </row>
-    <row r="273" spans="1:9" ht="60">
-      <c r="A273" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="C273" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="D273" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="E273" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F273" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G273" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H273" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I273" s="32"/>
-    </row>
-    <row r="274" spans="1:9" ht="30">
-      <c r="A274" s="30" t="s">
-        <v>294</v>
-      </c>
       <c r="B274" s="31" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="30" t="s">
@@ -10461,22 +10440,22 @@
         <v>7</v>
       </c>
       <c r="G274" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H274" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A275" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D275" s="30"/>
       <c r="E275" s="30" t="s">
@@ -10493,15 +10472,15 @@
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
@@ -10511,72 +10490,72 @@
         <v>7</v>
       </c>
       <c r="G276" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H276" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F277" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G277" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H277" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I277" s="32"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F278" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G278" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H278" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I278" s="32"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
@@ -10593,47 +10572,47 @@
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="150">
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G280" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H280" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F281" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G281" s="30" t="s">
         <v>16</v>
@@ -10643,65 +10622,65 @@
       </c>
       <c r="I281" s="32"/>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A282" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F282" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G282" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H282" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I282" s="32"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F283" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G283" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H283" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I283" s="32"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
@@ -10718,22 +10697,22 @@
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G285" s="30" t="s">
         <v>15</v>
@@ -10743,22 +10722,22 @@
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F286" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G286" s="30" t="s">
         <v>16</v>
@@ -10768,15 +10747,15 @@
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" ht="135">
+    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
@@ -10789,26 +10768,28 @@
         <v>15</v>
       </c>
       <c r="H287" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="D288" s="30"/>
+        <v>598</v>
+      </c>
+      <c r="D288" s="30" t="s">
+        <v>624</v>
+      </c>
       <c r="E288" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F288" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G288" s="30" t="s">
         <v>15</v>
@@ -10816,96 +10797,112 @@
       <c r="H288" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I288" s="32"/>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="30" t="s">
+      <c r="I288" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B289" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C289" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D289" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="E289" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F289" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G289" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H289" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I289" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A290" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B290" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="E290" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F290" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G290" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H290" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I290" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A291" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B291" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D291" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="E291" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F291" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H291" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A292" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="B289" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C289" s="32" t="s">
-        <v>610</v>
-      </c>
-      <c r="D289" s="30"/>
-      <c r="E289" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F289" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G289" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H289" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I289" s="32"/>
-    </row>
-    <row r="290" spans="1:9" ht="30">
-      <c r="A290" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B290" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C290" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="D290" s="30"/>
-      <c r="E290" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F290" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G290" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H290" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I290" s="32"/>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="B291" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C291" s="32" t="s">
-        <v>612</v>
-      </c>
-      <c r="D291" s="30"/>
-      <c r="E291" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F291" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G291" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H291" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I291" s="32"/>
-    </row>
-    <row r="292" spans="1:9" ht="30">
-      <c r="A292" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="B292" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C292" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="D292" s="30"/>
+        <v>350</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D292" s="30" t="s">
+        <v>625</v>
+      </c>
       <c r="E292" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F292" s="30" t="s">
         <v>6</v>
@@ -10916,20 +10913,22 @@
       <c r="H292" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I292" s="32"/>
-    </row>
-    <row r="293" spans="1:9" ht="45">
+      <c r="I292" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="D293" s="30" t="s">
-        <v>640</v>
+        <v>601</v>
+      </c>
+      <c r="D293" s="22" t="s">
+        <v>626</v>
       </c>
       <c r="E293" s="30" t="s">
         <v>22</v>
@@ -10941,30 +10940,30 @@
         <v>15</v>
       </c>
       <c r="H293" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I293" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="33" customFormat="1" ht="45">
-      <c r="A294" s="22" t="s">
-        <v>314</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A294" s="30" t="s">
+        <v>311</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C294" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="D294" s="22" t="s">
-        <v>697</v>
+        <v>350</v>
+      </c>
+      <c r="C294" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D294" s="30" t="s">
+        <v>626</v>
       </c>
       <c r="E294" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F294" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G294" s="30" t="s">
         <v>15</v>
@@ -10973,27 +10972,27 @@
         <v>20</v>
       </c>
       <c r="I294" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="33" customFormat="1" ht="45">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D295" s="22" t="s">
-        <v>697</v>
+        <v>603</v>
+      </c>
+      <c r="D295" s="30" t="s">
+        <v>626</v>
       </c>
       <c r="E295" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F295" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G295" s="30" t="s">
         <v>15</v>
@@ -11002,85 +11001,81 @@
         <v>20</v>
       </c>
       <c r="I295" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="B296" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C296" s="20" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" ht="45">
-      <c r="A296" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="B296" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C296" s="20" t="s">
-        <v>687</v>
-      </c>
       <c r="D296" s="22" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="E296" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F296" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G296" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H296" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I296" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="45">
-      <c r="A297" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>359</v>
+        <v>18</v>
+      </c>
+      <c r="I296" s="32"/>
+    </row>
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="D297" s="30" t="s">
-        <v>641</v>
+        <v>652</v>
+      </c>
+      <c r="D297" s="22" t="s">
+        <v>650</v>
       </c>
       <c r="E297" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F297" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G297" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H297" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I297" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I297" s="32"/>
+    </row>
+    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C298" s="32" t="s">
-        <v>617</v>
+        <v>350</v>
+      </c>
+      <c r="C298" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="D298" s="22" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="E298" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F298" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G298" s="30" t="s">
         <v>15</v>
@@ -11089,27 +11084,27 @@
         <v>20</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="45">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="30" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="D299" s="30" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="E299" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F299" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G299" s="30" t="s">
         <v>15</v>
@@ -11118,292 +11113,151 @@
         <v>20</v>
       </c>
       <c r="I299" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="45">
-      <c r="A300" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="B300" s="31" t="s">
-        <v>359</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A300" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="B300" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="D300" s="30" t="s">
-        <v>642</v>
+        <v>659</v>
+      </c>
+      <c r="D300" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="E300" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F300" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G300" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H300" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I300" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I300" s="32"/>
+    </row>
+    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B301" s="24" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="D301" s="22" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E301" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F301" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G301" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H301" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I301" s="32"/>
-    </row>
-    <row r="302" spans="1:9" ht="30">
+        <v>20</v>
+      </c>
+      <c r="I301" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="22" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B302" s="24" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D302" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E302" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F302" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G302" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H302" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I302" s="32"/>
-    </row>
-    <row r="303" spans="1:9" ht="45">
-      <c r="A303" s="30" t="s">
-        <v>321</v>
+        <v>20</v>
+      </c>
+      <c r="I302" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A303" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B303" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C303" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="D303" s="22" t="s">
-        <v>643</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="D303" s="30"/>
       <c r="E303" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F303" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G303" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H303" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I303" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I303" s="32"/>
+    </row>
+    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="30" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B304" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C304" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="D304" s="30" t="s">
-        <v>643</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C304" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D304" s="30"/>
       <c r="E304" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F304" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G304" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H304" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I304" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="45">
-      <c r="A305" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C305" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="D305" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="E305" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G305" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H305" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I305" s="32"/>
-    </row>
-    <row r="306" spans="1:9" ht="45">
-      <c r="A306" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="B306" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C306" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="D306" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="E306" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F306" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G306" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H306" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I306" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="45">
-      <c r="A307" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="B307" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C307" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="D307" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="E307" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G307" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H307" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I307" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="45">
-      <c r="A308" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B308" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C308" s="32" t="s">
-        <v>620</v>
-      </c>
-      <c r="D308" s="30"/>
-      <c r="E308" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F308" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G308" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H308" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I308" s="32"/>
-    </row>
-    <row r="309" spans="1:9" ht="30">
-      <c r="A309" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B309" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C309" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="D309" s="30"/>
-      <c r="E309" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F309" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G309" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H309" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I309" s="32"/>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="3"/>
-      <c r="B310" s="10"/>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="3"/>
-      <c r="B311" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="I304" s="32"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="3"/>
+      <c r="B305" s="10"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+      <c r="B306" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11421,51 +11275,51 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I309">
-    <cfRule type="expression" dxfId="26" priority="53">
+  <conditionalFormatting sqref="A20:I304">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54">
+    <cfRule type="expression" dxfId="6" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="61">
+    <cfRule type="expression" dxfId="5" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I309">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="A20:I304">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F309">
-    <cfRule type="expression" dxfId="20" priority="13">
+  <conditionalFormatting sqref="F20:F304">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F304" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E304" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G309">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G304" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H309">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H304" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11475,7 +11329,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B307:B311 B19:B114 B171:B173 B126:B170 B302:B304 B180:B228 B229:B261 B262:B293 C3 B305:B306 B174:B179 B294:B301 B115:B125" numberStoredAsText="1"/>
+    <ignoredError sqref="B255:B306 B19:B253" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2279EE-E836-4FB3-8DD5-73E29548F8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2082920-71AE-40D6-A5D1-B2A3129758B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-2085" windowWidth="24240" windowHeight="13290" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$305</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="691">
   <si>
     <t>Req ID</t>
   </si>
@@ -2416,9 +2416,6 @@
     <t>[In CopyIntoItems] If the file cannot be created at the given destination location, the protocol server MUST report a failure for this destination location by setting the ErrorCode attribute of the corresponding CopyResult element to "Unknown" and provide a string value that describes the error in the ErrorMessage attribute.</t>
   </si>
   <si>
-    <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location points to an existing file, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "SourceInvalid" for this destination location. </t>
   </si>
   <si>
@@ -2459,6 +2456,22 @@
   </si>
   <si>
     <t>[In CopyIntoItemsLocal] If the source location points to a file whose permission setting does not allow access by the protocol client, then if the destination location points to an existing file whose permission setting does not allow access by the protocol client, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "Unknown" for this destination location.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-COPYS_R271002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location does not point to a existing folder or file, the protocol server MUST report a failure by returning the CopyResult element (section 2.2.4.2) with the ErrorCode attribute set to "Unknown" for this destination location.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location points to an existing file whose permission setting does not allow access by the protocol client, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "Unknown" for this destination location.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2520,6 +2533,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2738,6 +2752,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2777,61 +2797,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3170,6 +3140,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3299,34 +3313,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I304" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
-  <autoFilter ref="A19:I304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I305" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I305" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3.1.4.3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3335,12 +3355,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3668,13 +3688,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L306"/>
+  <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
@@ -3724,127 +3744,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3857,12 +3877,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,12 +3895,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3893,12 +3913,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,60 +3931,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -3998,7 +4018,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -4023,7 +4043,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4070,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
@@ -4075,7 +4095,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -4083,7 +4103,7 @@
         <v>317</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4100,7 +4120,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -4125,7 +4145,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -4133,7 +4153,7 @@
         <v>317</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4150,7 +4170,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -4175,7 +4195,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -4200,7 +4220,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -4225,7 +4245,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
@@ -4250,7 +4270,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
@@ -4275,7 +4295,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -4300,7 +4320,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -4325,7 +4345,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
@@ -4350,7 +4370,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>57</v>
       </c>
@@ -4375,7 +4395,7 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
@@ -4400,7 +4420,7 @@
       </c>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
@@ -4425,7 +4445,7 @@
       </c>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
@@ -4450,7 +4470,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>61</v>
       </c>
@@ -4475,7 +4495,7 @@
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>62</v>
       </c>
@@ -4500,7 +4520,7 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>63</v>
       </c>
@@ -4525,7 +4545,7 @@
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>64</v>
       </c>
@@ -4550,7 +4570,7 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>65</v>
       </c>
@@ -4575,7 +4595,7 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>66</v>
       </c>
@@ -4600,7 +4620,7 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
@@ -4625,7 +4645,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
@@ -4650,7 +4670,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
@@ -4675,7 +4695,7 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
@@ -4700,7 +4720,7 @@
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -4725,7 +4745,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
@@ -4750,7 +4770,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
@@ -4775,7 +4795,7 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
@@ -4800,7 +4820,7 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>75</v>
       </c>
@@ -4825,7 +4845,7 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
@@ -4850,7 +4870,7 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
@@ -4875,7 +4895,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -4900,7 +4920,7 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>79</v>
       </c>
@@ -4925,7 +4945,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>80</v>
       </c>
@@ -4950,7 +4970,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>81</v>
       </c>
@@ -4975,7 +4995,7 @@
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
@@ -5000,7 +5020,7 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>83</v>
       </c>
@@ -5027,7 +5047,7 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>84</v>
       </c>
@@ -5054,7 +5074,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>85</v>
       </c>
@@ -5079,7 +5099,7 @@
       </c>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>86</v>
       </c>
@@ -5106,7 +5126,7 @@
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>87</v>
       </c>
@@ -5133,7 +5153,7 @@
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>88</v>
       </c>
@@ -5158,7 +5178,7 @@
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>89</v>
       </c>
@@ -5183,7 +5203,7 @@
       </c>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>90</v>
       </c>
@@ -5208,7 +5228,7 @@
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>91</v>
       </c>
@@ -5233,7 +5253,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
@@ -5258,7 +5278,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>93</v>
       </c>
@@ -5283,7 +5303,7 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>94</v>
       </c>
@@ -5308,7 +5328,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
@@ -5333,7 +5353,7 @@
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>96</v>
       </c>
@@ -5358,7 +5378,7 @@
       </c>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>97</v>
       </c>
@@ -5383,7 +5403,7 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>98</v>
       </c>
@@ -5408,7 +5428,7 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>99</v>
       </c>
@@ -5433,7 +5453,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>100</v>
       </c>
@@ -5458,7 +5478,7 @@
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>101</v>
       </c>
@@ -5483,7 +5503,7 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>102</v>
       </c>
@@ -5508,7 +5528,7 @@
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>103</v>
       </c>
@@ -5533,7 +5553,7 @@
       </c>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>104</v>
       </c>
@@ -5558,7 +5578,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>105</v>
       </c>
@@ -5585,7 +5605,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>106</v>
       </c>
@@ -5612,7 +5632,7 @@
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>107</v>
       </c>
@@ -5639,7 +5659,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>108</v>
       </c>
@@ -5666,7 +5686,7 @@
       </c>
       <c r="I85" s="32"/>
     </row>
-    <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>109</v>
       </c>
@@ -5691,7 +5711,7 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>110</v>
       </c>
@@ -5716,7 +5736,7 @@
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>111</v>
       </c>
@@ -5741,7 +5761,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>112</v>
       </c>
@@ -5766,7 +5786,7 @@
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>113</v>
       </c>
@@ -5791,7 +5811,7 @@
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>114</v>
       </c>
@@ -5816,7 +5836,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>115</v>
       </c>
@@ -5841,7 +5861,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
@@ -5866,7 +5886,7 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>117</v>
       </c>
@@ -5891,7 +5911,7 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>118</v>
       </c>
@@ -5916,7 +5936,7 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>119</v>
       </c>
@@ -5941,7 +5961,7 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>120</v>
       </c>
@@ -5968,7 +5988,7 @@
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>121</v>
       </c>
@@ -5995,7 +6015,7 @@
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>122</v>
       </c>
@@ -6020,7 +6040,7 @@
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>123</v>
       </c>
@@ -6045,7 +6065,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>124</v>
       </c>
@@ -6070,7 +6090,7 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>125</v>
       </c>
@@ -6097,7 +6117,7 @@
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>126</v>
       </c>
@@ -6124,7 +6144,7 @@
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>127</v>
       </c>
@@ -6149,7 +6169,7 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>128</v>
       </c>
@@ -6174,7 +6194,7 @@
       </c>
       <c r="I105" s="32"/>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>129</v>
       </c>
@@ -6201,7 +6221,7 @@
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>130</v>
       </c>
@@ -6228,7 +6248,7 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>131</v>
       </c>
@@ -6253,7 +6273,7 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>132</v>
       </c>
@@ -6278,7 +6298,7 @@
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>133</v>
       </c>
@@ -6305,7 +6325,7 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>134</v>
       </c>
@@ -6332,7 +6352,7 @@
       </c>
       <c r="I111" s="32"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>135</v>
       </c>
@@ -6357,7 +6377,7 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>136</v>
       </c>
@@ -6382,7 +6402,7 @@
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>137</v>
       </c>
@@ -6407,7 +6427,7 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
@@ -6434,7 +6454,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>139</v>
       </c>
@@ -6461,7 +6481,7 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>140</v>
       </c>
@@ -6488,7 +6508,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>644</v>
       </c>
@@ -6513,7 +6533,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>646</v>
       </c>
@@ -6538,7 +6558,7 @@
       </c>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>141</v>
       </c>
@@ -6563,7 +6583,7 @@
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
         <v>142</v>
       </c>
@@ -6588,7 +6608,7 @@
       </c>
       <c r="I121" s="32"/>
     </row>
-    <row r="122" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>143</v>
       </c>
@@ -6613,7 +6633,7 @@
       </c>
       <c r="I122" s="32"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
         <v>144</v>
       </c>
@@ -6638,7 +6658,7 @@
       </c>
       <c r="I123" s="32"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>145</v>
       </c>
@@ -6663,7 +6683,7 @@
       </c>
       <c r="I124" s="32"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>146</v>
       </c>
@@ -6688,7 +6708,7 @@
       </c>
       <c r="I125" s="32"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>147</v>
       </c>
@@ -6713,7 +6733,7 @@
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
         <v>148</v>
       </c>
@@ -6738,7 +6758,7 @@
       </c>
       <c r="I127" s="32"/>
     </row>
-    <row r="128" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>149</v>
       </c>
@@ -6763,7 +6783,7 @@
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>150</v>
       </c>
@@ -6788,7 +6808,7 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>151</v>
       </c>
@@ -6813,7 +6833,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>152</v>
       </c>
@@ -6838,7 +6858,7 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>153</v>
       </c>
@@ -6863,7 +6883,7 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>154</v>
       </c>
@@ -6888,7 +6908,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>155</v>
       </c>
@@ -6913,7 +6933,7 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>156</v>
       </c>
@@ -6938,7 +6958,7 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>157</v>
       </c>
@@ -6963,7 +6983,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>158</v>
       </c>
@@ -6988,7 +7008,7 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>159</v>
       </c>
@@ -7013,7 +7033,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>160</v>
       </c>
@@ -7040,7 +7060,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>161</v>
       </c>
@@ -7065,7 +7085,7 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>162</v>
       </c>
@@ -7090,7 +7110,7 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>163</v>
       </c>
@@ -7115,7 +7135,7 @@
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>164</v>
       </c>
@@ -7140,7 +7160,7 @@
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>165</v>
       </c>
@@ -7167,7 +7187,7 @@
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>166</v>
       </c>
@@ -7194,7 +7214,7 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>167</v>
       </c>
@@ -7219,7 +7239,7 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>168</v>
       </c>
@@ -7244,7 +7264,7 @@
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
         <v>169</v>
       </c>
@@ -7271,7 +7291,7 @@
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>170</v>
       </c>
@@ -7298,7 +7318,7 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
         <v>171</v>
       </c>
@@ -7323,7 +7343,7 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>172</v>
       </c>
@@ -7350,7 +7370,7 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>173</v>
       </c>
@@ -7377,7 +7397,7 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>174</v>
       </c>
@@ -7402,7 +7422,7 @@
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
         <v>175</v>
       </c>
@@ -7427,7 +7447,7 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
         <v>176</v>
       </c>
@@ -7452,7 +7472,7 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
         <v>177</v>
       </c>
@@ -7477,7 +7497,7 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
         <v>178</v>
       </c>
@@ -7502,7 +7522,7 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
         <v>179</v>
       </c>
@@ -7527,7 +7547,7 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
         <v>180</v>
       </c>
@@ -7552,7 +7572,7 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
         <v>181</v>
       </c>
@@ -7577,7 +7597,7 @@
       </c>
       <c r="I160" s="32"/>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
         <v>182</v>
       </c>
@@ -7602,7 +7622,7 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
         <v>183</v>
       </c>
@@ -7627,7 +7647,7 @@
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
         <v>184</v>
       </c>
@@ -7652,7 +7672,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
         <v>185</v>
       </c>
@@ -7677,7 +7697,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="22" t="s">
         <v>654</v>
       </c>
@@ -7701,10 +7721,10 @@
         <v>17</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
         <v>186</v>
       </c>
@@ -7729,7 +7749,7 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
         <v>187</v>
       </c>
@@ -7754,7 +7774,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
         <v>188</v>
       </c>
@@ -7779,7 +7799,7 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
         <v>189</v>
       </c>
@@ -7804,7 +7824,7 @@
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
         <v>190</v>
       </c>
@@ -7829,7 +7849,7 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
         <v>191</v>
       </c>
@@ -7854,7 +7874,7 @@
       </c>
       <c r="I171" s="32"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
         <v>192</v>
       </c>
@@ -7879,7 +7899,7 @@
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
         <v>193</v>
       </c>
@@ -7904,7 +7924,7 @@
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30" t="s">
         <v>194</v>
       </c>
@@ -7929,7 +7949,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="30" t="s">
         <v>195</v>
       </c>
@@ -7954,7 +7974,7 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
@@ -7979,7 +7999,7 @@
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="30" t="s">
         <v>197</v>
       </c>
@@ -8004,7 +8024,7 @@
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="30" t="s">
         <v>198</v>
       </c>
@@ -8029,7 +8049,7 @@
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
@@ -8054,7 +8074,7 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="30" t="s">
         <v>200</v>
       </c>
@@ -8079,7 +8099,7 @@
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30" t="s">
         <v>201</v>
       </c>
@@ -8104,7 +8124,7 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="30" t="s">
         <v>202</v>
       </c>
@@ -8129,7 +8149,7 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
@@ -8154,7 +8174,7 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="30" t="s">
         <v>204</v>
       </c>
@@ -8179,7 +8199,7 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
         <v>205</v>
       </c>
@@ -8204,7 +8224,7 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="30" t="s">
         <v>206</v>
       </c>
@@ -8229,7 +8249,7 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="30" t="s">
         <v>207</v>
       </c>
@@ -8254,7 +8274,7 @@
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="30" t="s">
         <v>208</v>
       </c>
@@ -8279,7 +8299,7 @@
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="30" t="s">
         <v>209</v>
       </c>
@@ -8304,7 +8324,7 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30" t="s">
         <v>210</v>
       </c>
@@ -8329,7 +8349,7 @@
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="30" t="s">
         <v>211</v>
       </c>
@@ -8354,7 +8374,7 @@
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="30" t="s">
         <v>212</v>
       </c>
@@ -8379,7 +8399,7 @@
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30" t="s">
         <v>213</v>
       </c>
@@ -8404,7 +8424,7 @@
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="30" t="s">
         <v>214</v>
       </c>
@@ -8429,7 +8449,7 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
@@ -8454,7 +8474,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="30" t="s">
         <v>216</v>
       </c>
@@ -8479,7 +8499,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -8504,7 +8524,7 @@
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="30" t="s">
         <v>218</v>
       </c>
@@ -8529,7 +8549,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="30" t="s">
         <v>219</v>
       </c>
@@ -8554,7 +8574,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -8579,7 +8599,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -8604,7 +8624,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="30" t="s">
         <v>222</v>
       </c>
@@ -8629,7 +8649,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="30" t="s">
         <v>223</v>
       </c>
@@ -8654,7 +8674,7 @@
       </c>
       <c r="I203" s="32"/>
     </row>
-    <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="30" t="s">
         <v>224</v>
       </c>
@@ -8679,7 +8699,7 @@
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="30" t="s">
         <v>225</v>
       </c>
@@ -8704,7 +8724,7 @@
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="30" t="s">
         <v>226</v>
       </c>
@@ -8729,7 +8749,7 @@
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
         <v>227</v>
       </c>
@@ -8754,7 +8774,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -8779,7 +8799,7 @@
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="30" t="s">
         <v>229</v>
       </c>
@@ -8804,7 +8824,7 @@
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="30" t="s">
         <v>230</v>
       </c>
@@ -8829,7 +8849,7 @@
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="30" t="s">
         <v>231</v>
       </c>
@@ -8854,7 +8874,7 @@
       </c>
       <c r="I211" s="32"/>
     </row>
-    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
         <v>232</v>
       </c>
@@ -8879,7 +8899,7 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="22" t="s">
         <v>233</v>
       </c>
@@ -8904,7 +8924,7 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="30" t="s">
         <v>234</v>
       </c>
@@ -8929,7 +8949,7 @@
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="30" t="s">
         <v>235</v>
       </c>
@@ -8954,7 +8974,7 @@
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="30" t="s">
         <v>236</v>
       </c>
@@ -8979,7 +8999,7 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="22" t="s">
         <v>237</v>
       </c>
@@ -9006,7 +9026,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="30" t="s">
         <v>238</v>
       </c>
@@ -9031,7 +9051,7 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30" t="s">
         <v>239</v>
       </c>
@@ -9056,7 +9076,7 @@
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="30" t="s">
         <v>240</v>
       </c>
@@ -9081,7 +9101,7 @@
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="30" t="s">
         <v>241</v>
       </c>
@@ -9106,7 +9126,7 @@
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="30" t="s">
         <v>242</v>
       </c>
@@ -9131,7 +9151,7 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="30" t="s">
         <v>243</v>
       </c>
@@ -9156,7 +9176,7 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="30" t="s">
         <v>244</v>
       </c>
@@ -9181,7 +9201,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="30" t="s">
         <v>245</v>
       </c>
@@ -9206,7 +9226,7 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30" t="s">
         <v>246</v>
       </c>
@@ -9231,7 +9251,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30" t="s">
         <v>247</v>
       </c>
@@ -9256,7 +9276,7 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30" t="s">
         <v>248</v>
       </c>
@@ -9281,7 +9301,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
@@ -9306,7 +9326,7 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
         <v>250</v>
       </c>
@@ -9331,7 +9351,7 @@
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30" t="s">
         <v>251</v>
       </c>
@@ -9356,7 +9376,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
@@ -9381,7 +9401,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
@@ -9406,7 +9426,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
         <v>254</v>
       </c>
@@ -9431,7 +9451,7 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30" t="s">
         <v>255</v>
       </c>
@@ -9456,7 +9476,7 @@
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
         <v>256</v>
       </c>
@@ -9481,7 +9501,7 @@
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30" t="s">
         <v>257</v>
       </c>
@@ -9506,7 +9526,7 @@
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30" t="s">
         <v>258</v>
       </c>
@@ -9531,7 +9551,7 @@
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="30" t="s">
         <v>259</v>
       </c>
@@ -9556,7 +9576,7 @@
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
         <v>260</v>
       </c>
@@ -9581,7 +9601,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
         <v>261</v>
       </c>
@@ -9606,7 +9626,7 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
         <v>262</v>
       </c>
@@ -9883,13 +9903,13 @@
     </row>
     <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B253" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9908,63 +9928,63 @@
     </row>
     <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B254" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="D254" s="47"/>
-      <c r="E254" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F254" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="D254" s="34"/>
+      <c r="E254" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G254" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H254" s="47" t="s">
+      <c r="G254" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I254" s="48"/>
+      <c r="I254" s="35"/>
     </row>
     <row r="255" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="B255" s="31" t="s">
-        <v>345</v>
+        <v>687</v>
+      </c>
+      <c r="B255" s="24" t="s">
+        <v>688</v>
       </c>
       <c r="C255" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="D255" s="22"/>
+      <c r="E255" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I255" s="20"/>
+    </row>
+    <row r="256" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A256" s="22" t="s">
         <v>683</v>
-      </c>
-      <c r="D255" s="30"/>
-      <c r="E255" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G255" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H255" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I255" s="32"/>
-    </row>
-    <row r="256" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="30" t="s">
-        <v>273</v>
       </c>
       <c r="B256" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
@@ -9977,44 +9997,44 @@
         <v>15</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B257" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C257" s="32" t="s">
-        <v>569</v>
+      <c r="C257" s="20" t="s">
+        <v>675</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G257" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H257" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I257" s="32"/>
     </row>
     <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B258" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
@@ -10024,22 +10044,22 @@
         <v>6</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H258" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I258" s="32"/>
     </row>
     <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B259" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
@@ -10052,19 +10072,19 @@
         <v>15</v>
       </c>
       <c r="H259" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I259" s="32"/>
     </row>
-    <row r="260" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A260" s="22" t="s">
-        <v>277</v>
+    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="B260" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C260" s="20" t="s">
-        <v>664</v>
+      <c r="C260" s="32" t="s">
+        <v>571</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
@@ -10077,21 +10097,19 @@
         <v>15</v>
       </c>
       <c r="H260" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I260" s="20" t="s">
-        <v>668</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I260" s="32"/>
     </row>
     <row r="261" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A261" s="30" t="s">
-        <v>278</v>
+      <c r="A261" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="B261" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C261" s="32" t="s">
-        <v>572</v>
+      <c r="C261" s="20" t="s">
+        <v>664</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -10104,76 +10122,76 @@
         <v>15</v>
       </c>
       <c r="H261" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I261" s="32"/>
-    </row>
-    <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A262" s="22" t="s">
-        <v>279</v>
+        <v>17</v>
+      </c>
+      <c r="I261" s="20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="30" t="s">
+        <v>278</v>
       </c>
       <c r="B262" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C262" s="20" t="s">
-        <v>669</v>
+      <c r="C262" s="32" t="s">
+        <v>572</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G262" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I262" s="20" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="30" t="s">
-        <v>280</v>
+        <v>20</v>
+      </c>
+      <c r="I262" s="32"/>
+    </row>
+    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A263" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="B263" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C263" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="D263" s="30" t="s">
-        <v>618</v>
-      </c>
+      <c r="C263" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G263" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I263" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B264" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E264" s="30" t="s">
         <v>19</v>
@@ -10191,16 +10209,16 @@
     </row>
     <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B265" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E265" s="30" t="s">
         <v>19</v>
@@ -10216,18 +10234,18 @@
       </c>
       <c r="I265" s="32"/>
     </row>
-    <row r="266" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B266" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D266" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E266" s="30" t="s">
         <v>19</v>
@@ -10245,16 +10263,16 @@
     </row>
     <row r="267" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B267" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E267" s="30" t="s">
         <v>19</v>
@@ -10272,16 +10290,16 @@
     </row>
     <row r="268" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B268" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E268" s="30" t="s">
         <v>19</v>
@@ -10297,40 +10315,42 @@
       </c>
       <c r="I268" s="32"/>
     </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C269" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="D269" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="E269" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G269" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H269" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I269" s="32"/>
+    </row>
+    <row r="270" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="B269" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="C269" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="D269" s="30"/>
-      <c r="E269" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F269" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G269" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H269" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I269" s="32"/>
-    </row>
-    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="30" t="s">
-        <v>287</v>
       </c>
       <c r="B270" s="31" t="s">
         <v>346</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D270" s="30"/>
       <c r="E270" s="30" t="s">
@@ -10340,22 +10360,22 @@
         <v>7</v>
       </c>
       <c r="G270" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H270" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I270" s="32"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B271" s="31" t="s">
         <v>346</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D271" s="30"/>
       <c r="E271" s="30" t="s">
@@ -10372,40 +10392,40 @@
       </c>
       <c r="I271" s="32"/>
     </row>
-    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D272" s="30"/>
       <c r="E272" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F272" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G272" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H272" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B273" s="31" t="s">
         <v>347</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D273" s="30"/>
       <c r="E273" s="30" t="s">
@@ -10422,40 +10442,40 @@
       </c>
       <c r="I273" s="32"/>
     </row>
-    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F274" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G274" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H274" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B275" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D275" s="30"/>
       <c r="E275" s="30" t="s">
@@ -10472,15 +10492,15 @@
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B276" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
@@ -10490,22 +10510,22 @@
         <v>7</v>
       </c>
       <c r="G276" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H276" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B277" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
@@ -10515,22 +10535,22 @@
         <v>7</v>
       </c>
       <c r="G277" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H277" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I277" s="32"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B278" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
@@ -10547,15 +10567,15 @@
       </c>
       <c r="I278" s="32"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B279" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
@@ -10572,40 +10592,40 @@
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B280" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G280" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H280" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
@@ -10615,47 +10635,47 @@
         <v>3</v>
       </c>
       <c r="G281" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H281" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I281" s="32"/>
     </row>
-    <row r="282" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B282" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F282" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G282" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H282" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I282" s="32"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B283" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
@@ -10672,65 +10692,65 @@
       </c>
       <c r="I283" s="32"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B284" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F284" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G284" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H284" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B285" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G285" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H285" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B286" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
@@ -10740,22 +10760,22 @@
         <v>6</v>
       </c>
       <c r="G286" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H286" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B287" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
@@ -10765,83 +10785,79 @@
         <v>6</v>
       </c>
       <c r="G287" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H287" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I287" s="32"/>
+    </row>
+    <row r="288" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B288" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C288" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F288" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G288" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I287" s="32"/>
-    </row>
-    <row r="288" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A288" s="30" t="s">
+      <c r="I288" s="32"/>
+    </row>
+    <row r="289" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="B288" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="C288" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="D288" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="E288" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F288" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G288" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H288" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I288" s="32" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A289" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="B289" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="D289" s="22" t="s">
-        <v>679</v>
+        <v>598</v>
+      </c>
+      <c r="D289" s="30" t="s">
+        <v>624</v>
       </c>
       <c r="E289" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F289" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G289" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H289" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I289" s="32" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A290" s="30" t="s">
-        <v>307</v>
+    <row r="290" spans="1:9" s="33" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="B290" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="C290" s="20" t="s">
-        <v>600</v>
+      <c r="C290" s="32" t="s">
+        <v>599</v>
       </c>
       <c r="D290" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E290" s="30" t="s">
         <v>22</v>
@@ -10859,18 +10875,18 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" s="33" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B291" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="D291" s="22" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="E291" s="30" t="s">
         <v>22</v>
@@ -10888,17 +10904,17 @@
         <v>635</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B292" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="D292" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="D292" s="22" t="s">
         <v>625</v>
       </c>
       <c r="E292" s="30" t="s">
@@ -10917,24 +10933,24 @@
         <v>635</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B293" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="C293" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="D293" s="22" t="s">
-        <v>626</v>
+      <c r="C293" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D293" s="30" t="s">
+        <v>625</v>
       </c>
       <c r="E293" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F293" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G293" s="30" t="s">
         <v>15</v>
@@ -10946,17 +10962,17 @@
         <v>635</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B294" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="C294" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="D294" s="30" t="s">
+      <c r="C294" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D294" s="22" t="s">
         <v>626</v>
       </c>
       <c r="E294" s="30" t="s">
@@ -10975,15 +10991,15 @@
         <v>635</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B295" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D295" s="30" t="s">
         <v>626</v>
@@ -11004,18 +11020,18 @@
         <v>635</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="B296" s="24" t="s">
+    <row r="296" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B296" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D296" s="22" t="s">
-        <v>648</v>
+        <v>603</v>
+      </c>
+      <c r="D296" s="30" t="s">
+        <v>626</v>
       </c>
       <c r="E296" s="30" t="s">
         <v>22</v>
@@ -11027,22 +11043,24 @@
         <v>15</v>
       </c>
       <c r="H296" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I296" s="32"/>
-    </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I296" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B297" s="24" t="s">
         <v>350</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D297" s="22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E297" s="30" t="s">
         <v>22</v>
@@ -11058,46 +11076,44 @@
       </c>
       <c r="I297" s="32"/>
     </row>
-    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A298" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="B298" s="31" t="s">
+    <row r="298" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="B298" s="24" t="s">
         <v>350</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="D298" s="22" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="E298" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F298" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G298" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H298" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I298" s="32" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I298" s="32"/>
+    </row>
+    <row r="299" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B299" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="D299" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="D299" s="22" t="s">
         <v>627</v>
       </c>
       <c r="E299" s="30" t="s">
@@ -11116,18 +11132,18 @@
         <v>635</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="B300" s="24" t="s">
+    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B300" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D300" s="22" t="s">
-        <v>657</v>
+        <v>673</v>
+      </c>
+      <c r="D300" s="30" t="s">
+        <v>627</v>
       </c>
       <c r="E300" s="30" t="s">
         <v>22</v>
@@ -11139,19 +11155,21 @@
         <v>15</v>
       </c>
       <c r="H300" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I300" s="32"/>
-    </row>
-    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I300" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B301" s="24" t="s">
         <v>350</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="D301" s="22" t="s">
         <v>657</v>
@@ -11166,24 +11184,22 @@
         <v>15</v>
       </c>
       <c r="H301" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I301" s="32" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I301" s="32"/>
+    </row>
+    <row r="302" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B302" s="24" t="s">
         <v>350</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D302" s="22" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E302" s="30" t="s">
         <v>22</v>
@@ -11201,40 +11217,44 @@
         <v>635</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="B303" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="B303" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C303" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="D303" s="30"/>
+      <c r="C303" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="D303" s="22" t="s">
+        <v>665</v>
+      </c>
       <c r="E303" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F303" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G303" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H303" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I303" s="32"/>
-    </row>
-    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="30" t="s">
-        <v>316</v>
+        <v>20</v>
+      </c>
+      <c r="I303" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B304" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C304" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D304" s="30"/>
       <c r="E304" s="30" t="s">
@@ -11251,13 +11271,38 @@
       </c>
       <c r="I304" s="32"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
-      <c r="B305" s="10"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C305" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D305" s="30"/>
+      <c r="E305" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G305" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H305" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I305" s="32"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="10"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+      <c r="B307" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11275,51 +11320,51 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I304">
-    <cfRule type="expression" dxfId="7" priority="53">
+  <conditionalFormatting sqref="A20:I305">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I304">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="A20:I305">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F304">
-    <cfRule type="expression" dxfId="1" priority="13">
+  <conditionalFormatting sqref="F20:F305">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F304" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F305" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E304" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E305" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G304" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G305" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H304" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H305" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11329,7 +11374,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B255:B306 B19:B253" numberStoredAsText="1"/>
+    <ignoredError sqref="B256:B307 B19:B253" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-COPYS/MS-COPYS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2082920-71AE-40D6-A5D1-B2A3129758B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC615A95-8A38-4882-8B4B-FC7FEFAAE2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-2085" windowWidth="24240" windowHeight="13290" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -2398,9 +2398,6 @@
     <t>Verified by derived requirement: MS-COPYS_R2781.</t>
   </si>
   <si>
-    <t>[In CopyIntoItemsLocal] Unless otherwise specified, the method behavior for the source IRI, content, fields, and destination locations for the CopyItemsIntoLocal operation is the same as the CopyIntoItems operation, as specified in section 3.1.4.2.&lt;6&gt;</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] [For CopyIntoItems operation] Implementation [the value of field with internal name _CopySource ] does equal to the value of source location.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
   </si>
   <si>
@@ -2473,6 +2470,9 @@
   <si>
     <t>[In CopyIntoItemsLocal] If the source location does not point to an existing file, then if the destination location points to an existing file whose permission setting does not allow access by the protocol client, the protocol server MUST report a failure by returning the CopyResult element with the ErrorCode attribute set to "Unknown" for this destination location.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CopyIntoItemsLocal] Unless otherwise specified, the method behavior for the source IRI, content, fields, and destination locations for the CopyIntoItemsLocal operation is the same as the CopyIntoItems operation, as specified in section 3.1.4.2.&lt;6&gt;</t>
   </si>
 </sst>
 </file>
@@ -2480,14 +2480,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2690,13 +2690,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2729,7 +2729,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3690,24 +3690,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>636</v>
       </c>
@@ -3717,7 +3719,7 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>637</v>
       </c>
@@ -3728,22 +3730,22 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>638</v>
       </c>
       <c r="F3" s="12">
-        <v>43634</v>
+        <v>44474</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -3771,7 +3773,7 @@
       <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -3787,7 +3789,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3819,7 +3821,7 @@
       <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3837,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
@@ -3851,7 +3853,7 @@
       <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3869,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -3885,7 +3887,7 @@
       <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -3903,7 +3905,7 @@
       <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +3923,7 @@
       <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -3939,7 +3941,7 @@
       <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -3955,7 +3957,7 @@
       <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
@@ -3971,7 +3973,7 @@
       <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
@@ -3988,7 +3990,7 @@
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4020,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="23" customFormat="1" hidden="1">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -4043,7 +4045,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -4070,7 +4072,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
@@ -4095,7 +4097,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>317</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4120,7 +4122,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4147,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>317</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4170,7 +4172,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -4195,7 +4197,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="45" hidden="1">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -4220,7 +4222,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -4245,7 +4247,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="45" hidden="1">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
@@ -4270,7 +4272,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
@@ -4295,7 +4297,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -4320,7 +4322,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="23" customFormat="1" hidden="1">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -4345,7 +4347,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="30" hidden="1">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
@@ -4370,7 +4372,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" hidden="1">
       <c r="A34" s="30" t="s">
         <v>57</v>
       </c>
@@ -4395,7 +4397,7 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" hidden="1">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
@@ -4420,7 +4422,7 @@
       </c>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" hidden="1">
       <c r="A36" s="30" t="s">
         <v>59</v>
       </c>
@@ -4445,7 +4447,7 @@
       </c>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" hidden="1">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
@@ -4470,7 +4472,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" hidden="1">
       <c r="A38" s="30" t="s">
         <v>61</v>
       </c>
@@ -4495,7 +4497,7 @@
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" hidden="1">
       <c r="A39" s="30" t="s">
         <v>62</v>
       </c>
@@ -4520,7 +4522,7 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="165" hidden="1">
       <c r="A40" s="30" t="s">
         <v>63</v>
       </c>
@@ -4545,7 +4547,7 @@
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="30" t="s">
         <v>64</v>
       </c>
@@ -4570,7 +4572,7 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="45" hidden="1">
       <c r="A42" s="30" t="s">
         <v>65</v>
       </c>
@@ -4595,7 +4597,7 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" hidden="1">
       <c r="A43" s="30" t="s">
         <v>66</v>
       </c>
@@ -4620,7 +4622,7 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" hidden="1">
       <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
@@ -4645,7 +4647,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" hidden="1">
       <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
@@ -4670,7 +4672,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30" hidden="1">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
@@ -4695,7 +4697,7 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" hidden="1">
       <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
@@ -4720,7 +4722,7 @@
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" hidden="1">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -4745,7 +4747,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" hidden="1">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
@@ -4770,7 +4772,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30" hidden="1">
       <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
@@ -4795,7 +4797,7 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" hidden="1">
       <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
@@ -4820,7 +4822,7 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="105" hidden="1">
       <c r="A52" s="30" t="s">
         <v>75</v>
       </c>
@@ -4845,7 +4847,7 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
@@ -4870,7 +4872,7 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
@@ -4895,7 +4897,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30" hidden="1">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -4920,7 +4922,7 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="90" hidden="1">
       <c r="A56" s="30" t="s">
         <v>79</v>
       </c>
@@ -4945,7 +4947,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" hidden="1">
       <c r="A57" s="30" t="s">
         <v>80</v>
       </c>
@@ -4970,7 +4972,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" hidden="1">
       <c r="A58" s="30" t="s">
         <v>81</v>
       </c>
@@ -4995,7 +4997,7 @@
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" hidden="1">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
@@ -5020,7 +5022,7 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30" hidden="1">
       <c r="A60" s="30" t="s">
         <v>83</v>
       </c>
@@ -5047,7 +5049,7 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" hidden="1">
       <c r="A61" s="30" t="s">
         <v>84</v>
       </c>
@@ -5074,7 +5076,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="45" hidden="1">
       <c r="A62" s="30" t="s">
         <v>85</v>
       </c>
@@ -5099,7 +5101,7 @@
       </c>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="45" hidden="1">
       <c r="A63" s="30" t="s">
         <v>86</v>
       </c>
@@ -5126,7 +5128,7 @@
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="45" hidden="1">
       <c r="A64" s="30" t="s">
         <v>87</v>
       </c>
@@ -5153,7 +5155,7 @@
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" hidden="1">
       <c r="A65" s="30" t="s">
         <v>88</v>
       </c>
@@ -5178,7 +5180,7 @@
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30" hidden="1">
       <c r="A66" s="30" t="s">
         <v>89</v>
       </c>
@@ -5203,7 +5205,7 @@
       </c>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" hidden="1">
       <c r="A67" s="30" t="s">
         <v>90</v>
       </c>
@@ -5228,7 +5230,7 @@
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105" hidden="1">
       <c r="A68" s="30" t="s">
         <v>91</v>
       </c>
@@ -5253,7 +5255,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="30" hidden="1">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
@@ -5278,7 +5280,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="30" hidden="1">
       <c r="A70" s="30" t="s">
         <v>93</v>
       </c>
@@ -5303,7 +5305,7 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="30" t="s">
         <v>94</v>
       </c>
@@ -5328,7 +5330,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="120" hidden="1">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
@@ -5353,7 +5355,7 @@
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="30" t="s">
         <v>96</v>
       </c>
@@ -5378,7 +5380,7 @@
       </c>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="60" hidden="1">
       <c r="A74" s="30" t="s">
         <v>97</v>
       </c>
@@ -5403,7 +5405,7 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="30" t="s">
         <v>98</v>
       </c>
@@ -5428,7 +5430,7 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" hidden="1">
       <c r="A76" s="30" t="s">
         <v>99</v>
       </c>
@@ -5453,7 +5455,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30" hidden="1">
       <c r="A77" s="30" t="s">
         <v>100</v>
       </c>
@@ -5478,7 +5480,7 @@
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" hidden="1">
       <c r="A78" s="30" t="s">
         <v>101</v>
       </c>
@@ -5503,7 +5505,7 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30" hidden="1">
       <c r="A79" s="30" t="s">
         <v>102</v>
       </c>
@@ -5528,7 +5530,7 @@
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="30" t="s">
         <v>103</v>
       </c>
@@ -5553,7 +5555,7 @@
       </c>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" hidden="1">
       <c r="A81" s="30" t="s">
         <v>104</v>
       </c>
@@ -5578,7 +5580,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" hidden="1">
       <c r="A82" s="30" t="s">
         <v>105</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30" hidden="1">
       <c r="A83" s="30" t="s">
         <v>106</v>
       </c>
@@ -5632,7 +5634,7 @@
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" hidden="1">
       <c r="A84" s="30" t="s">
         <v>107</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" hidden="1">
       <c r="A85" s="30" t="s">
         <v>108</v>
       </c>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="I85" s="32"/>
     </row>
-    <row r="86" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="105" hidden="1">
       <c r="A86" s="30" t="s">
         <v>109</v>
       </c>
@@ -5711,7 +5713,7 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" hidden="1">
       <c r="A87" s="30" t="s">
         <v>110</v>
       </c>
@@ -5736,7 +5738,7 @@
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" hidden="1">
       <c r="A88" s="30" t="s">
         <v>111</v>
       </c>
@@ -5761,7 +5763,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" hidden="1">
       <c r="A89" s="30" t="s">
         <v>112</v>
       </c>
@@ -5786,7 +5788,7 @@
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" hidden="1">
       <c r="A90" s="30" t="s">
         <v>113</v>
       </c>
@@ -5811,7 +5813,7 @@
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30" hidden="1">
       <c r="A91" s="30" t="s">
         <v>114</v>
       </c>
@@ -5836,7 +5838,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30" hidden="1">
       <c r="A92" s="30" t="s">
         <v>115</v>
       </c>
@@ -5861,7 +5863,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" hidden="1">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
@@ -5886,7 +5888,7 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="180" hidden="1">
       <c r="A94" s="30" t="s">
         <v>117</v>
       </c>
@@ -5911,7 +5913,7 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="45" hidden="1">
       <c r="A95" s="30" t="s">
         <v>118</v>
       </c>
@@ -5936,7 +5938,7 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="30" hidden="1">
       <c r="A96" s="30" t="s">
         <v>119</v>
       </c>
@@ -5961,7 +5963,7 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="30" hidden="1">
       <c r="A97" s="30" t="s">
         <v>120</v>
       </c>
@@ -5988,7 +5990,7 @@
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30" hidden="1">
       <c r="A98" s="30" t="s">
         <v>121</v>
       </c>
@@ -6015,7 +6017,7 @@
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" hidden="1">
       <c r="A99" s="30" t="s">
         <v>122</v>
       </c>
@@ -6040,7 +6042,7 @@
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30" hidden="1">
       <c r="A100" s="30" t="s">
         <v>123</v>
       </c>
@@ -6065,7 +6067,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="45" hidden="1">
       <c r="A101" s="30" t="s">
         <v>124</v>
       </c>
@@ -6090,7 +6092,7 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="45" hidden="1">
       <c r="A102" s="30" t="s">
         <v>125</v>
       </c>
@@ -6117,7 +6119,7 @@
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="45" hidden="1">
       <c r="A103" s="30" t="s">
         <v>126</v>
       </c>
@@ -6144,7 +6146,7 @@
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" hidden="1">
       <c r="A104" s="30" t="s">
         <v>127</v>
       </c>
@@ -6169,7 +6171,7 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="45" hidden="1">
       <c r="A105" s="30" t="s">
         <v>128</v>
       </c>
@@ -6194,7 +6196,7 @@
       </c>
       <c r="I105" s="32"/>
     </row>
-    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" hidden="1">
       <c r="A106" s="30" t="s">
         <v>129</v>
       </c>
@@ -6221,7 +6223,7 @@
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45" hidden="1">
       <c r="A107" s="30" t="s">
         <v>130</v>
       </c>
@@ -6248,7 +6250,7 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="30" hidden="1">
       <c r="A108" s="22" t="s">
         <v>131</v>
       </c>
@@ -6273,7 +6275,7 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="45" hidden="1">
       <c r="A109" s="30" t="s">
         <v>132</v>
       </c>
@@ -6298,7 +6300,7 @@
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="45" hidden="1">
       <c r="A110" s="30" t="s">
         <v>133</v>
       </c>
@@ -6325,7 +6327,7 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="30" hidden="1">
       <c r="A111" s="30" t="s">
         <v>134</v>
       </c>
@@ -6352,7 +6354,7 @@
       </c>
       <c r="I111" s="32"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30" hidden="1">
       <c r="A112" s="30" t="s">
         <v>135</v>
       </c>
@@ -6377,7 +6379,7 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="409.5" hidden="1">
       <c r="A113" s="30" t="s">
         <v>136</v>
       </c>
@@ -6402,7 +6404,7 @@
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="75" hidden="1">
       <c r="A114" s="30" t="s">
         <v>137</v>
       </c>
@@ -6427,7 +6429,7 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="60" hidden="1">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="30" t="s">
         <v>139</v>
       </c>
@@ -6481,7 +6483,7 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="60" hidden="1">
       <c r="A117" s="22" t="s">
         <v>140</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="22" t="s">
         <v>644</v>
       </c>
@@ -6533,7 +6535,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="22" t="s">
         <v>646</v>
       </c>
@@ -6558,7 +6560,7 @@
       </c>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="60" hidden="1">
       <c r="A120" s="30" t="s">
         <v>141</v>
       </c>
@@ -6583,7 +6585,7 @@
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="30" hidden="1">
       <c r="A121" s="30" t="s">
         <v>142</v>
       </c>
@@ -6608,7 +6610,7 @@
       </c>
       <c r="I121" s="32"/>
     </row>
-    <row r="122" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="90" hidden="1">
       <c r="A122" s="30" t="s">
         <v>143</v>
       </c>
@@ -6633,7 +6635,7 @@
       </c>
       <c r="I122" s="32"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="30" t="s">
         <v>144</v>
       </c>
@@ -6658,7 +6660,7 @@
       </c>
       <c r="I123" s="32"/>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="30" t="s">
         <v>145</v>
       </c>
@@ -6683,7 +6685,7 @@
       </c>
       <c r="I124" s="32"/>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="30" hidden="1">
       <c r="A125" s="30" t="s">
         <v>146</v>
       </c>
@@ -6708,7 +6710,7 @@
       </c>
       <c r="I125" s="32"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="30" t="s">
         <v>147</v>
       </c>
@@ -6733,7 +6735,7 @@
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" hidden="1">
       <c r="A127" s="30" t="s">
         <v>148</v>
       </c>
@@ -6758,7 +6760,7 @@
       </c>
       <c r="I127" s="32"/>
     </row>
-    <row r="128" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="45" hidden="1">
       <c r="A128" s="30" t="s">
         <v>149</v>
       </c>
@@ -6783,7 +6785,7 @@
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" hidden="1">
       <c r="A129" s="30" t="s">
         <v>150</v>
       </c>
@@ -6808,7 +6810,7 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30" hidden="1">
       <c r="A130" s="30" t="s">
         <v>151</v>
       </c>
@@ -6833,7 +6835,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45" hidden="1">
       <c r="A131" s="30" t="s">
         <v>152</v>
       </c>
@@ -6858,7 +6860,7 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" hidden="1">
       <c r="A132" s="30" t="s">
         <v>153</v>
       </c>
@@ -6883,7 +6885,7 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="30" t="s">
         <v>154</v>
       </c>
@@ -6908,7 +6910,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="30" t="s">
         <v>155</v>
       </c>
@@ -6933,7 +6935,7 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" hidden="1">
       <c r="A135" s="30" t="s">
         <v>156</v>
       </c>
@@ -6958,7 +6960,7 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="30" hidden="1">
       <c r="A136" s="30" t="s">
         <v>157</v>
       </c>
@@ -6983,7 +6985,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="45" hidden="1">
       <c r="A137" s="30" t="s">
         <v>158</v>
       </c>
@@ -7008,7 +7010,7 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="45" hidden="1">
       <c r="A138" s="30" t="s">
         <v>159</v>
       </c>
@@ -7033,7 +7035,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="45" hidden="1">
       <c r="A139" s="30" t="s">
         <v>160</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30" hidden="1">
       <c r="A140" s="30" t="s">
         <v>161</v>
       </c>
@@ -7085,7 +7087,7 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="45" hidden="1">
       <c r="A141" s="30" t="s">
         <v>162</v>
       </c>
@@ -7110,7 +7112,7 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" hidden="1">
       <c r="A142" s="30" t="s">
         <v>163</v>
       </c>
@@ -7135,7 +7137,7 @@
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30" hidden="1">
       <c r="A143" s="30" t="s">
         <v>164</v>
       </c>
@@ -7160,7 +7162,7 @@
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" hidden="1">
       <c r="A144" s="30" t="s">
         <v>165</v>
       </c>
@@ -7187,7 +7189,7 @@
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="45" hidden="1">
       <c r="A145" s="30" t="s">
         <v>166</v>
       </c>
@@ -7214,7 +7216,7 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="30" hidden="1">
       <c r="A146" s="30" t="s">
         <v>167</v>
       </c>
@@ -7239,7 +7241,7 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="45" hidden="1">
       <c r="A147" s="30" t="s">
         <v>168</v>
       </c>
@@ -7264,7 +7266,7 @@
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="45" hidden="1">
       <c r="A148" s="30" t="s">
         <v>169</v>
       </c>
@@ -7291,7 +7293,7 @@
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" hidden="1">
       <c r="A149" s="30" t="s">
         <v>170</v>
       </c>
@@ -7318,7 +7320,7 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="30" t="s">
         <v>171</v>
       </c>
@@ -7343,7 +7345,7 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="30" hidden="1">
       <c r="A151" s="30" t="s">
         <v>172</v>
       </c>
@@ -7370,7 +7372,7 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="30" hidden="1">
       <c r="A152" s="30" t="s">
         <v>173</v>
       </c>
@@ -7397,7 +7399,7 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="30" t="s">
         <v>174</v>
       </c>
@@ -7422,7 +7424,7 @@
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" hidden="1">
       <c r="A154" s="30" t="s">
         <v>175</v>
       </c>
@@ -7447,7 +7449,7 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" hidden="1">
       <c r="A155" s="30" t="s">
         <v>176</v>
       </c>
@@ -7472,7 +7474,7 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="30" hidden="1">
       <c r="A156" s="30" t="s">
         <v>177</v>
       </c>
@@ -7497,7 +7499,7 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="30" hidden="1">
       <c r="A157" s="30" t="s">
         <v>178</v>
       </c>
@@ -7522,7 +7524,7 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="30" hidden="1">
       <c r="A158" s="30" t="s">
         <v>179</v>
       </c>
@@ -7547,7 +7549,7 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="60" hidden="1">
       <c r="A159" s="30" t="s">
         <v>180</v>
       </c>
@@ -7572,7 +7574,7 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30" hidden="1">
       <c r="A160" s="30" t="s">
         <v>181</v>
       </c>
@@ -7597,7 +7599,7 @@
       </c>
       <c r="I160" s="32"/>
     </row>
-    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="45" hidden="1">
       <c r="A161" s="30" t="s">
         <v>182</v>
       </c>
@@ -7622,7 +7624,7 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30" hidden="1">
       <c r="A162" s="30" t="s">
         <v>183</v>
       </c>
@@ -7647,7 +7649,7 @@
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" hidden="1">
       <c r="A163" s="30" t="s">
         <v>184</v>
       </c>
@@ -7672,7 +7674,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="30" t="s">
         <v>185</v>
       </c>
@@ -7697,7 +7699,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="45" hidden="1">
       <c r="A165" s="22" t="s">
         <v>654</v>
       </c>
@@ -7721,10 +7723,10 @@
         <v>17</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="45" hidden="1">
       <c r="A166" s="30" t="s">
         <v>186</v>
       </c>
@@ -7749,7 +7751,7 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="60" hidden="1">
       <c r="A167" s="30" t="s">
         <v>187</v>
       </c>
@@ -7774,7 +7776,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="60" hidden="1">
       <c r="A168" s="30" t="s">
         <v>188</v>
       </c>
@@ -7799,7 +7801,7 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="60" hidden="1">
       <c r="A169" s="30" t="s">
         <v>189</v>
       </c>
@@ -7824,7 +7826,7 @@
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" hidden="1">
       <c r="A170" s="30" t="s">
         <v>190</v>
       </c>
@@ -7849,7 +7851,7 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="30" hidden="1">
       <c r="A171" s="30" t="s">
         <v>191</v>
       </c>
@@ -7874,7 +7876,7 @@
       </c>
       <c r="I171" s="32"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="30" t="s">
         <v>192</v>
       </c>
@@ -7899,7 +7901,7 @@
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="30" hidden="1">
       <c r="A173" s="30" t="s">
         <v>193</v>
       </c>
@@ -7924,7 +7926,7 @@
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30" hidden="1">
       <c r="A174" s="30" t="s">
         <v>194</v>
       </c>
@@ -7949,7 +7951,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="30" hidden="1">
       <c r="A175" s="30" t="s">
         <v>195</v>
       </c>
@@ -7974,7 +7976,7 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="105" hidden="1">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
@@ -7999,7 +8001,7 @@
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="30" t="s">
         <v>197</v>
       </c>
@@ -8024,7 +8026,7 @@
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="30" hidden="1">
       <c r="A178" s="30" t="s">
         <v>198</v>
       </c>
@@ -8049,7 +8051,7 @@
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
@@ -8074,7 +8076,7 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30" hidden="1">
       <c r="A180" s="30" t="s">
         <v>200</v>
       </c>
@@ -8099,7 +8101,7 @@
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="30" t="s">
         <v>201</v>
       </c>
@@ -8124,7 +8126,7 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="195" hidden="1">
       <c r="A182" s="30" t="s">
         <v>202</v>
       </c>
@@ -8149,7 +8151,7 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
@@ -8174,7 +8176,7 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="30" t="s">
         <v>204</v>
       </c>
@@ -8199,7 +8201,7 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="30" t="s">
         <v>205</v>
       </c>
@@ -8224,7 +8226,7 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" hidden="1">
       <c r="A186" s="30" t="s">
         <v>206</v>
       </c>
@@ -8249,7 +8251,7 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" hidden="1">
       <c r="A187" s="30" t="s">
         <v>207</v>
       </c>
@@ -8274,7 +8276,7 @@
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" hidden="1">
       <c r="A188" s="30" t="s">
         <v>208</v>
       </c>
@@ -8299,7 +8301,7 @@
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="30" t="s">
         <v>209</v>
       </c>
@@ -8324,7 +8326,7 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="30" t="s">
         <v>210</v>
       </c>
@@ -8349,7 +8351,7 @@
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="30" hidden="1">
       <c r="A191" s="30" t="s">
         <v>211</v>
       </c>
@@ -8374,7 +8376,7 @@
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="75" hidden="1">
       <c r="A192" s="30" t="s">
         <v>212</v>
       </c>
@@ -8399,7 +8401,7 @@
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="30" hidden="1">
       <c r="A193" s="30" t="s">
         <v>213</v>
       </c>
@@ -8424,7 +8426,7 @@
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="45" hidden="1">
       <c r="A194" s="30" t="s">
         <v>214</v>
       </c>
@@ -8449,7 +8451,7 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="60" hidden="1">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
@@ -8474,7 +8476,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="45" hidden="1">
       <c r="A196" s="30" t="s">
         <v>216</v>
       </c>
@@ -8499,7 +8501,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="30" hidden="1">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -8524,7 +8526,7 @@
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="30" hidden="1">
       <c r="A198" s="30" t="s">
         <v>218</v>
       </c>
@@ -8549,7 +8551,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="45" hidden="1">
       <c r="A199" s="30" t="s">
         <v>219</v>
       </c>
@@ -8574,7 +8576,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="75" hidden="1">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -8599,7 +8601,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="90" hidden="1">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -8624,7 +8626,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" s="30" t="s">
         <v>222</v>
       </c>
@@ -8649,7 +8651,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="30" hidden="1">
       <c r="A203" s="30" t="s">
         <v>223</v>
       </c>
@@ -8674,7 +8676,7 @@
       </c>
       <c r="I203" s="32"/>
     </row>
-    <row r="204" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="45" hidden="1">
       <c r="A204" s="30" t="s">
         <v>224</v>
       </c>
@@ -8699,7 +8701,7 @@
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="60" hidden="1">
       <c r="A205" s="30" t="s">
         <v>225</v>
       </c>
@@ -8724,7 +8726,7 @@
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30" hidden="1">
       <c r="A206" s="30" t="s">
         <v>226</v>
       </c>
@@ -8749,7 +8751,7 @@
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="30" t="s">
         <v>227</v>
       </c>
@@ -8774,7 +8776,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30" hidden="1">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -8799,7 +8801,7 @@
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="60" hidden="1">
       <c r="A209" s="30" t="s">
         <v>229</v>
       </c>
@@ -8824,7 +8826,7 @@
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="60" hidden="1">
       <c r="A210" s="30" t="s">
         <v>230</v>
       </c>
@@ -8849,7 +8851,7 @@
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="30" hidden="1">
       <c r="A211" s="30" t="s">
         <v>231</v>
       </c>
@@ -8874,7 +8876,7 @@
       </c>
       <c r="I211" s="32"/>
     </row>
-    <row r="212" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30" hidden="1">
       <c r="A212" s="30" t="s">
         <v>232</v>
       </c>
@@ -8899,7 +8901,7 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="60" hidden="1">
       <c r="A213" s="22" t="s">
         <v>233</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>33</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -8924,7 +8926,7 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="75" hidden="1">
       <c r="A214" s="30" t="s">
         <v>234</v>
       </c>
@@ -8949,7 +8951,7 @@
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="45" hidden="1">
       <c r="A215" s="30" t="s">
         <v>235</v>
       </c>
@@ -8974,7 +8976,7 @@
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30" hidden="1">
       <c r="A216" s="30" t="s">
         <v>236</v>
       </c>
@@ -8999,7 +9001,7 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="45" hidden="1">
       <c r="A217" s="22" t="s">
         <v>237</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218" s="30" t="s">
         <v>238</v>
       </c>
@@ -9051,7 +9053,7 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30" hidden="1">
       <c r="A219" s="30" t="s">
         <v>239</v>
       </c>
@@ -9076,7 +9078,7 @@
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="30" hidden="1">
       <c r="A220" s="30" t="s">
         <v>240</v>
       </c>
@@ -9101,7 +9103,7 @@
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="30" hidden="1">
       <c r="A221" s="30" t="s">
         <v>241</v>
       </c>
@@ -9126,7 +9128,7 @@
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="30" hidden="1">
       <c r="A222" s="30" t="s">
         <v>242</v>
       </c>
@@ -9151,7 +9153,7 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="30" hidden="1">
       <c r="A223" s="30" t="s">
         <v>243</v>
       </c>
@@ -9176,7 +9178,7 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="30" hidden="1">
       <c r="A224" s="30" t="s">
         <v>244</v>
       </c>
@@ -9201,7 +9203,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="195" hidden="1">
       <c r="A225" s="30" t="s">
         <v>245</v>
       </c>
@@ -9226,7 +9228,7 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="30" t="s">
         <v>246</v>
       </c>
@@ -9251,7 +9253,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="30" t="s">
         <v>247</v>
       </c>
@@ -9276,7 +9278,7 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="30" hidden="1">
       <c r="A228" s="30" t="s">
         <v>248</v>
       </c>
@@ -9301,7 +9303,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="30" hidden="1">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
@@ -9326,7 +9328,7 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="30" hidden="1">
       <c r="A230" s="30" t="s">
         <v>250</v>
       </c>
@@ -9351,7 +9353,7 @@
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="45" hidden="1">
       <c r="A231" s="30" t="s">
         <v>251</v>
       </c>
@@ -9376,7 +9378,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="45" hidden="1">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
@@ -9401,7 +9403,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30" hidden="1">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
@@ -9426,7 +9428,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="30" t="s">
         <v>254</v>
       </c>
@@ -9451,7 +9453,7 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="30" hidden="1">
       <c r="A235" s="30" t="s">
         <v>255</v>
       </c>
@@ -9476,7 +9478,7 @@
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="30" hidden="1">
       <c r="A236" s="30" t="s">
         <v>256</v>
       </c>
@@ -9501,7 +9503,7 @@
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="165" hidden="1">
       <c r="A237" s="30" t="s">
         <v>257</v>
       </c>
@@ -9526,7 +9528,7 @@
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="30" t="s">
         <v>258</v>
       </c>
@@ -9551,7 +9553,7 @@
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="30" hidden="1">
       <c r="A239" s="30" t="s">
         <v>259</v>
       </c>
@@ -9576,7 +9578,7 @@
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30" hidden="1">
       <c r="A240" s="30" t="s">
         <v>260</v>
       </c>
@@ -9601,7 +9603,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="30" hidden="1">
       <c r="A241" s="30" t="s">
         <v>261</v>
       </c>
@@ -9626,7 +9628,7 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="30" hidden="1">
       <c r="A242" s="30" t="s">
         <v>262</v>
       </c>
@@ -9651,7 +9653,7 @@
       </c>
       <c r="I242" s="32"/>
     </row>
-    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="30" t="s">
         <v>263</v>
       </c>
@@ -9676,7 +9678,7 @@
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="30" t="s">
         <v>264</v>
       </c>
@@ -9701,7 +9703,7 @@
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="30" t="s">
         <v>265</v>
       </c>
@@ -9726,7 +9728,7 @@
       </c>
       <c r="I245" s="32"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="30" t="s">
         <v>266</v>
       </c>
@@ -9751,7 +9753,7 @@
       </c>
       <c r="I246" s="32"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="30">
       <c r="A247" s="30" t="s">
         <v>267</v>
       </c>
@@ -9776,7 +9778,7 @@
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="75">
       <c r="A248" s="30" t="s">
         <v>268</v>
       </c>
@@ -9801,7 +9803,7 @@
       </c>
       <c r="I248" s="32"/>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="30" t="s">
         <v>269</v>
       </c>
@@ -9826,7 +9828,7 @@
       </c>
       <c r="I249" s="32"/>
     </row>
-    <row r="250" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="45">
       <c r="A250" s="30" t="s">
         <v>270</v>
       </c>
@@ -9851,7 +9853,7 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="30" t="s">
         <v>271</v>
       </c>
@@ -9876,7 +9878,7 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="75">
       <c r="A252" s="22" t="s">
         <v>272</v>
       </c>
@@ -9901,15 +9903,15 @@
       </c>
       <c r="I252" s="32"/>
     </row>
-    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="60">
       <c r="A253" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B253" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9926,15 +9928,15 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75">
       <c r="A254" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B254" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D254" s="34"/>
       <c r="E254" s="34" t="s">
@@ -9951,15 +9953,15 @@
       </c>
       <c r="I254" s="35"/>
     </row>
-    <row r="255" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="75">
       <c r="A255" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="B255" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="B255" s="24" t="s">
-        <v>688</v>
-      </c>
       <c r="C255" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D255" s="22"/>
       <c r="E255" s="22" t="s">
@@ -9976,15 +9978,15 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="75">
       <c r="A256" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B256" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
@@ -10001,7 +10003,7 @@
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="60">
       <c r="A257" s="30" t="s">
         <v>273</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>345</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
@@ -10026,7 +10028,7 @@
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="30" t="s">
         <v>274</v>
       </c>
@@ -10051,7 +10053,7 @@
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="30" t="s">
         <v>275</v>
       </c>
@@ -10076,7 +10078,7 @@
       </c>
       <c r="I259" s="32"/>
     </row>
-    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="30" t="s">
         <v>276</v>
       </c>
@@ -10101,7 +10103,7 @@
       </c>
       <c r="I260" s="32"/>
     </row>
-    <row r="261" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="60">
       <c r="A261" s="22" t="s">
         <v>277</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="60">
       <c r="A262" s="30" t="s">
         <v>278</v>
       </c>
@@ -10153,7 +10155,7 @@
       </c>
       <c r="I262" s="32"/>
     </row>
-    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="120">
       <c r="A263" s="22" t="s">
         <v>279</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>345</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
@@ -10177,10 +10179,10 @@
         <v>17</v>
       </c>
       <c r="I263" s="20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="30">
       <c r="A264" s="30" t="s">
         <v>280</v>
       </c>
@@ -10207,7 +10209,7 @@
       </c>
       <c r="I264" s="32"/>
     </row>
-    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="30" t="s">
         <v>281</v>
       </c>
@@ -10234,7 +10236,7 @@
       </c>
       <c r="I265" s="32"/>
     </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="30" t="s">
         <v>282</v>
       </c>
@@ -10261,7 +10263,7 @@
       </c>
       <c r="I266" s="32"/>
     </row>
-    <row r="267" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="75">
       <c r="A267" s="30" t="s">
         <v>283</v>
       </c>
@@ -10288,7 +10290,7 @@
       </c>
       <c r="I267" s="32"/>
     </row>
-    <row r="268" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="60">
       <c r="A268" s="30" t="s">
         <v>284</v>
       </c>
@@ -10315,7 +10317,7 @@
       </c>
       <c r="I268" s="32"/>
     </row>
-    <row r="269" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="60">
       <c r="A269" s="30" t="s">
         <v>285</v>
       </c>
@@ -10342,7 +10344,7 @@
       </c>
       <c r="I269" s="32"/>
     </row>
-    <row r="270" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="30" hidden="1">
       <c r="A270" s="30" t="s">
         <v>286</v>
       </c>
@@ -10367,7 +10369,7 @@
       </c>
       <c r="I270" s="32"/>
     </row>
-    <row r="271" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30" hidden="1">
       <c r="A271" s="30" t="s">
         <v>287</v>
       </c>
@@ -10392,7 +10394,7 @@
       </c>
       <c r="I271" s="32"/>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="30" hidden="1">
       <c r="A272" s="30" t="s">
         <v>288</v>
       </c>
@@ -10417,7 +10419,7 @@
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" hidden="1">
       <c r="A273" s="30" t="s">
         <v>289</v>
       </c>
@@ -10442,7 +10444,7 @@
       </c>
       <c r="I273" s="32"/>
     </row>
-    <row r="274" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="30" hidden="1">
       <c r="A274" s="30" t="s">
         <v>290</v>
       </c>
@@ -10467,7 +10469,7 @@
       </c>
       <c r="I274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" hidden="1">
       <c r="A275" s="30" t="s">
         <v>291</v>
       </c>
@@ -10492,7 +10494,7 @@
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="150" hidden="1">
       <c r="A276" s="30" t="s">
         <v>292</v>
       </c>
@@ -10517,7 +10519,7 @@
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" s="30" t="s">
         <v>293</v>
       </c>
@@ -10542,7 +10544,7 @@
       </c>
       <c r="I277" s="32"/>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" s="30" t="s">
         <v>294</v>
       </c>
@@ -10567,7 +10569,7 @@
       </c>
       <c r="I278" s="32"/>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" s="30" t="s">
         <v>295</v>
       </c>
@@ -10592,7 +10594,7 @@
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="30" hidden="1">
       <c r="A280" s="30" t="s">
         <v>296</v>
       </c>
@@ -10617,7 +10619,7 @@
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" hidden="1">
       <c r="A281" s="30" t="s">
         <v>297</v>
       </c>
@@ -10642,7 +10644,7 @@
       </c>
       <c r="I281" s="32"/>
     </row>
-    <row r="282" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30" hidden="1">
       <c r="A282" s="30" t="s">
         <v>298</v>
       </c>
@@ -10667,7 +10669,7 @@
       </c>
       <c r="I282" s="32"/>
     </row>
-    <row r="283" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="165" hidden="1">
       <c r="A283" s="30" t="s">
         <v>299</v>
       </c>
@@ -10692,7 +10694,7 @@
       </c>
       <c r="I283" s="32"/>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="30" hidden="1">
       <c r="A284" s="30" t="s">
         <v>300</v>
       </c>
@@ -10717,7 +10719,7 @@
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="30" hidden="1">
       <c r="A285" s="30" t="s">
         <v>301</v>
       </c>
@@ -10742,7 +10744,7 @@
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="30" hidden="1">
       <c r="A286" s="30" t="s">
         <v>302</v>
       </c>
@@ -10767,7 +10769,7 @@
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="30" hidden="1">
       <c r="A287" s="30" t="s">
         <v>303</v>
       </c>
@@ -10792,7 +10794,7 @@
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="30" hidden="1">
       <c r="A288" s="30" t="s">
         <v>304</v>
       </c>
@@ -10817,7 +10819,7 @@
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="45" hidden="1">
       <c r="A289" s="30" t="s">
         <v>305</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" s="33" customFormat="1" ht="45" hidden="1">
       <c r="A290" s="22" t="s">
         <v>306</v>
       </c>
@@ -10857,7 +10859,7 @@
         <v>599</v>
       </c>
       <c r="D290" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E290" s="30" t="s">
         <v>22</v>
@@ -10875,7 +10877,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="33" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" s="33" customFormat="1" ht="45" hidden="1">
       <c r="A291" s="30" t="s">
         <v>307</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>600</v>
       </c>
       <c r="D291" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E291" s="30" t="s">
         <v>22</v>
@@ -10904,7 +10906,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="60" hidden="1">
       <c r="A292" s="30" t="s">
         <v>308</v>
       </c>
@@ -10912,7 +10914,7 @@
         <v>350</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D292" s="22" t="s">
         <v>625</v>
@@ -10933,7 +10935,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="60" hidden="1">
       <c r="A293" s="30" t="s">
         <v>309</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>350</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D293" s="30" t="s">
         <v>625</v>
@@ -10962,7 +10964,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="45" hidden="1">
       <c r="A294" s="30" t="s">
         <v>310</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="45" hidden="1">
       <c r="A295" s="30" t="s">
         <v>311</v>
       </c>
@@ -11020,7 +11022,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="45" hidden="1">
       <c r="A296" s="30" t="s">
         <v>312</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30" hidden="1">
       <c r="A297" s="22" t="s">
         <v>649</v>
       </c>
@@ -11076,7 +11078,7 @@
       </c>
       <c r="I297" s="32"/>
     </row>
-    <row r="298" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="30" hidden="1">
       <c r="A298" s="22" t="s">
         <v>653</v>
       </c>
@@ -11103,7 +11105,7 @@
       </c>
       <c r="I298" s="32"/>
     </row>
-    <row r="299" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="45" hidden="1">
       <c r="A299" s="30" t="s">
         <v>313</v>
       </c>
@@ -11111,7 +11113,7 @@
         <v>350</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D299" s="22" t="s">
         <v>627</v>
@@ -11132,7 +11134,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="45" hidden="1">
       <c r="A300" s="30" t="s">
         <v>314</v>
       </c>
@@ -11140,7 +11142,7 @@
         <v>350</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D300" s="30" t="s">
         <v>627</v>
@@ -11161,7 +11163,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="45" hidden="1">
       <c r="A301" s="22" t="s">
         <v>656</v>
       </c>
@@ -11188,7 +11190,7 @@
       </c>
       <c r="I301" s="32"/>
     </row>
-    <row r="302" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="45" hidden="1">
       <c r="A302" s="22" t="s">
         <v>658</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>350</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D302" s="22" t="s">
         <v>657</v>
@@ -11217,7 +11219,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="60" hidden="1">
       <c r="A303" s="22" t="s">
         <v>666</v>
       </c>
@@ -11246,7 +11248,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="45" hidden="1">
       <c r="A304" s="22" t="s">
         <v>315</v>
       </c>
@@ -11271,7 +11273,7 @@
       </c>
       <c r="I304" s="32"/>
     </row>
-    <row r="305" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="30" hidden="1">
       <c r="A305" s="30" t="s">
         <v>316</v>
       </c>
@@ -11296,11 +11298,11 @@
       </c>
       <c r="I305" s="32"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9">
       <c r="A306" s="3"/>
       <c r="B306" s="10"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9">
       <c r="A307" s="3"/>
       <c r="B307" s="10"/>
     </row>
